--- a/data/01_raw/historical/revenues/Quarterly.xlsx
+++ b/data/01_raw/historical/revenues/Quarterly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/FiveYearPlan/Analysis/five-year-plan-analysis/data/historical/revenues/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/FiveYearPlan/Analysis/five-year-plan-analysis/data/01_raw/historical/revenues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A52A8A6-70C2-2842-95AA-7BC41C8892AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99169B5-17F2-E14C-8535-36CB5D865240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wage &amp; Earnings" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,16 @@
     <t>Wage + Earnings History</t>
   </si>
   <si>
+    <t>Current Year Only</t>
+  </si>
+  <si>
+    <t>Collections by Quarter</t>
+  </si>
+  <si>
     <t>FY21 Q4 Projection Calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Source</t>
@@ -82,13 +91,28 @@
     <t>City Earnings Current</t>
   </si>
   <si>
+    <t>Update Instructions</t>
+  </si>
+  <si>
+    <t>1. Add current fiscal year and update past values with actual collections using "Latest Collections Data" sheet.</t>
+  </si>
+  <si>
     <t>Implied Wage+Earnings Total</t>
+  </si>
+  <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual Wage+Earnings (Current Year) line in "Supplemental" report.</t>
   </si>
   <si>
     <t>FY21 Projected Total</t>
   </si>
   <si>
+    <t>3. Total line for current fiscal year should be filled with projected value as listed in the current Plan.</t>
+  </si>
+  <si>
     <t>FY22-FY26 Five Year Plan Documents</t>
+  </si>
+  <si>
+    <t>4. The Q4 total for the current fiscal year can be inferred from the latest available collections report from the Revenue Department (April or May collections). See calculation to the right.</t>
   </si>
   <si>
     <t>Sales Tax History</t>
@@ -98,6 +122,9 @@
   </si>
   <si>
     <t>Note: Amounts in FAMIS 2 months behind actual collections</t>
+  </si>
+  <si>
+    <t>Monthly Totals from Five Year Plan Sales Tax Revenue Model</t>
   </si>
   <si>
     <t>Legend</t>
@@ -130,13 +157,13 @@
     <t>July</t>
   </si>
   <si>
-    <t>Projection based on growth rates in FYP</t>
+    <t>Estimated based on actual City portion of sales tax</t>
   </si>
   <si>
     <t>August</t>
   </si>
   <si>
-    <t>Estimated based on actual City portion of sales tax</t>
+    <t>Projection based on growth rates in FYP</t>
   </si>
   <si>
     <t>September</t>
@@ -151,6 +178,9 @@
     <t>December</t>
   </si>
   <si>
+    <t>1. Using latest Sales Tax spreadsheet model, fill in the monthly collections to the right with actual values. Include monthly projected values through the first two months of the next fiscal year</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -163,10 +193,16 @@
     <t>April</t>
   </si>
   <si>
+    <t>2. Fill in the quarterly collections by aggregating the monthly totals</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>3. Update color fill for monthly totals based on formulas in Sales Tax models. Cells using growth rates are projected (red), while those listed as 2 * VALUE are estimates based on City-only collections (yellow)</t>
   </si>
   <si>
     <t>BIRT History</t>
@@ -175,19 +211,19 @@
     <t>Current + Prior Year</t>
   </si>
   <si>
-    <t>Collections by Quarter</t>
-  </si>
-  <si>
     <t>BIRT Current+Prior</t>
   </si>
   <si>
     <t>Shifted Date Accrual (FY20 only)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual BIRT (Current+Prior Year) line in "Supplemental" report.</t>
   </si>
   <si>
     <t>Realty Transfer Tax History</t>
+  </si>
+  <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual RTT line in "Supplemental" report.</t>
   </si>
   <si>
     <t>Net Profits Tax History</t>
@@ -196,10 +232,19 @@
     <t>NPT Current</t>
   </si>
   <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual NPT (Current Year) line in "Supplemental" report.</t>
+  </si>
+  <si>
     <t>Parking Tax History</t>
   </si>
   <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual Parking line in "Supplemental" report.</t>
+  </si>
+  <si>
     <t>Amusement Tax History</t>
+  </si>
+  <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual Amusement line in "Supplemental" report.</t>
   </si>
   <si>
     <t>Quarterly Collections Since Fiscal Year 2014</t>
@@ -209,6 +254,9 @@
   </si>
   <si>
     <t>Sourced from Revenue Department monthly collections reports</t>
+  </si>
+  <si>
+    <t>Run: "fyp-analysis update-quarterly-collections"</t>
   </si>
   <si>
     <t>This command will automatically fill this sheet with the latest date</t>
@@ -234,70 +282,6 @@
   <si>
     <t>Amusement</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Open Sans Regular"/>
-      </rPr>
-      <t>Run</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Open Sans Regular"/>
-      </rPr>
-      <t>: "fyp-analysis update-quarterly-collections"</t>
-    </r>
-  </si>
-  <si>
-    <t>Current Year Only</t>
-  </si>
-  <si>
-    <t>Update Instructions</t>
-  </si>
-  <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual Wage+Earnings (Current Year) line in "Supplemental" report.</t>
-  </si>
-  <si>
-    <t>1. Add current fiscal year and update past values with actual collections using "Latest Collections Data" sheet.</t>
-  </si>
-  <si>
-    <t>4. The Q4 total for the current fiscal year can be inferred from the latest available collections report from the Revenue Department (April or May collections). See calculation to the right.</t>
-  </si>
-  <si>
-    <t>3. Total line for current fiscal year should be filled with projected value as listed in the current Plan.</t>
-  </si>
-  <si>
-    <t>Monthly Totals from Five Year Plan Sales Tax Revenue Model</t>
-  </si>
-  <si>
-    <t>1. Using latest Sales Tax spreadsheet model, fill in the monthly collections to the right with actual values. Include monthly projected values through the first two months of the next fiscal year</t>
-  </si>
-  <si>
-    <t>2. Fill in the quarterly collections by aggregating the monthly totals</t>
-  </si>
-  <si>
-    <t>3. Update color fill for monthly totals based on formulas in Sales Tax models. Cells using growth rates are projected (red), while those listed as 2 * VALUE are estimates based on City-only collections (yellow)</t>
-  </si>
-  <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual BIRT (Current+Prior Year) line in "Supplemental" report.</t>
-  </si>
-  <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual RTT line in "Supplemental" report.</t>
-  </si>
-  <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual NPT (Current Year) line in "Supplemental" report.</t>
-  </si>
-  <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual Parking line in "Supplemental" report.</t>
-  </si>
-  <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual Amusement line in "Supplemental" report.</t>
-  </si>
 </sst>
 </file>
 
@@ -306,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,11 +436,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Open Sans Regular"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -496,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -593,32 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -653,12 +606,27 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,104 +770,55 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -915,19 +834,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1277,18 +1184,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="72" customWidth="1"/>
-    <col min="2" max="6" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="15" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="72" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="72" customWidth="1"/>
-    <col min="29" max="29" width="15" style="72" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" style="72" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="72" customWidth="1"/>
-    <col min="32" max="37" width="8.83203125" style="72" customWidth="1"/>
-    <col min="38" max="16384" width="8.83203125" style="72"/>
+    <col min="1" max="1" width="30.33203125" style="79" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="79" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="15" style="79" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="79" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="79" customWidth="1"/>
+    <col min="29" max="29" width="15" style="79" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5" style="79" customWidth="1"/>
+    <col min="31" max="31" width="21.83203125" style="79" customWidth="1"/>
+    <col min="32" max="38" width="8.83203125" style="79" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="29" customHeight="1">
@@ -1317,8 +1224,8 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>66</v>
+      <c r="A2" s="74" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1341,9 +1248,9 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:31" ht="24">
+    <row r="3" spans="1:31" ht="24" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1366,14 +1273,14 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1">
-      <c r="AD4" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="94"/>
+      <c r="AD4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="88"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11">
         <v>1996</v>
@@ -1454,10 +1361,10 @@
         <v>2021</v>
       </c>
       <c r="AD5" s="61" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1627,7 +1534,7 @@
         <v>351127009</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1713,7 +1620,7 @@
         <v>399740760</v>
       </c>
       <c r="AD8" s="61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE8" s="69">
         <f>1490734000</f>
@@ -1804,7 +1711,7 @@
         <v>377954541</v>
       </c>
       <c r="AD9" s="61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE9" s="69">
         <f>1258949142</f>
@@ -1813,7 +1720,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -1920,7 +1827,7 @@
         <v>1500738426</v>
       </c>
       <c r="AD10" s="61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE10" s="69">
         <v>143346908</v>
@@ -1928,7 +1835,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -2015,7 +1922,7 @@
         <v>-86594348.109999895</v>
       </c>
       <c r="AD11" s="61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE11" s="69">
         <f>AE8-(AE9-AE10)</f>
@@ -2024,7 +1931,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -2113,7 +2020,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -2214,13 +2121,13 @@
         <v>1500734000</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE13" s="69"/>
     </row>
     <row r="14" spans="1:31">
       <c r="AD14" s="61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE14" s="69">
         <v>10000000</v>
@@ -2228,7 +2135,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="AD15" s="61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE15" s="69">
         <f>6618095</f>
@@ -2237,21 +2144,21 @@
     </row>
     <row r="16" spans="1:31">
       <c r="AD16" s="61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE16" s="69">
         <v>-559130</v>
       </c>
     </row>
-    <row r="17" spans="24:32" ht="21">
-      <c r="X17" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="98"/>
+    <row r="17" spans="24:32" ht="21" customHeight="1">
+      <c r="X17" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
       <c r="AD17" s="61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE17" s="69">
         <f>AE14-(AE15-AE16)</f>
@@ -2259,21 +2166,21 @@
       </c>
     </row>
     <row r="18" spans="24:32" ht="19" customHeight="1">
-      <c r="X18" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
+      <c r="X18" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
       <c r="AD18" s="61"/>
     </row>
     <row r="19" spans="24:32">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
       <c r="AD19" s="61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE19" s="69">
         <f>AE17+AE11</f>
@@ -2281,69 +2188,69 @@
       </c>
     </row>
     <row r="20" spans="24:32" ht="19" customHeight="1">
-      <c r="X20" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
+      <c r="X20" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
     </row>
     <row r="21" spans="24:32">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="24:32" ht="21" customHeight="1">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-      <c r="AD22" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
+      <c r="AD22" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
     </row>
     <row r="23" spans="24:32">
-      <c r="X23" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
+      <c r="X23" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
       <c r="AD23" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="72" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="AE23" s="79" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="24:32">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
     </row>
     <row r="25" spans="24:32" ht="19" customHeight="1">
-      <c r="X25" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
+      <c r="X25" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83"/>
     </row>
     <row r="26" spans="24:32">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="24:32">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2364,7 +2271,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -2372,28 +2279,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="72" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="72" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="72" customWidth="1"/>
-    <col min="29" max="34" width="8.83203125" style="72" customWidth="1"/>
-    <col min="35" max="16384" width="8.83203125" style="72"/>
+    <col min="1" max="1" width="20.5" style="79" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="79" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="79" customWidth="1"/>
+    <col min="29" max="35" width="8.83203125" style="79" customWidth="1"/>
+    <col min="36" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="22" customFormat="1" ht="29" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="23" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="60" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="23" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2820,7 +2727,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -2929,7 +2836,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -3017,7 +2924,7 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -3106,7 +3013,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:AA13" si="2">SUM(B10:B12)</f>
@@ -3213,52 +3120,52 @@
         <v>330183470.49020004</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="21">
-      <c r="U16" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-    </row>
-    <row r="17" spans="15:28">
-      <c r="R17" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="94"/>
+    <row r="16" spans="1:28" ht="21" customHeight="1">
+      <c r="U16" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+    </row>
+    <row r="17" spans="16:28">
+      <c r="R17" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="88"/>
       <c r="V17" s="27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="X17" s="28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Z17" s="28" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AB17" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="15:28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="16:28">
       <c r="R18" s="61" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="S18" s="57"/>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V18" s="30">
         <v>22409376.989999998</v>
@@ -3282,13 +3189,13 @@
         <v>28055757.6587</v>
       </c>
     </row>
-    <row r="19" spans="15:28">
+    <row r="19" spans="16:28">
       <c r="R19" s="61" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S19" s="59"/>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="V19" s="30">
         <v>27040791.600000001</v>
@@ -3312,13 +3219,13 @@
         <v>30695021.788199998</v>
       </c>
     </row>
-    <row r="20" spans="15:28">
+    <row r="20" spans="16:28">
       <c r="R20" s="61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="S20" s="58"/>
       <c r="U20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="V20" s="30">
         <v>23405191.57</v>
@@ -3340,9 +3247,9 @@
       </c>
       <c r="AB20" s="30"/>
     </row>
-    <row r="21" spans="15:28">
+    <row r="21" spans="16:28">
       <c r="U21" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="V21" s="30">
         <v>22444295.52</v>
@@ -3364,9 +3271,9 @@
       </c>
       <c r="AB21" s="30"/>
     </row>
-    <row r="22" spans="15:28">
+    <row r="22" spans="16:28">
       <c r="U22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="V22" s="30">
         <v>26261561.43</v>
@@ -3388,15 +3295,15 @@
       </c>
       <c r="AB22" s="30"/>
     </row>
-    <row r="23" spans="15:28" ht="21">
-      <c r="P23" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="98"/>
+    <row r="23" spans="16:28" ht="21" customHeight="1">
+      <c r="P23" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="94"/>
       <c r="U23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="V23" s="30">
         <v>20060555.510000002</v>
@@ -3418,15 +3325,15 @@
       </c>
       <c r="AB23" s="30"/>
     </row>
-    <row r="24" spans="15:28" ht="19" customHeight="1">
-      <c r="P24" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="86"/>
+    <row r="24" spans="16:28" ht="19" customHeight="1">
+      <c r="P24" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="83"/>
       <c r="U24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="V24" s="30">
         <v>25510953.219999999</v>
@@ -3448,13 +3355,13 @@
       </c>
       <c r="AB24" s="30"/>
     </row>
-    <row r="25" spans="15:28">
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="92"/>
+    <row r="25" spans="16:28">
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="89"/>
       <c r="U25" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="V25" s="30">
         <v>27916550.870000001</v>
@@ -3476,13 +3383,13 @@
       </c>
       <c r="AB25" s="30"/>
     </row>
-    <row r="26" spans="15:28">
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="92"/>
+    <row r="26" spans="16:28">
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="89"/>
       <c r="U26" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V26" s="30">
         <v>20349103.050000001</v>
@@ -3504,13 +3411,13 @@
       </c>
       <c r="AB26" s="30"/>
     </row>
-    <row r="27" spans="15:28">
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="89"/>
+    <row r="27" spans="16:28">
+      <c r="P27" s="84"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="86"/>
       <c r="U27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V27" s="30">
         <v>22534330.210000001</v>
@@ -3532,15 +3439,15 @@
       </c>
       <c r="AB27" s="30"/>
     </row>
-    <row r="28" spans="15:28" ht="19" customHeight="1">
-      <c r="P28" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101"/>
+    <row r="28" spans="16:28" ht="19" customHeight="1">
+      <c r="P28" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="83"/>
       <c r="U28" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="V28" s="30">
         <v>26048730.48</v>
@@ -3562,13 +3469,13 @@
       </c>
       <c r="AB28" s="30"/>
     </row>
-    <row r="29" spans="15:28">
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="104"/>
+    <row r="29" spans="16:28">
+      <c r="P29" s="84"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="86"/>
       <c r="U29" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="V29" s="30">
         <v>23949765.899999999</v>
@@ -3590,15 +3497,15 @@
       </c>
       <c r="AB29" s="33"/>
     </row>
-    <row r="30" spans="15:28" ht="19" customHeight="1">
-      <c r="P30" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="101"/>
+    <row r="30" spans="16:28" ht="19" customHeight="1">
+      <c r="P30" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="83"/>
       <c r="U30" s="31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V30" s="29">
         <v>287931206.35000002</v>
@@ -3620,14 +3527,13 @@
       </c>
       <c r="AB30" s="29"/>
     </row>
-    <row r="31" spans="15:28" ht="19" customHeight="1">
-      <c r="O31" s="80"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="107"/>
+    <row r="31" spans="16:28" ht="19" customHeight="1">
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="89"/>
       <c r="U31" s="32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V31" s="30">
         <v>-49450168.590000004</v>
@@ -3649,14 +3555,13 @@
       </c>
       <c r="AB31" s="30"/>
     </row>
-    <row r="32" spans="15:28">
-      <c r="O32" s="80"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="107"/>
+    <row r="32" spans="16:28">
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="89"/>
       <c r="U32" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V32" s="30">
         <v>52563997.539999999</v>
@@ -3678,12 +3583,11 @@
       </c>
       <c r="AB32" s="30"/>
     </row>
-    <row r="33" spans="15:28">
-      <c r="O33" s="80"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="104"/>
+    <row r="33" spans="16:28">
+      <c r="P33" s="84"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="86"/>
       <c r="V33" s="29">
         <v>291045035.30000001</v>
       </c>
@@ -3704,47 +3608,35 @@
       </c>
       <c r="AB33" s="29"/>
     </row>
-    <row r="34" spans="15:28">
-      <c r="O34" s="80"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-    </row>
-    <row r="35" spans="15:28">
-      <c r="O35" s="80"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-    </row>
-    <row r="36" spans="15:28">
-      <c r="O36" s="80"/>
+    <row r="34" spans="16:28">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+    </row>
+    <row r="35" spans="16:28">
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+    </row>
+    <row r="36" spans="16:28">
       <c r="P36" s="78"/>
       <c r="Q36" s="78"/>
       <c r="R36" s="78"/>
       <c r="S36" s="78"/>
     </row>
-    <row r="37" spans="15:28">
-      <c r="O37" s="80"/>
+    <row r="37" spans="16:28">
       <c r="P37" s="78"/>
       <c r="Q37" s="78"/>
       <c r="R37" s="78"/>
       <c r="S37" s="78"/>
     </row>
-    <row r="38" spans="15:28">
-      <c r="O38" s="80"/>
+    <row r="38" spans="16:28">
       <c r="P38" s="78"/>
       <c r="Q38" s="78"/>
       <c r="R38" s="78"/>
       <c r="S38" s="78"/>
-    </row>
-    <row r="39" spans="15:28">
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3763,47 +3655,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="39" customWidth="1"/>
-    <col min="2" max="24" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.83203125" style="72" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="72" customWidth="1"/>
-    <col min="29" max="30" width="8.83203125" style="72" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="72" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="72" customWidth="1"/>
-    <col min="33" max="38" width="8.83203125" style="72" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="72"/>
+    <col min="2" max="24" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" style="79" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="79" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" style="79" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="79" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="79" customWidth="1"/>
+    <col min="33" max="39" width="8.83203125" style="79" customWidth="1"/>
+    <col min="40" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="29" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="24" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1">
       <c r="A3" s="62" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="21" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="AD4" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
+      <c r="AD4" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="41"/>
@@ -3886,10 +3778,10 @@
         <v>2021</v>
       </c>
       <c r="AE5" s="61" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -3974,7 +3866,7 @@
       <c r="AA6" s="46">
         <v>312731337</v>
       </c>
-      <c r="AB6" s="73"/>
+      <c r="AB6" s="72"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="40">
@@ -4060,7 +3952,7 @@
       </c>
       <c r="AB7" s="46"/>
       <c r="AE7" s="19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -4147,7 +4039,7 @@
       </c>
       <c r="AB8" s="46"/>
       <c r="AE8" s="61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="69">
         <v>516747000</v>
@@ -4238,7 +4130,7 @@
       </c>
       <c r="AB9" s="46"/>
       <c r="AE9" s="61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF9" s="69">
         <v>646096224</v>
@@ -4246,7 +4138,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -4354,7 +4246,7 @@
       </c>
       <c r="AB10" s="24"/>
       <c r="AE10" s="61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF10" s="69">
         <v>199447599</v>
@@ -4362,7 +4254,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -4450,7 +4342,7 @@
       </c>
       <c r="AB11" s="25"/>
       <c r="AE11" s="61" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AF11" s="69">
         <f>Z12</f>
@@ -4459,7 +4351,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -4542,12 +4434,12 @@
         <v>283732853.84000003</v>
       </c>
       <c r="AA12" s="24">
-        <f>AA13-AA11-AA10</f>
+        <f t="shared" si="2"/>
         <v>-20458</v>
       </c>
       <c r="AB12" s="24"/>
       <c r="AE12" s="61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF12" s="69">
         <f>AF8-(AF9-AF10-AF11)</f>
@@ -4556,7 +4448,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -4664,106 +4556,106 @@
       <c r="AF14" s="69"/>
     </row>
     <row r="15" spans="1:32" ht="21" customHeight="1">
-      <c r="AD15" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
-    </row>
-    <row r="16" spans="1:32" ht="21">
-      <c r="X16" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="98"/>
+      <c r="AD15" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+    </row>
+    <row r="16" spans="1:32" ht="21" customHeight="1">
+      <c r="X16" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
       <c r="AD16" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="72" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="AE16" s="79" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="24:32">
-      <c r="X17" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="86"/>
+      <c r="X17" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83"/>
       <c r="AE17" s="61"/>
       <c r="AF17" s="69"/>
     </row>
     <row r="18" spans="24:32" ht="19" customHeight="1">
-      <c r="X18" s="87"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
       <c r="AE18" s="61"/>
       <c r="AF18" s="69"/>
     </row>
     <row r="19" spans="24:32">
-      <c r="X19" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
+      <c r="X19" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="83"/>
       <c r="AE19" s="61"/>
     </row>
     <row r="20" spans="24:32" ht="19" customHeight="1">
-      <c r="X20" s="90"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="92"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
       <c r="AE20" s="61"/>
       <c r="AF20" s="69"/>
     </row>
     <row r="21" spans="24:32">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="86"/>
     </row>
     <row r="22" spans="24:32">
-      <c r="X22" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
+      <c r="X22" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="83"/>
     </row>
     <row r="23" spans="24:32" ht="19" customHeight="1">
-      <c r="X23" s="87"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
     </row>
     <row r="24" spans="24:32">
-      <c r="X24" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
+      <c r="X24" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="83"/>
     </row>
     <row r="25" spans="24:32" ht="19" customHeight="1">
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="92"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
     </row>
     <row r="26" spans="24:32">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="24:32">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4792,35 +4684,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="72" customWidth="1"/>
-    <col min="2" max="8" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="72" customWidth="1"/>
-    <col min="28" max="29" width="8.83203125" style="72" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" style="72" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" style="72" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" style="72" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" style="72" customWidth="1"/>
-    <col min="34" max="39" width="8.83203125" style="72" customWidth="1"/>
-    <col min="40" max="16384" width="8.83203125" style="72"/>
+    <col min="1" max="1" width="16" style="79" customWidth="1"/>
+    <col min="2" max="8" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" style="79" customWidth="1"/>
+    <col min="28" max="29" width="8.83203125" style="79" customWidth="1"/>
+    <col min="30" max="30" width="5.83203125" style="79" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" style="79" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="79" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" style="79" customWidth="1"/>
+    <col min="34" max="40" width="8.83203125" style="79" customWidth="1"/>
+    <col min="41" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="21" customHeight="1">
-      <c r="AE4" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="111"/>
+      <c r="AE4" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="21"/>
@@ -4903,10 +4795,10 @@
         <v>2021</v>
       </c>
       <c r="AF5" s="61" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5075,7 +4967,7 @@
         <v>87380433</v>
       </c>
       <c r="AF7" s="61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG7" s="69">
         <f>AA13</f>
@@ -5165,7 +5057,7 @@
         <v>66318437</v>
       </c>
       <c r="AF8" s="61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG8" s="69">
         <v>262506501</v>
@@ -5255,7 +5147,7 @@
         <v>61910792</v>
       </c>
       <c r="AF9" s="61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG9" s="69">
         <v>25110293</v>
@@ -5263,7 +5155,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -5370,7 +5262,7 @@
         <v>299307000</v>
       </c>
       <c r="AF10" s="61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG10" s="69">
         <f>AG7-(AG8-AG9)</f>
@@ -5379,7 +5271,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -5468,7 +5360,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -5555,9 +5447,9 @@
         <v>14453661.729999989</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="21">
+    <row r="13" spans="1:33" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -5657,101 +5549,101 @@
       <c r="AA13" s="20">
         <v>299307000</v>
       </c>
-      <c r="AE13" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
+      <c r="AE13" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="AE14" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="21">
-      <c r="X16" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="98"/>
+      <c r="AE14" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="21" customHeight="1">
+      <c r="X16" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
     </row>
     <row r="17" spans="24:27">
-      <c r="X17" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="86"/>
+      <c r="X17" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="83"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="87"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
+      <c r="X19" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="83"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="90"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="92"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="86"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
+      <c r="X22" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="83"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="87"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
+      <c r="X24" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="83"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="92"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5780,28 +5672,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="72" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="72" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" style="72" customWidth="1"/>
-    <col min="28" max="30" width="8.83203125" style="72" customWidth="1"/>
-    <col min="31" max="31" width="11.1640625" style="72" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" style="72" customWidth="1"/>
-    <col min="33" max="33" width="15" style="72" customWidth="1"/>
-    <col min="34" max="39" width="8.83203125" style="72" customWidth="1"/>
-    <col min="40" max="16384" width="8.83203125" style="72"/>
+    <col min="1" max="1" width="19.6640625" style="79" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="79" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="79" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" style="79" customWidth="1"/>
+    <col min="28" max="30" width="8.83203125" style="79" customWidth="1"/>
+    <col min="31" max="31" width="11.1640625" style="79" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" style="79" customWidth="1"/>
+    <col min="33" max="33" width="15" style="79" customWidth="1"/>
+    <col min="34" max="40" width="8.83203125" style="79" customWidth="1"/>
+    <col min="41" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="29" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -5809,17 +5701,17 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:41" ht="24" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>66</v>
+      <c r="A2" s="74" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:41" ht="24">
+    <row r="3" spans="1:41" ht="24" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5839,12 +5731,12 @@
       <c r="AO3" s="6"/>
     </row>
     <row r="4" spans="1:41" ht="21" customHeight="1">
-      <c r="AD4" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
+      <c r="AD4" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AM4" s="6"/>
@@ -5934,10 +5826,10 @@
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="53"/>
       <c r="AI5" s="53"/>
@@ -6125,7 +6017,7 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="55" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AG7" s="55"/>
       <c r="AH7" s="6"/>
@@ -6222,7 +6114,7 @@
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="70">
         <f>AA13</f>
@@ -6323,7 +6215,7 @@
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="70">
         <v>33129699</v>
@@ -6339,7 +6231,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="50">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -6448,7 +6340,7 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG10" s="70">
         <v>9185067</v>
@@ -6464,7 +6356,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -6553,7 +6445,7 @@
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="52" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AG11" s="70">
         <f>Z12</f>
@@ -6570,7 +6462,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -6659,7 +6551,7 @@
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG12" s="70">
         <f>AG8-(AG9-AG10-AG11)</f>
@@ -6676,7 +6568,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -6777,103 +6669,103 @@
         <v>20003000</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="21">
-      <c r="AE14" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
+    <row r="14" spans="1:41" ht="21" customHeight="1">
+      <c r="AE14" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
     </row>
     <row r="15" spans="1:41">
       <c r="AE15" s="52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AG15" s="6"/>
     </row>
-    <row r="17" spans="24:27" ht="21">
-      <c r="X17" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="98"/>
+    <row r="17" spans="24:27" ht="21" customHeight="1">
+      <c r="X17" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
+      <c r="X18" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
+      <c r="X20" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
+      <c r="X23" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
+      <c r="X25" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="92"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="87"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6902,54 +6794,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="72" customWidth="1"/>
-    <col min="2" max="23" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="72" customWidth="1"/>
-    <col min="28" max="30" width="12.5" style="72" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" style="72" customWidth="1"/>
-    <col min="32" max="37" width="8.83203125" style="72" customWidth="1"/>
-    <col min="38" max="16384" width="8.83203125" style="72"/>
+    <col min="1" max="1" width="28.83203125" style="79" customWidth="1"/>
+    <col min="2" max="23" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.83203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="79" customWidth="1"/>
+    <col min="28" max="30" width="12.5" style="79" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" style="79" customWidth="1"/>
+    <col min="32" max="38" width="8.83203125" style="79" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="29" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="24" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1">
       <c r="A3" s="49"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
@@ -6961,11 +6827,11 @@
       <c r="AK3" s="6"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1">
-      <c r="AC4" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
+      <c r="AC4" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AK4" s="6"/>
@@ -7052,10 +6918,10 @@
       </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF5" s="53"/>
       <c r="AG5" s="53"/>
@@ -7237,7 +7103,7 @@
       </c>
       <c r="AC7" s="6"/>
       <c r="AD7" s="52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE7" s="70">
         <f>AA13</f>
@@ -7334,7 +7200,7 @@
       </c>
       <c r="AC8" s="6"/>
       <c r="AD8" s="52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" s="70">
         <v>37657071</v>
@@ -7431,7 +7297,7 @@
       </c>
       <c r="AC9" s="6"/>
       <c r="AD9" s="52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE9" s="70">
         <v>5432565</v>
@@ -7445,7 +7311,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="50">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -7553,7 +7419,7 @@
       </c>
       <c r="AC10" s="6"/>
       <c r="AD10" s="52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE10" s="70">
         <f>AE7-(AE8-AE9)</f>
@@ -7568,7 +7434,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -7664,7 +7530,7 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -7758,9 +7624,9 @@
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
     </row>
-    <row r="13" spans="1:37" ht="21">
+    <row r="13" spans="1:37" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -7860,102 +7726,102 @@
       <c r="AA13" s="56">
         <v>51485000</v>
       </c>
-      <c r="AC13" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
+      <c r="AC13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
     </row>
     <row r="14" spans="1:37">
       <c r="AC14" s="52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE14" s="6"/>
     </row>
-    <row r="17" spans="24:27" ht="21">
-      <c r="X17" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="98"/>
+    <row r="17" spans="24:27" ht="21" customHeight="1">
+      <c r="X17" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
+      <c r="X18" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
+      <c r="X20" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
+      <c r="X23" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
+      <c r="X25" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="92"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="87"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7984,38 +7850,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="72" customWidth="1"/>
-    <col min="2" max="5" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" style="72" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="72" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="72" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="72" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="72" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" style="72" customWidth="1"/>
-    <col min="32" max="32" width="16.1640625" style="72" customWidth="1"/>
-    <col min="33" max="38" width="8.83203125" style="72" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="72"/>
+    <col min="1" max="1" width="19.5" style="79" customWidth="1"/>
+    <col min="2" max="5" width="11" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="79" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="79" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="79" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="79" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" style="79" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="79" customWidth="1"/>
+    <col min="32" max="32" width="16.1640625" style="79" customWidth="1"/>
+    <col min="33" max="39" width="8.83203125" style="79" customWidth="1"/>
+    <col min="40" max="16384" width="8.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="29" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="24" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="AD4" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
+      <c r="AD4" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
@@ -8101,10 +7967,10 @@
       </c>
       <c r="AD5" s="6"/>
       <c r="AE5" s="52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG5" s="53"/>
       <c r="AH5" s="53"/>
@@ -8284,7 +8150,7 @@
       </c>
       <c r="AD7" s="6"/>
       <c r="AE7" s="52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="70">
         <f>AA13</f>
@@ -8380,7 +8246,7 @@
       </c>
       <c r="AD8" s="6"/>
       <c r="AE8" s="52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF8" s="70">
         <v>1417330</v>
@@ -8476,7 +8342,7 @@
       </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="70">
         <v>877659</v>
@@ -8489,7 +8355,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -8597,7 +8463,7 @@
       </c>
       <c r="AD10" s="6"/>
       <c r="AE10" s="52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF10" s="70">
         <f>AF7-(AF8-AF9)</f>
@@ -8611,7 +8477,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -8706,7 +8572,7 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -8793,9 +8659,9 @@
         <v>15856.569999996573</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="21">
+    <row r="13" spans="1:37" ht="21" customHeight="1">
       <c r="A13" s="45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -8895,103 +8761,103 @@
       <c r="AA13" s="56">
         <v>2269000</v>
       </c>
-      <c r="AD13" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
+      <c r="AD13" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="19"/>
       <c r="AD14" s="52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AF14" s="6"/>
     </row>
-    <row r="17" spans="24:27" ht="21">
-      <c r="X17" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="98"/>
+    <row r="17" spans="24:27" ht="21" customHeight="1">
+      <c r="X17" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
+      <c r="X18" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
+      <c r="X20" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
+      <c r="X23" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="83"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
+      <c r="X25" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="92"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="87"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9014,88 +8880,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="72" customWidth="1"/>
-    <col min="2" max="9" width="15.1640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="10.83203125" style="72" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="72"/>
+    <col min="1" max="1" width="16" style="79" customWidth="1"/>
+    <col min="2" max="9" width="15.1640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="10.83203125" style="79" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+        <v>69</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="A2" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="G3" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+      <c r="G3" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B4" s="71">
-        <v>44287</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="68"/>
-      <c r="B7" s="74">
+      <c r="B7" s="80">
         <v>2014</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="80">
         <v>2015</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="80">
         <v>2016</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="80">
         <v>2017</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="80">
         <v>2018</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="80">
         <v>2019</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="80">
         <v>2020</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="80">
         <v>2021</v>
       </c>
     </row>
@@ -9215,33 +9078,33 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="19" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
-      <c r="B14" s="74">
+      <c r="B14" s="80">
         <v>2014</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="80">
         <v>2015</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="80">
         <v>2016</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="80">
         <v>2017</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="80">
         <v>2018</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="80">
         <v>2019</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="80">
         <v>2020</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="80">
         <v>2021</v>
       </c>
     </row>
@@ -9361,33 +9224,33 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="19" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11"/>
-      <c r="B21" s="74">
+      <c r="B21" s="80">
         <v>2014</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="80">
         <v>2015</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="80">
         <v>2016</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="80">
         <v>2017</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="80">
         <v>2018</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="80">
         <v>2019</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="80">
         <v>2020</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="80">
         <v>2021</v>
       </c>
     </row>
@@ -9507,33 +9370,33 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="19" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="11"/>
-      <c r="B28" s="74">
+      <c r="B28" s="80">
         <v>2014</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="80">
         <v>2015</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="80">
         <v>2016</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="80">
         <v>2017</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="80">
         <v>2018</v>
       </c>
-      <c r="G28" s="74">
+      <c r="G28" s="80">
         <v>2019</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="80">
         <v>2020</v>
       </c>
-      <c r="I28" s="74">
+      <c r="I28" s="80">
         <v>2021</v>
       </c>
     </row>
@@ -9653,33 +9516,33 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="55" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="65"/>
-      <c r="B35" s="74">
+      <c r="B35" s="80">
         <v>2014</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="80">
         <v>2015</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="80">
         <v>2016</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="80">
         <v>2017</v>
       </c>
-      <c r="F35" s="74">
+      <c r="F35" s="80">
         <v>2018</v>
       </c>
-      <c r="G35" s="74">
+      <c r="G35" s="80">
         <v>2019</v>
       </c>
-      <c r="H35" s="74">
+      <c r="H35" s="80">
         <v>2020</v>
       </c>
-      <c r="I35" s="74">
+      <c r="I35" s="80">
         <v>2021</v>
       </c>
     </row>
@@ -9799,33 +9662,33 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="55" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="65"/>
-      <c r="B42" s="74">
+      <c r="B42" s="80">
         <v>2014</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="80">
         <v>2015</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="80">
         <v>2016</v>
       </c>
-      <c r="E42" s="74">
+      <c r="E42" s="80">
         <v>2017</v>
       </c>
-      <c r="F42" s="74">
+      <c r="F42" s="80">
         <v>2018</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G42" s="80">
         <v>2019</v>
       </c>
-      <c r="H42" s="74">
+      <c r="H42" s="80">
         <v>2020</v>
       </c>
-      <c r="I42" s="74">
+      <c r="I42" s="80">
         <v>2021</v>
       </c>
     </row>

--- a/data/01_raw/historical/revenues/Quarterly.xlsx
+++ b/data/01_raw/historical/revenues/Quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/FiveYearPlan/Analysis/five-year-plan-analysis/data/01_raw/historical/revenues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99169B5-17F2-E14C-8535-36CB5D865240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57FC6A1-430B-7246-8121-3157FAD47F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36160" yWindow="1720" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wage &amp; Earnings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="NPT" sheetId="5" r:id="rId5"/>
     <sheet name="Parking" sheetId="6" r:id="rId6"/>
     <sheet name="Amusement" sheetId="7" r:id="rId7"/>
-    <sheet name="Latest Collections Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Soda" sheetId="10" r:id="rId8"/>
+    <sheet name="Latest Collections Data" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="87">
   <si>
     <t>Wage + Earnings History</t>
   </si>
@@ -282,15 +283,34 @@
   <si>
     <t>Amusement</t>
   </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Soda Tax History</t>
+  </si>
+  <si>
+    <t>May 2021 Revenue Collections Report</t>
+  </si>
+  <si>
+    <t>FYTD Through May</t>
+  </si>
+  <si>
+    <t>May Monthly Total</t>
+  </si>
+  <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual Beverage Tax line in "Supplemental" report.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +456,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -475,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -630,12 +663,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -787,10 +836,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -837,8 +891,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1184,18 +1240,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="79" customWidth="1"/>
-    <col min="2" max="6" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="79" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="15" style="79" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="79" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="79" customWidth="1"/>
-    <col min="29" max="29" width="15" style="79" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" style="79" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="79" customWidth="1"/>
-    <col min="32" max="38" width="8.83203125" style="79" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="30.33203125" style="80" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="15" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="80" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="80" customWidth="1"/>
+    <col min="29" max="29" width="15" style="80" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5" style="80" customWidth="1"/>
+    <col min="31" max="31" width="21.83203125" style="80" customWidth="1"/>
+    <col min="32" max="40" width="8.83203125" style="80" customWidth="1"/>
+    <col min="41" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="29" customHeight="1">
@@ -1273,10 +1329,10 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1">
-      <c r="AD4" s="90" t="s">
+      <c r="AD4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="88"/>
+      <c r="AE4" s="91"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="11" t="s">
@@ -2151,12 +2207,12 @@
       </c>
     </row>
     <row r="17" spans="24:32" ht="21" customHeight="1">
-      <c r="X17" s="92" t="s">
+      <c r="X17" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="97"/>
       <c r="AD17" s="61" t="s">
         <v>13</v>
       </c>
@@ -2166,19 +2222,19 @@
       </c>
     </row>
     <row r="18" spans="24:32" ht="19" customHeight="1">
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
       <c r="AD18" s="61"/>
     </row>
     <row r="19" spans="24:32">
-      <c r="X19" s="84"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
       <c r="AD19" s="61" t="s">
         <v>19</v>
       </c>
@@ -2188,69 +2244,69 @@
       </c>
     </row>
     <row r="20" spans="24:32" ht="19" customHeight="1">
-      <c r="X20" s="81" t="s">
+      <c r="X20" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
     </row>
     <row r="21" spans="24:32">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="92"/>
     </row>
     <row r="22" spans="24:32" ht="21" customHeight="1">
-      <c r="X22" s="84"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
-      <c r="AD22" s="91" t="s">
+      <c r="X22" s="87"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+      <c r="AD22" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
     </row>
     <row r="23" spans="24:32">
-      <c r="X23" s="81" t="s">
+      <c r="X23" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="83"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
       <c r="AD23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AE23" s="79" t="s">
+      <c r="AE23" s="80" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="24:32">
-      <c r="X24" s="84"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
     </row>
     <row r="25" spans="24:32" ht="19" customHeight="1">
-      <c r="X25" s="81" t="s">
+      <c r="X25" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
     </row>
     <row r="26" spans="24:32">
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
     </row>
     <row r="27" spans="24:32">
-      <c r="X27" s="84"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="86"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2279,13 +2335,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="79" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="79" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="79" customWidth="1"/>
-    <col min="29" max="35" width="8.83203125" style="79" customWidth="1"/>
-    <col min="36" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="20.5" style="80" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="80" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="80" customWidth="1"/>
+    <col min="29" max="37" width="8.83203125" style="80" customWidth="1"/>
+    <col min="38" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="22" customFormat="1" ht="29" customHeight="1">
@@ -3121,22 +3177,22 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1">
-      <c r="U16" s="96" t="s">
+      <c r="U16" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
     </row>
     <row r="17" spans="16:28">
-      <c r="R17" s="97" t="s">
+      <c r="R17" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="S17" s="88"/>
+      <c r="S17" s="91"/>
       <c r="V17" s="27" t="s">
         <v>30</v>
       </c>
@@ -3296,12 +3352,12 @@
       <c r="AB22" s="30"/>
     </row>
     <row r="23" spans="16:28" ht="21" customHeight="1">
-      <c r="P23" s="92" t="s">
+      <c r="P23" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="94"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="97"/>
       <c r="U23" t="s">
         <v>45</v>
       </c>
@@ -3326,12 +3382,12 @@
       <c r="AB23" s="30"/>
     </row>
     <row r="24" spans="16:28" ht="19" customHeight="1">
-      <c r="P24" s="81" t="s">
+      <c r="P24" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="86"/>
       <c r="U24" t="s">
         <v>47</v>
       </c>
@@ -3356,10 +3412,10 @@
       <c r="AB24" s="30"/>
     </row>
     <row r="25" spans="16:28">
-      <c r="P25" s="87"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="89"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="92"/>
       <c r="U25" t="s">
         <v>48</v>
       </c>
@@ -3384,10 +3440,10 @@
       <c r="AB25" s="30"/>
     </row>
     <row r="26" spans="16:28">
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="89"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="92"/>
       <c r="U26" t="s">
         <v>49</v>
       </c>
@@ -3412,10 +3468,10 @@
       <c r="AB26" s="30"/>
     </row>
     <row r="27" spans="16:28">
-      <c r="P27" s="84"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="89"/>
       <c r="U27" t="s">
         <v>50</v>
       </c>
@@ -3440,12 +3496,12 @@
       <c r="AB27" s="30"/>
     </row>
     <row r="28" spans="16:28" ht="19" customHeight="1">
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="83"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="86"/>
       <c r="U28" t="s">
         <v>52</v>
       </c>
@@ -3470,10 +3526,10 @@
       <c r="AB28" s="30"/>
     </row>
     <row r="29" spans="16:28">
-      <c r="P29" s="84"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="89"/>
       <c r="U29" t="s">
         <v>53</v>
       </c>
@@ -3498,12 +3554,12 @@
       <c r="AB29" s="33"/>
     </row>
     <row r="30" spans="16:28" ht="19" customHeight="1">
-      <c r="P30" s="95" t="s">
+      <c r="P30" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="83"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="86"/>
       <c r="U30" s="31" t="s">
         <v>10</v>
       </c>
@@ -3528,10 +3584,10 @@
       <c r="AB30" s="29"/>
     </row>
     <row r="31" spans="16:28" ht="19" customHeight="1">
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="92"/>
       <c r="U31" s="32" t="s">
         <v>12</v>
       </c>
@@ -3556,10 +3612,10 @@
       <c r="AB31" s="30"/>
     </row>
     <row r="32" spans="16:28">
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="89"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="92"/>
       <c r="U32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3584,10 +3640,10 @@
       <c r="AB32" s="30"/>
     </row>
     <row r="33" spans="16:28">
-      <c r="P33" s="84"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="89"/>
       <c r="V33" s="29">
         <v>291045035.30000001</v>
       </c>
@@ -3662,16 +3718,16 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="39" customWidth="1"/>
-    <col min="2" max="24" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.83203125" style="79" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="79" customWidth="1"/>
-    <col min="29" max="30" width="8.83203125" style="79" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="79" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="79" customWidth="1"/>
-    <col min="33" max="39" width="8.83203125" style="79" customWidth="1"/>
-    <col min="40" max="16384" width="8.83203125" style="79"/>
+    <col min="2" max="24" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" style="80" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="80" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" style="80" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="80" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="80" customWidth="1"/>
+    <col min="33" max="41" width="8.83203125" style="80" customWidth="1"/>
+    <col min="42" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="29" customHeight="1">
@@ -3691,11 +3747,11 @@
     </row>
     <row r="4" spans="1:32" ht="21" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="AD4" s="98" t="s">
+      <c r="AD4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="41"/>
@@ -4556,106 +4612,106 @@
       <c r="AF14" s="69"/>
     </row>
     <row r="15" spans="1:32" ht="21" customHeight="1">
-      <c r="AD15" s="91" t="s">
+      <c r="AD15" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
     </row>
     <row r="16" spans="1:32" ht="21" customHeight="1">
-      <c r="X16" s="92" t="s">
+      <c r="X16" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="94"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="97"/>
       <c r="AD16" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AE16" s="79" t="s">
+      <c r="AE16" s="80" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="24:32">
-      <c r="X17" s="81" t="s">
+      <c r="X17" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="86"/>
       <c r="AE17" s="61"/>
       <c r="AF17" s="69"/>
     </row>
     <row r="18" spans="24:32" ht="19" customHeight="1">
-      <c r="X18" s="84"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="89"/>
       <c r="AE18" s="61"/>
       <c r="AF18" s="69"/>
     </row>
     <row r="19" spans="24:32">
-      <c r="X19" s="81" t="s">
+      <c r="X19" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="83"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
       <c r="AE19" s="61"/>
     </row>
     <row r="20" spans="24:32" ht="19" customHeight="1">
-      <c r="X20" s="87"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="92"/>
       <c r="AE20" s="61"/>
       <c r="AF20" s="69"/>
     </row>
     <row r="21" spans="24:32">
-      <c r="X21" s="84"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="86"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="24:32">
-      <c r="X22" s="81" t="s">
+      <c r="X22" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="83"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
     </row>
     <row r="23" spans="24:32" ht="19" customHeight="1">
-      <c r="X23" s="84"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
     </row>
     <row r="24" spans="24:32">
-      <c r="X24" s="81" t="s">
+      <c r="X24" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="83"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
     </row>
     <row r="25" spans="24:32" ht="19" customHeight="1">
-      <c r="X25" s="87"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="92"/>
     </row>
     <row r="26" spans="24:32">
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
     </row>
     <row r="27" spans="24:32">
-      <c r="X27" s="84"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="86"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4684,17 +4740,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="79" customWidth="1"/>
-    <col min="2" max="8" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="13.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="79" customWidth="1"/>
-    <col min="28" max="29" width="8.83203125" style="79" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" style="79" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" style="79" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" style="79" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" style="79" customWidth="1"/>
-    <col min="34" max="40" width="8.83203125" style="79" customWidth="1"/>
-    <col min="41" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="16" style="80" customWidth="1"/>
+    <col min="2" max="8" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" style="80" customWidth="1"/>
+    <col min="28" max="29" width="8.83203125" style="80" customWidth="1"/>
+    <col min="30" max="30" width="5.83203125" style="80" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" style="80" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="80" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" style="80" customWidth="1"/>
+    <col min="34" max="42" width="8.83203125" style="80" customWidth="1"/>
+    <col min="43" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
@@ -4708,11 +4764,11 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="21" customHeight="1">
-      <c r="AE4" s="98" t="s">
+      <c r="AE4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="21"/>
@@ -5549,101 +5605,101 @@
       <c r="AA13" s="20">
         <v>299307000</v>
       </c>
-      <c r="AE13" s="91" t="s">
+      <c r="AE13" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="88"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
     </row>
     <row r="14" spans="1:33">
       <c r="AE14" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AF14" s="79" t="s">
+      <c r="AF14" s="80" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="21" customHeight="1">
-      <c r="X16" s="92" t="s">
+      <c r="X16" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="94"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="97"/>
     </row>
     <row r="17" spans="24:27">
-      <c r="X17" s="81" t="s">
+      <c r="X17" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="83"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="86"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="84"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="89"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="81" t="s">
+      <c r="X19" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="83"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="87"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="92"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="84"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="86"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="81" t="s">
+      <c r="X22" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="83"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="84"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="81" t="s">
+      <c r="X24" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="83"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="87"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="92"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="84"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="86"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5672,23 +5728,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="79" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="79" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="79" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" style="79" customWidth="1"/>
-    <col min="28" max="30" width="8.83203125" style="79" customWidth="1"/>
-    <col min="31" max="31" width="11.1640625" style="79" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" style="79" customWidth="1"/>
-    <col min="33" max="33" width="15" style="79" customWidth="1"/>
-    <col min="34" max="40" width="8.83203125" style="79" customWidth="1"/>
-    <col min="41" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="19.6640625" style="80" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="80" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" style="80" customWidth="1"/>
+    <col min="28" max="30" width="8.83203125" style="80" customWidth="1"/>
+    <col min="31" max="31" width="11.1640625" style="80" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" style="80" customWidth="1"/>
+    <col min="33" max="33" width="15" style="80" customWidth="1"/>
+    <col min="34" max="42" width="8.83203125" style="80" customWidth="1"/>
+    <col min="43" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="29" customHeight="1">
@@ -5731,12 +5787,12 @@
       <c r="AO3" s="6"/>
     </row>
     <row r="4" spans="1:41" ht="21" customHeight="1">
-      <c r="AD4" s="100" t="s">
+      <c r="AD4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AM4" s="6"/>
@@ -6670,11 +6726,11 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="21" customHeight="1">
-      <c r="AE14" s="99" t="s">
+      <c r="AE14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
     </row>
     <row r="15" spans="1:41">
       <c r="AE15" s="52" t="s">
@@ -6686,86 +6742,86 @@
       <c r="AG15" s="6"/>
     </row>
     <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="92" t="s">
+      <c r="X17" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="97"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="84"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="81" t="s">
+      <c r="X20" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="92"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="84"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="81" t="s">
+      <c r="X23" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="83"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="84"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="81" t="s">
+      <c r="X25" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="92"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="84"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="86"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6794,14 +6850,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="79" customWidth="1"/>
-    <col min="2" max="23" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.83203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="79" customWidth="1"/>
-    <col min="28" max="30" width="12.5" style="79" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" style="79" customWidth="1"/>
-    <col min="32" max="38" width="8.83203125" style="79" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="28.83203125" style="80" customWidth="1"/>
+    <col min="2" max="23" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="80" customWidth="1"/>
+    <col min="28" max="30" width="12.5" style="80" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" style="80" customWidth="1"/>
+    <col min="32" max="40" width="8.83203125" style="80" customWidth="1"/>
+    <col min="41" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="29" customHeight="1">
@@ -6827,11 +6883,11 @@
       <c r="AK3" s="6"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1">
-      <c r="AC4" s="100" t="s">
+      <c r="AC4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AK4" s="6"/>
@@ -7726,11 +7782,11 @@
       <c r="AA13" s="56">
         <v>51485000</v>
       </c>
-      <c r="AC13" s="99" t="s">
+      <c r="AC13" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="88"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
     </row>
     <row r="14" spans="1:37">
       <c r="AC14" s="52" t="s">
@@ -7742,86 +7798,86 @@
       <c r="AE14" s="6"/>
     </row>
     <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="92" t="s">
+      <c r="X17" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="97"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="84"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="81" t="s">
+      <c r="X20" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="92"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="84"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="81" t="s">
+      <c r="X23" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="83"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="84"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="81" t="s">
+      <c r="X25" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="92"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="84"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="86"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7844,25 +7900,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="79" customWidth="1"/>
-    <col min="2" max="5" width="11" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" style="79" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="79" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="79" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="79" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="79" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" style="79" customWidth="1"/>
-    <col min="32" max="32" width="16.1640625" style="79" customWidth="1"/>
-    <col min="33" max="39" width="8.83203125" style="79" customWidth="1"/>
-    <col min="40" max="16384" width="8.83203125" style="79"/>
+    <col min="1" max="1" width="19.5" style="80" customWidth="1"/>
+    <col min="2" max="5" width="11" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="80" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="80" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" style="80" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="80" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" style="80" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="80" customWidth="1"/>
+    <col min="32" max="32" width="16.1640625" style="80" customWidth="1"/>
+    <col min="33" max="41" width="8.83203125" style="80" customWidth="1"/>
+    <col min="42" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="29" customHeight="1">
@@ -7877,11 +7933,11 @@
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="AD4" s="100" t="s">
+      <c r="AD4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
@@ -8761,11 +8817,11 @@
       <c r="AA13" s="56">
         <v>2269000</v>
       </c>
-      <c r="AD13" s="99" t="s">
+      <c r="AD13" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="88"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="19"/>
@@ -8778,86 +8834,86 @@
       <c r="AF14" s="6"/>
     </row>
     <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="92" t="s">
+      <c r="X17" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="97"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="81" t="s">
+      <c r="X18" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="83"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="84"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="81" t="s">
+      <c r="X20" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="83"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="92"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="84"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="81" t="s">
+      <c r="X23" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="83"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="84"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="81" t="s">
+      <c r="X25" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="83"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="87"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="92"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="84"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="86"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8877,35 +8933,469 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FD537D-4156-0D46-AC5E-60818D84EF4D}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="80" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="80" customWidth="1"/>
+    <col min="3" max="5" width="14.6640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="80" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="80" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="80" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="80" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="80" customWidth="1"/>
+    <col min="12" max="20" width="8.83203125" style="80" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="29" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="I4" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" s="19" customFormat="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2021</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24">
+        <v>20158107</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20102904</v>
+      </c>
+      <c r="E6" s="24">
+        <v>20280845</v>
+      </c>
+      <c r="F6" s="24">
+        <v>17501595</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <v>19607446</v>
+      </c>
+      <c r="D7" s="24">
+        <v>19254238</v>
+      </c>
+      <c r="E7" s="24">
+        <v>19800740</v>
+      </c>
+      <c r="F7" s="24">
+        <v>17100395</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="70">
+        <f>F13</f>
+        <v>63013000</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24">
+        <v>12112108</v>
+      </c>
+      <c r="C8" s="24">
+        <v>17826143</v>
+      </c>
+      <c r="D8" s="24">
+        <v>17871411</v>
+      </c>
+      <c r="E8" s="24">
+        <v>17330873</v>
+      </c>
+      <c r="F8" s="24">
+        <v>15075750</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="70">
+        <v>61159657</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="21">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20437010</v>
+      </c>
+      <c r="C9" s="10">
+        <v>19698743</v>
+      </c>
+      <c r="D9" s="10">
+        <v>19683380</v>
+      </c>
+      <c r="E9" s="10">
+        <v>13763548</v>
+      </c>
+      <c r="F9" s="18">
+        <f>K11</f>
+        <v>13823121</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="70">
+        <v>5835769</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" ref="B10:F10" si="0">SUM(B6:B9)</f>
+        <v>32549118</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>77290439</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>76911933</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>71176006</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>63500861</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="70">
+        <v>6134009</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f t="shared" ref="C11:F11" si="1">-B12</f>
+        <v>-6976264.6300000027</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" si="1"/>
+        <v>-7107250.3400000036</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="1"/>
+        <v>-7050335.7600000054</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="1"/>
+        <v>-5795135.6400000006</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="70">
+        <f>K7-(K8-K10-K9)</f>
+        <v>13823121</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" ref="B12:F12" si="2">B13-B11-B10</f>
+        <v>6976264.6300000027</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="2"/>
+        <v>7107250.3400000036</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="2"/>
+        <v>7050335.7600000054</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="2"/>
+        <v>5795135.6400000006</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="2"/>
+        <v>5307274.6400000006</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1">
+      <c r="A13" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15">
+        <v>39525382.630000003</v>
+      </c>
+      <c r="C13" s="15">
+        <v>77421424.709999993</v>
+      </c>
+      <c r="D13" s="15">
+        <v>76855018.420000002</v>
+      </c>
+      <c r="E13" s="15">
+        <v>69920805.879999995</v>
+      </c>
+      <c r="F13" s="56">
+        <v>63013000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21">
+      <c r="A14" s="19"/>
+      <c r="I14" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="I15" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="17" spans="3:6" ht="21" customHeight="1">
+      <c r="C17" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C25:F28"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="C23:F24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{384F67BB-0847-AC46-8F04-F2506C832FAE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="79" customWidth="1"/>
-    <col min="2" max="9" width="15.1640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="10.83203125" style="79" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="79"/>
+    <col min="1" max="1" width="16" style="80" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="17" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="10.83203125" style="80" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>71</v>
       </c>
       <c r="G2" s="76" t="s">
@@ -8914,13 +9404,13 @@
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
@@ -8937,28 +9427,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="68"/>
-      <c r="B7" s="80">
+      <c r="B7" s="82">
         <v>2014</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="82">
         <v>2015</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="82">
         <v>2016</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="82">
         <v>2017</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="82">
         <v>2018</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="82">
         <v>2019</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="82">
         <v>2020</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="82">
         <v>2021</v>
       </c>
     </row>
@@ -9083,28 +9573,28 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
-      <c r="B14" s="80">
+      <c r="B14" s="82">
         <v>2014</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="82">
         <v>2015</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="82">
         <v>2016</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="82">
         <v>2017</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="82">
         <v>2018</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="82">
         <v>2019</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="82">
         <v>2020</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="82">
         <v>2021</v>
       </c>
     </row>
@@ -9229,28 +9719,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11"/>
-      <c r="B21" s="80">
+      <c r="B21" s="82">
         <v>2014</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="82">
         <v>2015</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="82">
         <v>2016</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="82">
         <v>2017</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="82">
         <v>2018</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="82">
         <v>2019</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="82">
         <v>2020</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="82">
         <v>2021</v>
       </c>
     </row>
@@ -9375,28 +9865,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="11"/>
-      <c r="B28" s="80">
+      <c r="B28" s="82">
         <v>2014</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="82">
         <v>2015</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="82">
         <v>2016</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="82">
         <v>2017</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="82">
         <v>2018</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="82">
         <v>2019</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="82">
         <v>2020</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="82">
         <v>2021</v>
       </c>
     </row>
@@ -9521,28 +10011,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="65"/>
-      <c r="B35" s="80">
+      <c r="B35" s="82">
         <v>2014</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="82">
         <v>2015</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="82">
         <v>2016</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35" s="82">
         <v>2017</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="82">
         <v>2018</v>
       </c>
-      <c r="G35" s="80">
+      <c r="G35" s="82">
         <v>2019</v>
       </c>
-      <c r="H35" s="80">
+      <c r="H35" s="82">
         <v>2020</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="82">
         <v>2021</v>
       </c>
     </row>
@@ -9667,28 +10157,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="65"/>
-      <c r="B42" s="80">
+      <c r="B42" s="82">
         <v>2014</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="82">
         <v>2015</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="82">
         <v>2016</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="82">
         <v>2017</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="82">
         <v>2018</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="82">
         <v>2019</v>
       </c>
-      <c r="H42" s="80">
+      <c r="H42" s="82">
         <v>2020</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="82">
         <v>2021</v>
       </c>
     </row>
@@ -9805,6 +10295,152 @@
         <v>443007</v>
       </c>
       <c r="I46" s="69"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="65"/>
+      <c r="B49" s="79">
+        <v>2014</v>
+      </c>
+      <c r="C49" s="79">
+        <v>2015</v>
+      </c>
+      <c r="D49" s="82">
+        <v>2016</v>
+      </c>
+      <c r="E49" s="82">
+        <v>2017</v>
+      </c>
+      <c r="F49" s="82">
+        <v>2018</v>
+      </c>
+      <c r="G49" s="82">
+        <v>2019</v>
+      </c>
+      <c r="H49" s="82">
+        <v>2020</v>
+      </c>
+      <c r="I49" s="82">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="66">
+        <v>1</v>
+      </c>
+      <c r="B50" s="83">
+        <v>0</v>
+      </c>
+      <c r="C50" s="83">
+        <v>0</v>
+      </c>
+      <c r="D50" s="81">
+        <v>0</v>
+      </c>
+      <c r="E50" s="81">
+        <v>0</v>
+      </c>
+      <c r="F50" s="81">
+        <v>20158107</v>
+      </c>
+      <c r="G50" s="81">
+        <v>20102904</v>
+      </c>
+      <c r="H50" s="81">
+        <v>20280845</v>
+      </c>
+      <c r="I50" s="81">
+        <v>17501595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="66">
+        <v>2</v>
+      </c>
+      <c r="B51" s="83">
+        <v>0</v>
+      </c>
+      <c r="C51" s="83">
+        <v>0</v>
+      </c>
+      <c r="D51" s="81">
+        <v>0</v>
+      </c>
+      <c r="E51" s="81">
+        <v>0</v>
+      </c>
+      <c r="F51" s="81">
+        <v>19607446</v>
+      </c>
+      <c r="G51" s="81">
+        <v>19254238</v>
+      </c>
+      <c r="H51" s="81">
+        <v>19800740</v>
+      </c>
+      <c r="I51" s="81">
+        <v>17100395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="66">
+        <v>3</v>
+      </c>
+      <c r="B52" s="83">
+        <v>0</v>
+      </c>
+      <c r="C52" s="83">
+        <v>0</v>
+      </c>
+      <c r="D52" s="81">
+        <v>0</v>
+      </c>
+      <c r="E52" s="81">
+        <v>12112108</v>
+      </c>
+      <c r="F52" s="81">
+        <v>17826143</v>
+      </c>
+      <c r="G52" s="81">
+        <v>17871411</v>
+      </c>
+      <c r="H52" s="81">
+        <v>17330873</v>
+      </c>
+      <c r="I52" s="81">
+        <v>15075750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="67">
+        <v>4</v>
+      </c>
+      <c r="B53" s="83">
+        <v>0</v>
+      </c>
+      <c r="C53" s="83">
+        <v>0</v>
+      </c>
+      <c r="D53" s="81">
+        <v>0</v>
+      </c>
+      <c r="E53" s="81">
+        <v>20437010</v>
+      </c>
+      <c r="F53" s="81">
+        <v>19698743</v>
+      </c>
+      <c r="G53" s="81">
+        <v>19683380</v>
+      </c>
+      <c r="H53" s="81">
+        <v>13763548</v>
+      </c>
+      <c r="I53" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data/01_raw/historical/revenues/Quarterly.xlsx
+++ b/data/01_raw/historical/revenues/Quarterly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/FiveYearPlan/Analysis/five-year-plan-analysis/data/01_raw/historical/revenues/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/Analysis/five-year-plan-analysis/data/01_raw/historical/revenues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57FC6A1-430B-7246-8121-3157FAD47F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8082866-316B-B348-B4DB-FDB7E7D7172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36160" yWindow="1720" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wage &amp; Earnings" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="NPT" sheetId="5" r:id="rId5"/>
     <sheet name="Parking" sheetId="6" r:id="rId6"/>
     <sheet name="Amusement" sheetId="7" r:id="rId7"/>
-    <sheet name="Soda" sheetId="10" r:id="rId8"/>
-    <sheet name="Latest Collections Data" sheetId="8" r:id="rId9"/>
+    <sheet name="Soda" sheetId="8" r:id="rId8"/>
+    <sheet name="Latest Collections Data" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
   <si>
     <t>Wage + Earnings History</t>
   </si>
@@ -57,9 +58,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>April 2021 Revenue Collections Report</t>
   </si>
   <si>
     <t>City Wage Current</t>
@@ -104,13 +102,7 @@
     <t>2. "Total" line for last fiscal year should be updated using the audited actual Wage+Earnings (Current Year) line in "Supplemental" report.</t>
   </si>
   <si>
-    <t>FY21 Projected Total</t>
-  </si>
-  <si>
     <t>3. Total line for current fiscal year should be filled with projected value as listed in the current Plan.</t>
-  </si>
-  <si>
-    <t>FY22-FY26 Five Year Plan Documents</t>
   </si>
   <si>
     <t>4. The Q4 total for the current fiscal year can be inferred from the latest available collections report from the Revenue Department (April or May collections). See calculation to the right.</t>
@@ -248,6 +240,15 @@
     <t>2. "Total" line for last fiscal year should be updated using the audited actual Amusement line in "Supplemental" report.</t>
   </si>
   <si>
+    <t>Soda Tax History</t>
+  </si>
+  <si>
+    <t>May Monthly Total</t>
+  </si>
+  <si>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual Beverage Tax line in "Supplemental" report.</t>
+  </si>
+  <si>
     <t>Quarterly Collections Since Fiscal Year 2014</t>
   </si>
   <si>
@@ -264,6 +265,9 @@
   </si>
   <si>
     <t>Latest Month</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
   </si>
   <si>
     <t>Wage and Earnings (Current)</t>
@@ -287,19 +291,19 @@
     <t>Soda</t>
   </si>
   <si>
-    <t>Soda Tax History</t>
+    <t>FY22 Q4 Projection Calculation</t>
   </si>
   <si>
-    <t>May 2021 Revenue Collections Report</t>
+    <t>April 2022 Revenue Collections Report</t>
   </si>
   <si>
-    <t>FYTD Through May</t>
+    <t>FY23-FY27 Five Year Plan Documents</t>
   </si>
   <si>
-    <t>May Monthly Total</t>
+    <t>FY22 Projected Total</t>
   </si>
   <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual Beverage Tax line in "Supplemental" report.</t>
+    <t>FY2023</t>
   </si>
 </sst>
 </file>
@@ -684,7 +688,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,9 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -783,9 +785,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -839,12 +838,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -891,7 +903,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1234,28 +1245,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="80" customWidth="1"/>
-    <col min="2" max="6" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="15" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="80" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="80" customWidth="1"/>
-    <col min="29" max="29" width="15" style="80" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" style="80" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="80" customWidth="1"/>
-    <col min="32" max="40" width="8.83203125" style="80" customWidth="1"/>
-    <col min="41" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="30.33203125" style="78" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="15" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="78" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" style="78" customWidth="1"/>
+    <col min="29" max="29" width="15" style="78" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5" style="78" customWidth="1"/>
+    <col min="31" max="31" width="21.83203125" style="78" customWidth="1"/>
+    <col min="32" max="41" width="8.83203125" style="78" customWidth="1"/>
+    <col min="42" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1280,7 +1291,7 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
@@ -1305,7 +1316,7 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:31" ht="24" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
@@ -1329,10 +1340,10 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1">
-      <c r="AD4" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="91"/>
+      <c r="AD4" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4" s="101"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="11" t="s">
@@ -1416,11 +1427,14 @@
       <c r="AA5" s="11">
         <v>2021</v>
       </c>
-      <c r="AD5" s="61" t="s">
+      <c r="AB5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="AD5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AE5" s="54" t="s">
-        <v>6</v>
+      <c r="AE5" s="79" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1505,6 +1519,9 @@
       <c r="AA6" s="24">
         <v>371916116</v>
       </c>
+      <c r="AB6" s="77">
+        <v>377432121</v>
+      </c>
       <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="1:31">
@@ -1589,8 +1606,11 @@
       <c r="AA7" s="24">
         <v>351127009</v>
       </c>
+      <c r="AB7" s="77">
+        <v>401064287</v>
+      </c>
       <c r="AD7" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1675,12 +1695,14 @@
       <c r="AA8" s="24">
         <v>399740760</v>
       </c>
-      <c r="AD8" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="69">
-        <f>1490734000</f>
-        <v>1490734000</v>
+      <c r="AB8" s="77">
+        <v>459371517</v>
+      </c>
+      <c r="AD8" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="66">
+        <v>1520313000</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1762,136 +1784,144 @@
       <c r="Z9" s="10">
         <v>358510205</v>
       </c>
-      <c r="AA9" s="18">
-        <f>AE11+AE17</f>
-        <v>377954541</v>
-      </c>
-      <c r="AD9" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="69">
-        <f>1258949142</f>
-        <v>1258949142</v>
+      <c r="AA9" s="83">
+        <v>363820283</v>
+      </c>
+      <c r="AB9" s="85">
+        <f>AE19</f>
+        <v>295445073</v>
+      </c>
+      <c r="AD9" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="66">
+        <f>1363430755</f>
+        <v>1363430755</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" ref="B10:Z10" si="0">SUM(B6:B9)</f>
+        <v>851273286.7299999</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>858289011.71000004</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>891905071.25999999</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>923550552.15999997</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>945854996.5</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>969285035.85000002</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>982638374.3599999</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="0"/>
+        <v>994083502.04999995</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>1036108562.62</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>1063163190.4799999</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="0"/>
+        <v>1093131035.04</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" si="0"/>
+        <v>1150292031.1300001</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="0"/>
+        <v>1184743917.5700002</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="0"/>
+        <v>1118301361.2900002</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="0"/>
+        <v>1106493765.0100002</v>
+      </c>
+      <c r="Q10" s="25">
+        <f t="shared" si="0"/>
+        <v>1145447225.9900002</v>
+      </c>
+      <c r="R10" s="25">
+        <f t="shared" si="0"/>
+        <v>1170665989.8299999</v>
+      </c>
+      <c r="S10" s="25">
+        <f t="shared" si="0"/>
+        <v>1221843381.5600002</v>
+      </c>
+      <c r="T10" s="25">
+        <f t="shared" si="0"/>
+        <v>1258268615.1800001</v>
+      </c>
+      <c r="U10" s="25">
+        <f t="shared" si="0"/>
+        <v>1316347528</v>
+      </c>
+      <c r="V10" s="25">
+        <f t="shared" si="0"/>
+        <v>1373254682</v>
+      </c>
+      <c r="W10" s="25">
+        <f t="shared" si="0"/>
+        <v>1430892977</v>
+      </c>
+      <c r="X10" s="25">
+        <f t="shared" si="0"/>
+        <v>1506326643</v>
+      </c>
+      <c r="Y10" s="25">
+        <f t="shared" si="0"/>
+        <v>1574210567</v>
+      </c>
+      <c r="Z10" s="25">
+        <f t="shared" si="0"/>
+        <v>1608928071</v>
+      </c>
+      <c r="AA10" s="25">
+        <f>SUM(AA6:AA9)</f>
+        <v>1486604168</v>
+      </c>
+      <c r="AB10" s="25">
+        <f>SUM(AB6:AB9)</f>
+        <v>1533312998</v>
+      </c>
+      <c r="AD10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
-        <v>851273286.7299999</v>
-      </c>
-      <c r="C10" s="25">
-        <f t="shared" si="0"/>
-        <v>858289011.71000004</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" si="0"/>
-        <v>891905071.25999999</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" si="0"/>
-        <v>923550552.15999997</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="0"/>
-        <v>945854996.5</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="0"/>
-        <v>969285035.85000002</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="0"/>
-        <v>982638374.3599999</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="0"/>
-        <v>994083502.04999995</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="0"/>
-        <v>1036108562.62</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" si="0"/>
-        <v>1063163190.4799999</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="0"/>
-        <v>1093131035.04</v>
-      </c>
-      <c r="M10" s="25">
-        <f t="shared" si="0"/>
-        <v>1150292031.1300001</v>
-      </c>
-      <c r="N10" s="25">
-        <f t="shared" si="0"/>
-        <v>1184743917.5700002</v>
-      </c>
-      <c r="O10" s="25">
-        <f t="shared" si="0"/>
-        <v>1118301361.2900002</v>
-      </c>
-      <c r="P10" s="25">
-        <f t="shared" si="0"/>
-        <v>1106493765.0100002</v>
-      </c>
-      <c r="Q10" s="25">
-        <f t="shared" si="0"/>
-        <v>1145447225.9900002</v>
-      </c>
-      <c r="R10" s="25">
-        <f t="shared" si="0"/>
-        <v>1170665989.8299999</v>
-      </c>
-      <c r="S10" s="25">
-        <f t="shared" si="0"/>
-        <v>1221843381.5600002</v>
-      </c>
-      <c r="T10" s="25">
-        <f t="shared" si="0"/>
-        <v>1258268615.1800001</v>
-      </c>
-      <c r="U10" s="25">
-        <f t="shared" si="0"/>
-        <v>1316347528</v>
-      </c>
-      <c r="V10" s="25">
-        <f t="shared" si="0"/>
-        <v>1373254682</v>
-      </c>
-      <c r="W10" s="25">
-        <f t="shared" si="0"/>
-        <v>1430892977</v>
-      </c>
-      <c r="X10" s="25">
-        <f t="shared" si="0"/>
-        <v>1506326643</v>
-      </c>
-      <c r="Y10" s="25">
-        <f t="shared" si="0"/>
-        <v>1574210567</v>
-      </c>
-      <c r="Z10" s="25">
-        <f t="shared" si="0"/>
-        <v>1608928071</v>
-      </c>
-      <c r="AA10" s="25">
-        <f t="shared" si="0"/>
-        <v>1500738426</v>
-      </c>
-      <c r="AD10" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE10" s="69">
-        <v>143346908</v>
+      <c r="AE10" s="66">
+        <f>128728180</f>
+        <v>128728180</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -1954,7 +1984,7 @@
         <v>-66285164</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AA11" si="1">-U12</f>
+        <f t="shared" ref="V11:Z11" si="1">-U12</f>
         <v>-68689413</v>
       </c>
       <c r="W11" s="24">
@@ -1974,20 +2004,24 @@
         <v>-103638176.36999989</v>
       </c>
       <c r="AA11" s="24">
-        <f t="shared" si="1"/>
+        <f>-Z12</f>
         <v>-86594348.109999895</v>
       </c>
-      <c r="AD11" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE11" s="69">
+      <c r="AB11" s="24">
+        <f>-AA12</f>
+        <v>-47998457.669999838</v>
+      </c>
+      <c r="AD11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="66">
         <f>AE8-(AE9-AE10)</f>
-        <v>375131766</v>
+        <v>285610425</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -2050,7 +2084,7 @@
         <v>68689413</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="2">V13-V10-V11</f>
+        <f t="shared" ref="V12:Z12" si="2">V13-V10-V11</f>
         <v>60046571.230000019</v>
       </c>
       <c r="W12" s="24">
@@ -2070,13 +2104,17 @@
         <v>86594348.109999895</v>
       </c>
       <c r="AA12" s="24">
-        <f t="shared" si="2"/>
-        <v>86589922.109999895</v>
+        <f>AA13-AA10-AA11</f>
+        <v>47998457.669999838</v>
+      </c>
+      <c r="AB12" s="24">
+        <f>AB13-AB10-AB11</f>
+        <v>47998459.669999838</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -2173,140 +2211,143 @@
       <c r="Z13" s="17">
         <v>1591884242.74</v>
       </c>
-      <c r="AA13" s="20">
-        <v>1500734000</v>
+      <c r="AA13" s="84">
+        <v>1448008277.5599999</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>1533313000</v>
       </c>
       <c r="AD13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="66"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="AD14" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE14" s="66">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="AD15" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="66">
+        <v>4145110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="AB16" s="66"/>
+      <c r="AD16" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="66">
+        <v>979758</v>
+      </c>
+    </row>
+    <row r="17" spans="24:32" ht="21" customHeight="1">
+      <c r="X17" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="69"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="AD14" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE14" s="69">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="AD15" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="69">
-        <f>6618095</f>
-        <v>6618095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="AD16" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE16" s="69">
-        <v>-559130</v>
-      </c>
-    </row>
-    <row r="17" spans="24:32" ht="21" customHeight="1">
-      <c r="X17" s="95" t="s">
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="107"/>
+      <c r="AD17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="66">
+        <f>AE14-(AE15-AE16)</f>
+        <v>9834648</v>
+      </c>
+    </row>
+    <row r="18" spans="24:32" ht="19" customHeight="1">
+      <c r="X18" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="97"/>
-      <c r="AD17" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE17" s="69">
-        <f>AE14-(AE15-AE16)</f>
-        <v>2822775</v>
-      </c>
-    </row>
-    <row r="18" spans="24:32" ht="19" customHeight="1">
-      <c r="X18" s="84" t="s">
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="96"/>
+      <c r="AD18" s="58"/>
+    </row>
+    <row r="19" spans="24:32">
+      <c r="X19" s="97"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="99"/>
+      <c r="AD19" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
-      <c r="AD18" s="61"/>
-    </row>
-    <row r="19" spans="24:32">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-      <c r="AD19" s="61" t="s">
+      <c r="AE19" s="66">
+        <f>AE17+AE11</f>
+        <v>295445073</v>
+      </c>
+    </row>
+    <row r="20" spans="24:32" ht="19" customHeight="1">
+      <c r="X20" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AE19" s="69">
-        <f>AE17+AE11</f>
-        <v>377954541</v>
-      </c>
-    </row>
-    <row r="20" spans="24:32" ht="19" customHeight="1">
-      <c r="X20" s="84" t="s">
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
+    </row>
+    <row r="21" spans="24:32">
+      <c r="X21" s="100"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="102"/>
+    </row>
+    <row r="22" spans="24:32" ht="21" customHeight="1">
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AD22" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE22" s="101"/>
+      <c r="AF22" s="101"/>
+    </row>
+    <row r="23" spans="24:32">
+      <c r="X23" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-    </row>
-    <row r="21" spans="24:32">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
-    </row>
-    <row r="22" spans="24:32" ht="21" customHeight="1">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-      <c r="AD22" s="94" t="s">
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="96"/>
+      <c r="AD23" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="24:32">
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+    </row>
+    <row r="25" spans="24:32" ht="19" customHeight="1">
+      <c r="X25" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-    </row>
-    <row r="23" spans="24:32">
-      <c r="X23" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
-      <c r="AD23" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="24:32">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-    </row>
-    <row r="25" spans="24:32" ht="19" customHeight="1">
-      <c r="X25" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
     </row>
     <row r="26" spans="24:32">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
     </row>
     <row r="27" spans="24:32">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2322,41 +2363,43 @@
     <hyperlink ref="AE5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="N3" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="80" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="80" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="80" customWidth="1"/>
-    <col min="29" max="37" width="8.83203125" style="80" customWidth="1"/>
-    <col min="38" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="20.5" style="78" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="78" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="78" customWidth="1"/>
+    <col min="29" max="29" width="13" style="78" customWidth="1"/>
+    <col min="30" max="38" width="8.83203125" style="78" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="22" customFormat="1" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>25</v>
+      <c r="A1" s="46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="23" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>26</v>
+      <c r="A2" s="57" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="23" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>27</v>
+      <c r="A3" s="57" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2442,6 +2485,9 @@
       <c r="AA5" s="11">
         <v>2021</v>
       </c>
+      <c r="AB5" s="11">
+        <v>2022</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="9">
@@ -2526,6 +2572,10 @@
         <f>SUM(AA18:AA20)</f>
         <v>79245611.980000004</v>
       </c>
+      <c r="AB6" s="24">
+        <f>SUM(AB18:AB20)</f>
+        <v>98926065</v>
+      </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="9">
@@ -2610,6 +2660,10 @@
         <f>SUM(AA21:AA23)</f>
         <v>83182519</v>
       </c>
+      <c r="AB7" s="24">
+        <f>SUM(AB21:AB23)</f>
+        <v>97352200</v>
+      </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="9">
@@ -2691,9 +2745,13 @@
         <f>SUM(Z24:Z26)</f>
         <v>87016559</v>
       </c>
-      <c r="AA8" s="36">
+      <c r="AA8" s="87">
         <f>SUM(AA24:AA26)</f>
-        <v>81957626.423099995</v>
+        <v>87062648</v>
+      </c>
+      <c r="AB8" s="34">
+        <f>SUM(AB24:AB26)</f>
+        <v>92859812.086199999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2776,14 +2834,18 @@
         <f>SUM(Z27:Z29)</f>
         <v>67395222</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="83">
         <f>SUM(AA27:AA29)</f>
-        <v>81069939.620200008</v>
+        <v>89654494</v>
+      </c>
+      <c r="AB9" s="18">
+        <f>SUM(AB27:AB29)</f>
+        <v>95562725.154599994</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -2885,14 +2947,18 @@
         <f t="shared" si="0"/>
         <v>333805182</v>
       </c>
-      <c r="AA10" s="38">
-        <f t="shared" si="0"/>
-        <v>325455697.02330005</v>
+      <c r="AA10" s="88">
+        <f t="shared" si="0"/>
+        <v>339145272.98000002</v>
+      </c>
+      <c r="AB10" s="36">
+        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
+        <v>384700802.24080002</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -2958,29 +3024,33 @@
         <v>-49450168.590000004</v>
       </c>
       <c r="W11" s="24">
-        <f>-V12</f>
+        <f t="shared" ref="W11:AB11" si="2">-V12</f>
         <v>-52563997.539999999</v>
       </c>
       <c r="X11" s="24">
-        <f>-W12</f>
+        <f t="shared" si="2"/>
         <v>-57638641</v>
       </c>
       <c r="Y11" s="24">
-        <f>-X12</f>
+        <f t="shared" si="2"/>
         <v>-53868208</v>
       </c>
       <c r="Z11" s="24">
-        <f>-Y12</f>
+        <f t="shared" si="2"/>
         <v>-62800912</v>
       </c>
-      <c r="AA11" s="36">
-        <f>-Z12</f>
+      <c r="AA11" s="87">
+        <f t="shared" si="2"/>
         <v>-54023005.980000004</v>
+      </c>
+      <c r="AB11" s="34">
+        <f t="shared" si="2"/>
+        <v>-65941947</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -3043,185 +3113,196 @@
         <v>49450168.590000004</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="1">W18+W19</f>
+        <f t="shared" ref="V12:AB12" si="3">W18+W19</f>
         <v>52563997.539999999</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57638641</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53868208</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62800912</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54023005.980000004</v>
       </c>
-      <c r="AA12" s="36">
-        <f t="shared" si="1"/>
-        <v>58750779.446899995</v>
+      <c r="AA12" s="87">
+        <f t="shared" si="3"/>
+        <v>65941947</v>
+      </c>
+      <c r="AB12" s="34">
+        <f t="shared" si="3"/>
+        <v>70287521.307300001</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:AA13" si="2">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:AA13" si="4">SUM(B10:B12)</f>
         <v>82135054</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86492400</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97095318</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99206774</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>122464603</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>111304174</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108093938</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107971161</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107969289</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>119879314</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127817072</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>132572246</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137275153</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128231890</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>207113967</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>244584730</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>253523161</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>257549830</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>263049442</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>274450831.82000005</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>291045035.30000001</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>309017296.84000003</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>318819876</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>345944690</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>325027275.98000002</v>
       </c>
-      <c r="AA13" s="37">
-        <f t="shared" si="2"/>
-        <v>330183470.49020004</v>
+      <c r="AA13" s="89">
+        <f t="shared" si="4"/>
+        <v>351064214</v>
+      </c>
+      <c r="AB13" s="35">
+        <f t="shared" ref="AB13" si="5">SUM(AB10:AB12)</f>
+        <v>389046376.54809999</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1">
-      <c r="U16" s="99" t="s">
+      <c r="U16" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+    </row>
+    <row r="17" spans="16:29">
+      <c r="R17" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="101"/>
+      <c r="V17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-    </row>
-    <row r="17" spans="16:28">
-      <c r="R17" s="100" t="s">
+      <c r="X17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="S17" s="91"/>
-      <c r="V17" s="27" t="s">
+      <c r="Y17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W17" s="28" t="s">
+      <c r="Z17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X17" s="28" t="s">
+      <c r="AA17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="28" t="s">
+      <c r="AB17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="28" t="s">
+      <c r="AC17" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="16:29">
+      <c r="R18" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AA17" s="28" t="s">
+      <c r="S18" s="54"/>
+      <c r="U18" t="s">
         <v>35</v>
-      </c>
-      <c r="AB17" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="16:28">
-      <c r="R18" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="57"/>
-      <c r="U18" t="s">
-        <v>38</v>
       </c>
       <c r="V18" s="30">
         <v>22409376.989999998</v>
@@ -3241,17 +3322,20 @@
       <c r="AA18" s="30">
         <v>24369709.52</v>
       </c>
-      <c r="AB18" s="34">
-        <v>28055757.6587</v>
-      </c>
-    </row>
-    <row r="19" spans="16:28">
-      <c r="R19" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" s="59"/>
+      <c r="AB18" s="86">
+        <v>31455553</v>
+      </c>
+      <c r="AC18" s="33">
+        <v>33528473.942700002</v>
+      </c>
+    </row>
+    <row r="19" spans="16:29">
+      <c r="R19" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="56"/>
       <c r="U19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V19" s="30">
         <v>27040791.600000001</v>
@@ -3271,17 +3355,20 @@
       <c r="AA19" s="30">
         <v>29653296.460000001</v>
       </c>
-      <c r="AB19" s="34">
-        <v>30695021.788199998</v>
-      </c>
-    </row>
-    <row r="20" spans="16:28">
-      <c r="R20" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="58"/>
+      <c r="AB19" s="86">
+        <v>34486394</v>
+      </c>
+      <c r="AC19" s="33">
+        <v>36759047.364600003</v>
+      </c>
+    </row>
+    <row r="20" spans="16:29">
+      <c r="R20" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="55"/>
       <c r="U20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V20" s="30">
         <v>23405191.57</v>
@@ -3301,11 +3388,13 @@
       <c r="AA20" s="30">
         <v>25222606</v>
       </c>
-      <c r="AB20" s="30"/>
-    </row>
-    <row r="21" spans="16:28">
+      <c r="AB20" s="30">
+        <v>32984118</v>
+      </c>
+    </row>
+    <row r="21" spans="16:29">
       <c r="U21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="V21" s="30">
         <v>22444295.52</v>
@@ -3325,11 +3414,13 @@
       <c r="AA21" s="30">
         <v>27091458</v>
       </c>
-      <c r="AB21" s="30"/>
-    </row>
-    <row r="22" spans="16:28">
+      <c r="AB21" s="30">
+        <v>30776384</v>
+      </c>
+    </row>
+    <row r="22" spans="16:29">
       <c r="U22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V22" s="30">
         <v>26261561.43</v>
@@ -3349,17 +3440,19 @@
       <c r="AA22" s="30">
         <v>30658502</v>
       </c>
-      <c r="AB22" s="30"/>
-    </row>
-    <row r="23" spans="16:28" ht="21" customHeight="1">
-      <c r="P23" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="97"/>
+      <c r="AB22" s="30">
+        <v>34645304</v>
+      </c>
+    </row>
+    <row r="23" spans="16:29" ht="21" customHeight="1">
+      <c r="P23" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="107"/>
       <c r="U23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V23" s="30">
         <v>20060555.510000002</v>
@@ -3379,17 +3472,19 @@
       <c r="AA23" s="30">
         <v>25432559</v>
       </c>
-      <c r="AB23" s="30"/>
-    </row>
-    <row r="24" spans="16:28" ht="19" customHeight="1">
-      <c r="P24" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="86"/>
+      <c r="AB23" s="30">
+        <v>31930512</v>
+      </c>
+    </row>
+    <row r="24" spans="16:29" ht="19" customHeight="1">
+      <c r="P24" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="96"/>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V24" s="30">
         <v>25510953.219999999</v>
@@ -3409,15 +3504,17 @@
       <c r="AA24" s="30">
         <v>28801630</v>
       </c>
-      <c r="AB24" s="30"/>
-    </row>
-    <row r="25" spans="16:28">
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="92"/>
+      <c r="AB24" s="30">
+        <v>30759393</v>
+      </c>
+    </row>
+    <row r="25" spans="16:29">
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="102"/>
       <c r="U25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V25" s="30">
         <v>27916550.870000001</v>
@@ -3434,18 +3531,20 @@
       <c r="Z25" s="30">
         <v>26671332</v>
       </c>
-      <c r="AA25" s="35">
-        <v>30411804</v>
-      </c>
-      <c r="AB25" s="30"/>
-    </row>
-    <row r="26" spans="16:28">
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="92"/>
+      <c r="AA25" s="86">
+        <v>30690000</v>
+      </c>
+      <c r="AB25" s="33">
+        <v>32712471.000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="16:29">
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="102"/>
       <c r="U26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V26" s="30">
         <v>20349103.050000001</v>
@@ -3462,18 +3561,20 @@
       <c r="Z26" s="30">
         <v>35330542</v>
       </c>
-      <c r="AA26" s="34">
-        <v>22744192.423099998</v>
-      </c>
-      <c r="AB26" s="30"/>
-    </row>
-    <row r="27" spans="16:28">
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="89"/>
+      <c r="AA26" s="86">
+        <v>27571018</v>
+      </c>
+      <c r="AB26" s="33">
+        <v>29387948.086200003</v>
+      </c>
+    </row>
+    <row r="27" spans="16:29">
+      <c r="P27" s="97"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="99"/>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V27" s="30">
         <v>22534330.210000001</v>
@@ -3490,20 +3591,22 @@
       <c r="Z27" s="30">
         <v>27140383</v>
       </c>
-      <c r="AA27" s="34">
-        <v>25186620.640999999</v>
-      </c>
-      <c r="AB27" s="30"/>
-    </row>
-    <row r="28" spans="16:28" ht="19" customHeight="1">
-      <c r="P28" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="86"/>
+      <c r="AA27" s="86">
+        <v>25919200</v>
+      </c>
+      <c r="AB27" s="33">
+        <v>27627275.280000001</v>
+      </c>
+    </row>
+    <row r="28" spans="16:29" ht="19" customHeight="1">
+      <c r="P28" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="96"/>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V28" s="30">
         <v>26048730.48</v>
@@ -3520,18 +3623,20 @@
       <c r="Z28" s="30">
         <v>21742640</v>
       </c>
-      <c r="AA28" s="34">
-        <v>29114665.521000002</v>
-      </c>
-      <c r="AB28" s="30"/>
-    </row>
-    <row r="29" spans="16:28">
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="89"/>
+      <c r="AA28" s="86">
+        <v>33374448</v>
+      </c>
+      <c r="AB28" s="33">
+        <v>35573824.123199999</v>
+      </c>
+    </row>
+    <row r="29" spans="16:29">
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="99"/>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V29" s="30">
         <v>23949765.899999999</v>
@@ -3548,20 +3653,22 @@
       <c r="Z29" s="30">
         <v>18512199</v>
       </c>
-      <c r="AA29" s="34">
-        <v>26768653.4582</v>
-      </c>
-      <c r="AB29" s="33"/>
-    </row>
-    <row r="30" spans="16:28" ht="19" customHeight="1">
-      <c r="P30" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="86"/>
+      <c r="AA29" s="86">
+        <v>30360846</v>
+      </c>
+      <c r="AB29" s="33">
+        <v>32361625.751400001</v>
+      </c>
+    </row>
+    <row r="30" spans="16:29" ht="19" customHeight="1">
+      <c r="P30" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="96"/>
       <c r="U30" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V30" s="29">
         <v>287931206.35000002</v>
@@ -3579,17 +3686,19 @@
         <v>333805182</v>
       </c>
       <c r="AA30" s="29">
-        <v>325455697.02329987</v>
-      </c>
-      <c r="AB30" s="29"/>
-    </row>
-    <row r="31" spans="16:28" ht="19" customHeight="1">
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
+        <v>339085272.98000002</v>
+      </c>
+      <c r="AB30" s="29">
+        <v>384700802.24079996</v>
+      </c>
+    </row>
+    <row r="31" spans="16:29" ht="19" customHeight="1">
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="102"/>
       <c r="U31" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V31" s="30">
         <v>-49450168.590000004</v>
@@ -3607,17 +3716,19 @@
         <v>-62800912</v>
       </c>
       <c r="AA31" s="30">
-        <v>-54023005.979999997</v>
-      </c>
-      <c r="AB31" s="30"/>
-    </row>
-    <row r="32" spans="16:28">
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="92"/>
+        <v>-54023005.980000004</v>
+      </c>
+      <c r="AB31" s="30">
+        <v>-65941947</v>
+      </c>
+    </row>
+    <row r="32" spans="16:29">
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="102"/>
       <c r="U32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V32" s="30">
         <v>52563997.539999999</v>
@@ -3635,15 +3746,17 @@
         <v>54023005.979999997</v>
       </c>
       <c r="AA32" s="30">
-        <v>58750779.446900003</v>
-      </c>
-      <c r="AB32" s="30"/>
+        <v>65941947</v>
+      </c>
+      <c r="AB32" s="30">
+        <v>70287521.307300001</v>
+      </c>
     </row>
     <row r="33" spans="16:28">
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="89"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="99"/>
       <c r="V33" s="29">
         <v>291045035.30000001</v>
       </c>
@@ -3660,39 +3773,41 @@
         <v>325027275.98000002</v>
       </c>
       <c r="AA33" s="29">
-        <v>330183470.49019992</v>
-      </c>
-      <c r="AB33" s="29"/>
+        <v>351004214</v>
+      </c>
+      <c r="AB33" s="29">
+        <v>389046376.54809999</v>
+      </c>
     </row>
     <row r="34" spans="16:28">
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
     </row>
     <row r="35" spans="16:28">
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
     </row>
     <row r="36" spans="16:28">
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
     </row>
     <row r="37" spans="16:28">
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
     </row>
     <row r="38" spans="16:28">
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3704,57 +3819,59 @@
     <mergeCell ref="P23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="39" customWidth="1"/>
-    <col min="2" max="24" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.83203125" style="80" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="80" customWidth="1"/>
-    <col min="29" max="30" width="8.83203125" style="80" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="80" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="80" customWidth="1"/>
-    <col min="33" max="41" width="8.83203125" style="80" customWidth="1"/>
-    <col min="42" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="19.1640625" style="37" customWidth="1"/>
+    <col min="2" max="24" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" style="78" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" style="82" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="78" customWidth="1"/>
+    <col min="30" max="31" width="8.83203125" style="78" customWidth="1"/>
+    <col min="32" max="32" width="13.5" style="78" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="78" customWidth="1"/>
+    <col min="34" max="43" width="8.83203125" style="78" customWidth="1"/>
+    <col min="44" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="24" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1">
-      <c r="A3" s="62" t="s">
+    <row r="1" spans="1:33" ht="29" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="24" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="24" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="21" customHeight="1">
+    <row r="4" spans="1:33" ht="21" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="AD4" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="41"/>
+      <c r="AE4" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="39"/>
       <c r="B5" s="11">
         <v>1996</v>
       </c>
@@ -3830,18 +3947,21 @@
       <c r="Z5" s="11">
         <v>2020</v>
       </c>
-      <c r="AA5" s="42">
+      <c r="AA5" s="40">
         <v>2021</v>
       </c>
-      <c r="AE5" s="61" t="s">
+      <c r="AB5" s="40">
+        <v>2022</v>
+      </c>
+      <c r="AF5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AF5" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="40">
+      <c r="AG5" s="79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="38">
         <v>1</v>
       </c>
       <c r="B6" s="24">
@@ -3919,13 +4039,16 @@
       <c r="Z6" s="24">
         <v>38692954</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="44">
         <v>312731337</v>
       </c>
-      <c r="AB6" s="72"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="40">
+      <c r="AB6" s="77">
+        <v>49577722</v>
+      </c>
+      <c r="AC6" s="69"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="38">
         <v>2</v>
       </c>
       <c r="B7" s="24">
@@ -4003,16 +4126,19 @@
       <c r="Z7" s="24">
         <v>56247377</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="44">
         <v>59085234</v>
       </c>
-      <c r="AB7" s="46"/>
-      <c r="AE7" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="40">
+      <c r="AB7" s="77">
+        <v>104863787</v>
+      </c>
+      <c r="AC7" s="44"/>
+      <c r="AF7" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="38">
         <v>3</v>
       </c>
       <c r="B8" s="24">
@@ -4090,19 +4216,22 @@
       <c r="Z8" s="24">
         <v>69319275</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="44">
         <v>74852512</v>
       </c>
-      <c r="AB8" s="46"/>
-      <c r="AE8" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF8" s="69">
-        <v>516747000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="41">
+      <c r="AB8" s="77">
+        <v>87624474</v>
+      </c>
+      <c r="AC8" s="44"/>
+      <c r="AF8" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="66">
+        <v>634257000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="39">
         <v>4</v>
       </c>
       <c r="B9" s="10">
@@ -4180,137 +4309,145 @@
       <c r="Z9" s="10">
         <v>100775057</v>
       </c>
-      <c r="AA9" s="18">
-        <f>AF12</f>
-        <v>353831228.84000003</v>
-      </c>
-      <c r="AB9" s="46"/>
-      <c r="AE9" s="61" t="s">
+      <c r="AA9" s="83">
+        <v>376646393</v>
+      </c>
+      <c r="AB9" s="18">
+        <f>AG12</f>
+        <v>392191017</v>
+      </c>
+      <c r="AC9" s="44"/>
+      <c r="AF9" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="66">
+        <f>619248727</f>
+        <v>619248727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AF9" s="69">
-        <v>646096224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="40" t="s">
+      <c r="B10" s="25">
+        <f t="shared" ref="B10:AB10" si="0">SUM(B6:B9)</f>
+        <v>226796136.59</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>228904795.84999999</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>222323655.22999999</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>233507926.22</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>265419287.09000003</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>289140123.86000001</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>265152756.06999999</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="0"/>
+        <v>282395310.90000004</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>311436435.39999998</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>378934948.73000008</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="0"/>
+        <v>414589057.49000001</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" si="0"/>
+        <v>438272053.06</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="0"/>
+        <v>400734736.60000002</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="0"/>
+        <v>383690270.88999999</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="0"/>
+        <v>356775984.05000013</v>
+      </c>
+      <c r="Q10" s="25">
+        <f t="shared" si="0"/>
+        <v>388816758.52999997</v>
+      </c>
+      <c r="R10" s="25">
+        <f t="shared" si="0"/>
+        <v>388285599.93000001</v>
+      </c>
+      <c r="S10" s="25">
+        <f t="shared" si="0"/>
+        <v>446520353.25</v>
+      </c>
+      <c r="T10" s="25">
+        <f t="shared" si="0"/>
+        <v>468943594.75999999</v>
+      </c>
+      <c r="U10" s="25">
+        <f t="shared" si="0"/>
+        <v>434600416</v>
+      </c>
+      <c r="V10" s="25">
+        <f t="shared" si="0"/>
+        <v>477035377</v>
+      </c>
+      <c r="W10" s="25">
+        <f t="shared" si="0"/>
+        <v>413573279</v>
+      </c>
+      <c r="X10" s="25">
+        <f t="shared" si="0"/>
+        <v>449949304</v>
+      </c>
+      <c r="Y10" s="25">
+        <f t="shared" si="0"/>
+        <v>532746627</v>
+      </c>
+      <c r="Z10" s="25">
+        <f t="shared" si="0"/>
+        <v>265034663</v>
+      </c>
+      <c r="AA10" s="25">
+        <f t="shared" si="0"/>
+        <v>823315476</v>
+      </c>
+      <c r="AB10" s="25">
+        <f t="shared" si="0"/>
+        <v>634257000</v>
+      </c>
+      <c r="AC10" s="24"/>
+      <c r="AF10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
-        <v>226796136.59</v>
-      </c>
-      <c r="C10" s="25">
-        <f t="shared" si="0"/>
-        <v>228904795.84999999</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" si="0"/>
-        <v>222323655.22999999</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" si="0"/>
-        <v>233507926.22</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="0"/>
-        <v>265419287.09000003</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="0"/>
-        <v>289140123.86000001</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="0"/>
-        <v>265152756.06999999</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="0"/>
-        <v>282395310.90000004</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="0"/>
-        <v>311436435.39999998</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" si="0"/>
-        <v>378934948.73000008</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="0"/>
-        <v>414589057.49000001</v>
-      </c>
-      <c r="M10" s="25">
-        <f t="shared" si="0"/>
-        <v>438272053.06</v>
-      </c>
-      <c r="N10" s="25">
-        <f t="shared" si="0"/>
-        <v>400734736.60000002</v>
-      </c>
-      <c r="O10" s="25">
-        <f t="shared" si="0"/>
-        <v>383690270.88999999</v>
-      </c>
-      <c r="P10" s="25">
-        <f t="shared" si="0"/>
-        <v>356775984.05000013</v>
-      </c>
-      <c r="Q10" s="25">
-        <f t="shared" si="0"/>
-        <v>388816758.52999997</v>
-      </c>
-      <c r="R10" s="25">
-        <f t="shared" si="0"/>
-        <v>388285599.93000001</v>
-      </c>
-      <c r="S10" s="25">
-        <f t="shared" si="0"/>
-        <v>446520353.25</v>
-      </c>
-      <c r="T10" s="25">
-        <f t="shared" si="0"/>
-        <v>468943594.75999999</v>
-      </c>
-      <c r="U10" s="25">
-        <f t="shared" si="0"/>
-        <v>434600416</v>
-      </c>
-      <c r="V10" s="25">
-        <f t="shared" si="0"/>
-        <v>477035377</v>
-      </c>
-      <c r="W10" s="25">
-        <f t="shared" si="0"/>
-        <v>413573279</v>
-      </c>
-      <c r="X10" s="25">
-        <f t="shared" si="0"/>
-        <v>449949304</v>
-      </c>
-      <c r="Y10" s="25">
-        <f t="shared" si="0"/>
-        <v>532746627</v>
-      </c>
-      <c r="Z10" s="25">
-        <f t="shared" si="0"/>
-        <v>265034663</v>
-      </c>
-      <c r="AA10" s="25">
-        <f t="shared" si="0"/>
-        <v>800500311.84000003</v>
-      </c>
-      <c r="AB10" s="24"/>
-      <c r="AE10" s="61" t="s">
+      <c r="AG10" s="66">
+        <v>377182744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="38" t="s">
         <v>11</v>
-      </c>
-      <c r="AF10" s="69">
-        <v>199447599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="40" t="s">
-        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -4373,7 +4510,7 @@
         <v>-5556218</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AA11" si="1">-U12</f>
+        <f t="shared" ref="V11:AB11" si="1">-U12</f>
         <v>-9190680</v>
       </c>
       <c r="W11" s="24">
@@ -4396,18 +4533,21 @@
         <f t="shared" si="1"/>
         <v>-283732853.84000003</v>
       </c>
-      <c r="AB11" s="25"/>
-      <c r="AE11" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="69">
-        <f>Z12</f>
-        <v>283732853.84000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="40" t="s">
-        <v>14</v>
+      <c r="AB11" s="24">
+        <f t="shared" si="1"/>
+        <v>-2016138.3300000429</v>
+      </c>
+      <c r="AC11" s="25"/>
+      <c r="AF11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG11" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="38" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -4491,99 +4631,103 @@
       </c>
       <c r="AA12" s="24">
         <f t="shared" si="2"/>
-        <v>-20458</v>
-      </c>
-      <c r="AB12" s="24"/>
-      <c r="AE12" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF12" s="69">
-        <f>AF8-(AF9-AF10-AF11)</f>
-        <v>353831228.84000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="43" t="s">
-        <v>15</v>
+        <v>2016138.3300000429</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12" si="3">AB13-AB11-AB10</f>
+        <v>2016138.3300000429</v>
+      </c>
+      <c r="AC12" s="24"/>
+      <c r="AF12" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="66">
+        <f>AG8-(AG9-AG10-AG11)</f>
+        <v>392191017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="41" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="4">SUM(B10:B12)</f>
         <v>226796136.59</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>228904795.84999999</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>222323655.22999999</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>233507926.22</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>265419287.09000003</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300216233.86000001</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>266071531.06999999</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280247244.90000004</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>311336551.39999998</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>380012198.73000008</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>415896781.49000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>437058931.06</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>398830440.60000002</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>385974583.88999999</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>364703122.05000013</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>376944129.52999997</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389386146.93000001</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>450911164.25</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>461655141.75999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>438234878</v>
       </c>
       <c r="V13" s="15">
@@ -4598,179 +4742,196 @@
       <c r="Y13" s="15">
         <v>540873629.96000004</v>
       </c>
-      <c r="Z13" s="44">
+      <c r="Z13" s="42">
         <v>534239464.38</v>
       </c>
-      <c r="AA13" s="20">
-        <v>516747000</v>
-      </c>
-      <c r="AB13" s="24"/>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="AB14" s="47"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="69"/>
-    </row>
-    <row r="15" spans="1:32" ht="21" customHeight="1">
-      <c r="AD15" s="94" t="s">
+      <c r="AA13" s="84">
+        <v>541598760.49000001</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>634257000</v>
+      </c>
+      <c r="AC13" s="24"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="AC14" s="45"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="66"/>
+    </row>
+    <row r="15" spans="1:33" ht="21" customHeight="1">
+      <c r="AE15" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+    </row>
+    <row r="16" spans="1:33" ht="21" customHeight="1">
+      <c r="X16" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="90"/>
+      <c r="AE16" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="24:33">
+      <c r="X17" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="90"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="66"/>
+    </row>
+    <row r="18" spans="24:33" ht="19" customHeight="1">
+      <c r="X18" s="97"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="90"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="66"/>
+    </row>
+    <row r="19" spans="24:33">
+      <c r="X19" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="90"/>
+      <c r="AF19" s="58"/>
+    </row>
+    <row r="20" spans="24:33" ht="19" customHeight="1">
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="90"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="66"/>
+    </row>
+    <row r="21" spans="24:33">
+      <c r="X21" s="97"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="90"/>
+    </row>
+    <row r="22" spans="24:33">
+      <c r="X22" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="90"/>
+    </row>
+    <row r="23" spans="24:33" ht="19" customHeight="1">
+      <c r="X23" s="97"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="90"/>
+    </row>
+    <row r="24" spans="24:33">
+      <c r="X24" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-    </row>
-    <row r="16" spans="1:32" ht="21" customHeight="1">
-      <c r="X16" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="97"/>
-      <c r="AD16" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="24:32">
-      <c r="X17" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="86"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="69"/>
-    </row>
-    <row r="18" spans="24:32" ht="19" customHeight="1">
-      <c r="X18" s="87"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="69"/>
-    </row>
-    <row r="19" spans="24:32">
-      <c r="X19" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
-      <c r="AE19" s="61"/>
-    </row>
-    <row r="20" spans="24:32" ht="19" customHeight="1">
-      <c r="X20" s="90"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="92"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="69"/>
-    </row>
-    <row r="21" spans="24:32">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
-    </row>
-    <row r="22" spans="24:32">
-      <c r="X22" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
-    </row>
-    <row r="23" spans="24:32" ht="19" customHeight="1">
-      <c r="X23" s="87"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
-    </row>
-    <row r="24" spans="24:32">
-      <c r="X24" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
-    </row>
-    <row r="25" spans="24:32" ht="19" customHeight="1">
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="92"/>
-    </row>
-    <row r="26" spans="24:32">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
-    </row>
-    <row r="27" spans="24:32">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="90"/>
+    </row>
+    <row r="25" spans="24:33" ht="19" customHeight="1">
+      <c r="X25" s="100"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="90"/>
+    </row>
+    <row r="26" spans="24:33">
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="90"/>
+    </row>
+    <row r="27" spans="24:33">
+      <c r="X27" s="97"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X22:AA23"/>
     <mergeCell ref="X24:AA27"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="X16:AA16"/>
     <mergeCell ref="X17:AA18"/>
     <mergeCell ref="X19:AA21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AF5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="AG5" r:id="rId1" xr:uid="{E7698540-F3DB-C642-B02A-B2E66B230E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="80" customWidth="1"/>
-    <col min="2" max="8" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="13.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="80" customWidth="1"/>
-    <col min="28" max="29" width="8.83203125" style="80" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" style="80" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" style="80" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" style="80" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" style="80" customWidth="1"/>
-    <col min="34" max="42" width="8.83203125" style="80" customWidth="1"/>
-    <col min="43" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="16" style="78" customWidth="1"/>
+    <col min="2" max="8" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" style="78" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" style="82" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" style="78" customWidth="1"/>
+    <col min="31" max="31" width="5.83203125" style="78" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" style="78" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="78" customWidth="1"/>
+    <col min="34" max="34" width="17.83203125" style="78" customWidth="1"/>
+    <col min="35" max="44" width="8.83203125" style="78" customWidth="1"/>
+    <col min="45" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1">
-      <c r="A2" s="62" t="s">
+    <row r="1" spans="1:34" ht="29" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="24" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="21" customHeight="1">
-      <c r="AE4" s="101" t="s">
+    <row r="4" spans="1:34" ht="21" customHeight="1">
+      <c r="AF4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -4850,14 +5011,17 @@
       <c r="AA5" s="11">
         <v>2021</v>
       </c>
-      <c r="AF5" s="61" t="s">
+      <c r="AB5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="AG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -4939,8 +5103,11 @@
       <c r="AA6" s="24">
         <v>83697338</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AB6" s="24">
+        <v>62633488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -5022,15 +5189,17 @@
       <c r="AA7" s="24">
         <v>87380433</v>
       </c>
-      <c r="AF7" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG7" s="69">
-        <f>AA13</f>
-        <v>299307000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AB7" s="24">
+        <v>110242544</v>
+      </c>
+      <c r="AG7" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="66">
+        <v>537670000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -5112,14 +5281,17 @@
       <c r="AA8" s="24">
         <v>66318437</v>
       </c>
-      <c r="AF8" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG8" s="69">
-        <v>262506501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AB8" s="24">
+        <v>195109212</v>
+      </c>
+      <c r="AG8" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="66">
+        <v>439369640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -5198,20 +5370,23 @@
       <c r="Z9" s="10">
         <v>42466055</v>
       </c>
-      <c r="AA9" s="18">
-        <f>AG10</f>
-        <v>61910792</v>
-      </c>
-      <c r="AF9" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG9" s="69">
-        <v>25110293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AA9" s="83">
+        <v>78367255</v>
+      </c>
+      <c r="AB9" s="18">
+        <f>AH10</f>
+        <v>169684758</v>
+      </c>
+      <c r="AG9" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="66">
+        <v>71384398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -5313,21 +5488,25 @@
         <f t="shared" si="0"/>
         <v>311336774</v>
       </c>
-      <c r="AA10" s="25">
-        <f t="shared" si="0"/>
-        <v>299307000</v>
-      </c>
-      <c r="AF10" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG10" s="69">
-        <f>AG7-(AG8-AG9)</f>
-        <v>61910792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AA10" s="91">
+        <f t="shared" si="0"/>
+        <v>315763463</v>
+      </c>
+      <c r="AB10" s="25">
+        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
+        <v>537670002</v>
+      </c>
+      <c r="AG10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH10" s="66">
+        <f>AH7-(AH8-AH9)</f>
+        <v>169684758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -5390,33 +5569,37 @@
         <v>-3925277</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AA11" si="1">-U12</f>
+        <f t="shared" ref="V11:AB11" si="2">-U12</f>
         <v>-4154024</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5225534.849999994</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9707790.099999994</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8032329.1699999869</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5996282.9699999988</v>
       </c>
-      <c r="AA11" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA11" s="92">
+        <f t="shared" si="2"/>
         <v>-14453661.729999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AB11" s="24">
+        <f t="shared" si="2"/>
+        <v>-2679263.4799999893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -5479,112 +5662,116 @@
         <v>4154024</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="2">V13-V10-V11</f>
+        <f t="shared" ref="V12:AA12" si="3">V13-V10-V11</f>
         <v>5225534.849999994</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9707790.099999994</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8032329.1699999869</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5996282.9699999988</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14453661.729999989</v>
       </c>
-      <c r="AA12" s="24">
-        <f t="shared" si="2"/>
-        <v>14453661.729999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="21" customHeight="1">
+      <c r="AA12" s="92">
+        <f t="shared" si="3"/>
+        <v>2679263.4799999893</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12" si="4">AB13-AB10-AB11</f>
+        <v>2679261.4799999893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
         <v>41631718.219999999</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54003695.520000003</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80440020.669999987</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72774929.480000004</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80248213.200000003</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77025289.75</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96732783.960000008</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102317052.61</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>141345440.91999999</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>192266194.46000001</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>236429848.50999999</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>217329184.05000001</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>184048097.40000001</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115132990.42</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>119235530.42</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>116643503.25000001</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>119364495.87</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>147967711.59999999</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>168067573.06999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>203370332</v>
       </c>
       <c r="V13" s="17">
@@ -5602,162 +5789,180 @@
       <c r="Z13" s="17">
         <v>319794152.75999999</v>
       </c>
-      <c r="AA13" s="20">
-        <v>299307000</v>
-      </c>
-      <c r="AE13" s="94" t="s">
+      <c r="AA13" s="84">
+        <v>303989064.75</v>
+      </c>
+      <c r="AB13" s="20">
+        <f>AH7</f>
+        <v>537670000</v>
+      </c>
+      <c r="AF13" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="AF14" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="21" customHeight="1">
+      <c r="X16" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="90"/>
+    </row>
+    <row r="17" spans="24:28">
+      <c r="X17" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="90"/>
+    </row>
+    <row r="18" spans="24:28">
+      <c r="X18" s="97"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="90"/>
+    </row>
+    <row r="19" spans="24:28">
+      <c r="X19" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="90"/>
+    </row>
+    <row r="20" spans="24:28">
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="90"/>
+    </row>
+    <row r="21" spans="24:28">
+      <c r="X21" s="97"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="90"/>
+    </row>
+    <row r="22" spans="24:28">
+      <c r="X22" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="90"/>
+    </row>
+    <row r="23" spans="24:28">
+      <c r="X23" s="97"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="90"/>
+    </row>
+    <row r="24" spans="24:28">
+      <c r="X24" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="AE14" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="21" customHeight="1">
-      <c r="X16" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="97"/>
-    </row>
-    <row r="17" spans="24:27">
-      <c r="X17" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="86"/>
-    </row>
-    <row r="18" spans="24:27">
-      <c r="X18" s="87"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
-    </row>
-    <row r="19" spans="24:27">
-      <c r="X19" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="86"/>
-    </row>
-    <row r="20" spans="24:27">
-      <c r="X20" s="90"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="92"/>
-    </row>
-    <row r="21" spans="24:27">
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
-    </row>
-    <row r="22" spans="24:27">
-      <c r="X22" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
-    </row>
-    <row r="23" spans="24:27">
-      <c r="X23" s="87"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
-    </row>
-    <row r="24" spans="24:27">
-      <c r="X24" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
-    </row>
-    <row r="25" spans="24:27">
-      <c r="X25" s="90"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="92"/>
-    </row>
-    <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
-    </row>
-    <row r="27" spans="24:27">
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="89"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="90"/>
+    </row>
+    <row r="25" spans="24:28">
+      <c r="X25" s="100"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="90"/>
+    </row>
+    <row r="26" spans="24:28">
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="90"/>
+    </row>
+    <row r="27" spans="24:28">
+      <c r="X27" s="97"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X22:AA23"/>
     <mergeCell ref="X24:AA27"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AF13:AH13"/>
     <mergeCell ref="X16:AA16"/>
     <mergeCell ref="X17:AA18"/>
     <mergeCell ref="X19:AA21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AG5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="AH5" r:id="rId1" xr:uid="{D062268A-91F9-BC42-BE03-1E026DCC532F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="80" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="80" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" style="80" customWidth="1"/>
-    <col min="28" max="30" width="8.83203125" style="80" customWidth="1"/>
-    <col min="31" max="31" width="11.1640625" style="80" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" style="80" customWidth="1"/>
-    <col min="33" max="33" width="15" style="80" customWidth="1"/>
-    <col min="34" max="42" width="8.83203125" style="80" customWidth="1"/>
-    <col min="43" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="19.6640625" style="78" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="78" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" style="78" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" style="82" customWidth="1"/>
+    <col min="29" max="31" width="8.83203125" style="78" customWidth="1"/>
+    <col min="32" max="32" width="11.1640625" style="78" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="78" customWidth="1"/>
+    <col min="34" max="34" width="15" style="78" customWidth="1"/>
+    <col min="35" max="44" width="8.83203125" style="78" customWidth="1"/>
+    <col min="45" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>62</v>
+    <row r="1" spans="1:42" ht="29" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:41" ht="24" customHeight="1">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:42" ht="24" customHeight="1">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
@@ -5765,15 +5970,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:41" ht="24" customHeight="1">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:42" ht="24" customHeight="1">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
@@ -5785,21 +5989,22 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-    </row>
-    <row r="4" spans="1:41" ht="21" customHeight="1">
-      <c r="AD4" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="6"/>
+      <c r="AP3" s="6"/>
+    </row>
+    <row r="4" spans="1:42" ht="21" customHeight="1">
+      <c r="AE4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
       <c r="AI4" s="6"/>
-      <c r="AM4" s="6"/>
+      <c r="AJ4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AP4" s="6"/>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -5879,21 +6084,24 @@
       <c r="AA5" s="11">
         <v>2021</v>
       </c>
-      <c r="AD5" s="6"/>
+      <c r="AB5" s="11">
+        <v>2022</v>
+      </c>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="52" t="s">
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AM5" s="6"/>
+      <c r="AH5" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AP5" s="6"/>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -5975,7 +6183,9 @@
       <c r="AA6" s="24">
         <v>17599174</v>
       </c>
-      <c r="AD6" s="6"/>
+      <c r="AB6" s="24">
+        <v>788951</v>
+      </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
@@ -5987,8 +6197,9 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AP6" s="6"/>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -6070,13 +6281,15 @@
       <c r="AA7" s="24">
         <v>3687111</v>
       </c>
-      <c r="AD7" s="6"/>
+      <c r="AB7" s="24">
+        <v>170475</v>
+      </c>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" s="52"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
@@ -6084,8 +6297,9 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
-    </row>
-    <row r="8" spans="1:41">
+      <c r="AP7" s="6"/>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -6167,16 +6381,17 @@
       <c r="AA8" s="24">
         <v>2659168</v>
       </c>
-      <c r="AD8" s="6"/>
+      <c r="AB8" s="24">
+        <v>2403664</v>
+      </c>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG8" s="70">
-        <f>AA13</f>
-        <v>20003000</v>
-      </c>
-      <c r="AH8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="67">
+        <v>25658000</v>
+      </c>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
@@ -6184,8 +6399,9 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AP8" s="6"/>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -6264,19 +6480,21 @@
       <c r="Z9" s="24">
         <v>9499991</v>
       </c>
-      <c r="AA9" s="36">
-        <f>AG12</f>
-        <v>8255441</v>
-      </c>
-      <c r="AD9" s="6"/>
+      <c r="AA9" s="34">
+        <v>26483762</v>
+      </c>
+      <c r="AB9" s="34">
+        <f>AI12</f>
+        <v>0</v>
+      </c>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG9" s="70">
-        <v>33129699</v>
-      </c>
-      <c r="AH9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="67">
+        <v>22282237</v>
+      </c>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
@@ -6284,124 +6502,128 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="50">
+      <c r="AP9" s="6"/>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="48">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
         <v>10430789.969999999</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="48">
         <f t="shared" si="0"/>
         <v>10436208.359999998</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="48">
         <f t="shared" si="0"/>
         <v>10193941.550000001</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="48">
         <f t="shared" si="0"/>
         <v>13091108.649999999</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>9914416.1999999993</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="48">
         <f t="shared" si="0"/>
         <v>9879124.1300000027</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="48">
         <f t="shared" si="0"/>
         <v>11744747.25</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="48">
         <f t="shared" si="0"/>
         <v>10059810.460000001</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <f t="shared" si="0"/>
         <v>11139543.269999998</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="48">
         <f t="shared" si="0"/>
         <v>11848913.470000001</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="48">
         <f t="shared" si="0"/>
         <v>11719611.079999998</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="48">
         <f t="shared" si="0"/>
         <v>10536487.529999997</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="48">
         <f t="shared" si="0"/>
         <v>9615434.0600000005</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="48">
         <f t="shared" si="0"/>
         <v>9776148.0500000007</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="48">
         <f t="shared" si="0"/>
         <v>10913306.59</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="48">
         <f t="shared" si="0"/>
         <v>6726370.0799999991</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="48">
         <f t="shared" si="0"/>
         <v>12270656.98</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="48">
         <f t="shared" si="0"/>
         <v>17092347.949999999</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="48">
         <f t="shared" si="0"/>
         <v>14697126.799999999</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="48">
         <f t="shared" si="0"/>
         <v>13410660</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="48">
         <f t="shared" si="0"/>
         <v>22912370</v>
       </c>
-      <c r="W10" s="50">
+      <c r="W10" s="48">
         <f t="shared" si="0"/>
         <v>25582437</v>
       </c>
-      <c r="X10" s="50">
+      <c r="X10" s="48">
         <f t="shared" si="0"/>
         <v>27105639</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="48">
         <f t="shared" si="0"/>
         <v>28987489</v>
       </c>
-      <c r="Z10" s="50">
+      <c r="Z10" s="48">
         <f t="shared" si="0"/>
         <v>11802389</v>
       </c>
-      <c r="AA10" s="50">
-        <f t="shared" si="0"/>
-        <v>32200894</v>
-      </c>
-      <c r="AD10" s="6"/>
+      <c r="AA10" s="48">
+        <f t="shared" si="0"/>
+        <v>50429215</v>
+      </c>
+      <c r="AB10" s="48">
+        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
+        <v>3363090</v>
+      </c>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG10" s="70">
-        <v>9185067</v>
-      </c>
-      <c r="AH10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="67">
+        <v>18919148</v>
+      </c>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
@@ -6409,10 +6631,11 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" s="6"/>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -6475,39 +6698,41 @@
         <v>959077</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AA11" si="1">-U12</f>
+        <f t="shared" ref="V11:AB11" si="2">-U12</f>
         <v>-322397</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-743027</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-490590</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-992951</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1460462</v>
       </c>
       <c r="AA11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-12197073</v>
       </c>
-      <c r="AD11" s="6"/>
+      <c r="AB11" s="24">
+        <f t="shared" si="2"/>
+        <v>-4281500.8400000036</v>
+      </c>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG11" s="70">
-        <f>Z12</f>
-        <v>12197073</v>
-      </c>
-      <c r="AH11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH11" s="67">
+        <v>0</v>
+      </c>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
@@ -6515,10 +6740,11 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AP11" s="6"/>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -6581,39 +6807,42 @@
         <v>322397</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="2">V13-V11-V10</f>
+        <f t="shared" ref="V12:AA12" si="3">V13-V11-V10</f>
         <v>743027</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>490590</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>992951</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1460462</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12197073</v>
       </c>
       <c r="AA12" s="24">
-        <f t="shared" si="2"/>
-        <v>-821</v>
-      </c>
-      <c r="AD12" s="6"/>
+        <f t="shared" si="3"/>
+        <v>4281500.8400000036</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12" si="4">AB13-AB11-AB10</f>
+        <v>26576410.840000004</v>
+      </c>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG12" s="70">
-        <f>AG8-(AG9-AG10-AG11)</f>
-        <v>8255441</v>
-      </c>
-      <c r="AH12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="67">
+        <f>AH8-(AH9-AH10-AH11)</f>
+        <v>22294911</v>
+      </c>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
@@ -6621,89 +6850,90 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
-    </row>
-    <row r="13" spans="1:41">
-      <c r="A13" s="45" t="s">
-        <v>15</v>
+      <c r="AP12" s="6"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
         <v>10430789.969999999</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10436208.359999998</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10193941.550000001</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13091108.649999999</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9914416.1999999993</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10581816.130000003</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11357883.25</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10124345.460000001</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11287029.269999998</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11971029.470000001</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11821897.079999998</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10936182.529999997</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9109067.0600000005</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9471672.0500000007</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12057793.59</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5740359.0799999991</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12192064.98</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17230166.949999999</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13179243.799999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14692134</v>
       </c>
       <c r="V13" s="15">
@@ -6721,158 +6951,175 @@
       <c r="Z13" s="15">
         <v>22539000</v>
       </c>
-      <c r="AA13" s="56">
-        <v>20003000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" ht="21" customHeight="1">
-      <c r="AE14" s="102" t="s">
+      <c r="AA13" s="53">
+        <v>42513642.840000004</v>
+      </c>
+      <c r="AB13" s="53">
+        <f>AH8</f>
+        <v>25658000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="21" customHeight="1">
+      <c r="AF14" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="AF15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="17" spans="24:28" ht="21" customHeight="1">
+      <c r="X17" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="90"/>
+    </row>
+    <row r="18" spans="24:28">
+      <c r="X18" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="90"/>
+    </row>
+    <row r="19" spans="24:28">
+      <c r="X19" s="97"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="90"/>
+    </row>
+    <row r="20" spans="24:28">
+      <c r="X20" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="90"/>
+    </row>
+    <row r="21" spans="24:28">
+      <c r="X21" s="100"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="90"/>
+    </row>
+    <row r="22" spans="24:28">
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="90"/>
+    </row>
+    <row r="23" spans="24:28">
+      <c r="X23" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="90"/>
+    </row>
+    <row r="24" spans="24:28">
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="90"/>
+    </row>
+    <row r="25" spans="24:28">
+      <c r="X25" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="91"/>
-    </row>
-    <row r="15" spans="1:41">
-      <c r="AE15" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG15" s="6"/>
-    </row>
-    <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="97"/>
-    </row>
-    <row r="18" spans="24:27">
-      <c r="X18" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
-    </row>
-    <row r="19" spans="24:27">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-    </row>
-    <row r="20" spans="24:27">
-      <c r="X20" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-    </row>
-    <row r="21" spans="24:27">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
-    </row>
-    <row r="22" spans="24:27">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-    </row>
-    <row r="23" spans="24:27">
-      <c r="X23" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
-    </row>
-    <row r="24" spans="24:27">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-    </row>
-    <row r="25" spans="24:27">
-      <c r="X25" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
-    </row>
-    <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
-    </row>
-    <row r="27" spans="24:27">
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="92"/>
-    </row>
-    <row r="28" spans="24:27">
-      <c r="X28" s="87"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="90"/>
+    </row>
+    <row r="26" spans="24:28">
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="90"/>
+    </row>
+    <row r="27" spans="24:28">
+      <c r="X27" s="100"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="90"/>
+    </row>
+    <row r="28" spans="24:28">
+      <c r="X28" s="97"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X23:AA24"/>
     <mergeCell ref="X25:AA28"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="X17:AA17"/>
     <mergeCell ref="X18:AA19"/>
     <mergeCell ref="X20:AA22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AG5" r:id="rId1" display="https://www.phila.gov/media/20210602095752/City-revenue-collections-report-2021-April.pdf.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="AH5" r:id="rId1" xr:uid="{C6B804AC-62A5-B64B-BE46-1E9AC93DE07F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="80" customWidth="1"/>
-    <col min="2" max="23" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.83203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="80" customWidth="1"/>
-    <col min="28" max="30" width="12.5" style="80" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" style="80" customWidth="1"/>
-    <col min="32" max="40" width="8.83203125" style="80" customWidth="1"/>
-    <col min="41" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="28.83203125" style="78" customWidth="1"/>
+    <col min="2" max="23" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.83203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="78" customWidth="1"/>
+    <col min="28" max="28" width="14.1640625" style="82" customWidth="1"/>
+    <col min="29" max="31" width="12.5" style="78" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" style="78" customWidth="1"/>
+    <col min="33" max="42" width="8.83203125" style="78" customWidth="1"/>
+    <col min="43" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="24" customHeight="1">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:38" ht="29" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="24" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="AC3" s="6"/>
+    <row r="3" spans="1:38" ht="18" customHeight="1">
+      <c r="A3" s="47"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
@@ -6881,18 +7128,19 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-    </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1">
-      <c r="AC4" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="6"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" spans="1:38" ht="21" customHeight="1">
+      <c r="AD4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
       <c r="AG4" s="6"/>
-      <c r="AK4" s="6"/>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AH4" s="6"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -6972,18 +7220,21 @@
       <c r="AA5" s="11">
         <v>2021</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="52" t="s">
+      <c r="AB5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AE5" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AK5" s="6"/>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AF5" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -7065,7 +7316,9 @@
       <c r="AA6" s="24">
         <v>8749567</v>
       </c>
-      <c r="AC6" s="6"/>
+      <c r="AB6" s="24">
+        <v>20006439</v>
+      </c>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
@@ -7074,8 +7327,9 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -7157,22 +7411,24 @@
       <c r="AA7" s="24">
         <v>12136451</v>
       </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE7" s="70">
-        <f>AA13</f>
-        <v>51485000</v>
-      </c>
-      <c r="AF7" s="6"/>
+      <c r="AB7" s="24">
+        <v>20920423</v>
+      </c>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="67">
+        <v>88284000</v>
+      </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -7254,21 +7510,24 @@
       <c r="AA8" s="24">
         <v>11338488</v>
       </c>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="70">
-        <v>37657071</v>
-      </c>
-      <c r="AF8" s="6"/>
+      <c r="AB8" s="24">
+        <v>18995117</v>
+      </c>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="67">
+        <v>67358772</v>
+      </c>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -7347,150 +7606,157 @@
       <c r="Z9" s="24">
         <v>7642535</v>
       </c>
-      <c r="AA9" s="36">
-        <f>AE10</f>
-        <v>19260494</v>
-      </c>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="70">
-        <v>5432565</v>
-      </c>
-      <c r="AF9" s="6"/>
+      <c r="AA9" s="92">
+        <v>16877614</v>
+      </c>
+      <c r="AB9" s="34">
+        <f>AF10</f>
+        <v>28362020</v>
+      </c>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="67">
+        <v>7436792</v>
+      </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="50">
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="48">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
         <v>27339736.890000001</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="48">
         <f t="shared" si="0"/>
         <v>28176978.640000001</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="48">
         <f t="shared" si="0"/>
         <v>29595512.280000001</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="48">
         <f t="shared" si="0"/>
         <v>31365354.210000001</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>33072186.690000001</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="48">
         <f t="shared" si="0"/>
         <v>35145041.960000001</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="48">
         <f t="shared" si="0"/>
         <v>38009912.149999999</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="48">
         <f t="shared" si="0"/>
         <v>38808601.320000008</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <f t="shared" si="0"/>
         <v>41748097.259999998</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="48">
         <f t="shared" si="0"/>
         <v>44977611.789999999</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="48">
         <f t="shared" si="0"/>
         <v>47193152.45000001</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="48">
         <f t="shared" si="0"/>
         <v>49869999.310000002</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="48">
         <f t="shared" si="0"/>
         <v>54819050.780000009</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="48">
         <f t="shared" si="0"/>
         <v>66924688.679999992</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="48">
         <f t="shared" si="0"/>
         <v>69403906.340000004</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="48">
         <f t="shared" si="0"/>
         <v>69690078.450000003</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="48">
         <f t="shared" si="0"/>
         <v>70366179.660000011</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="48">
         <f t="shared" si="0"/>
         <v>71934714.570000008</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="48">
         <f t="shared" si="0"/>
         <v>73582216.060000002</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="48">
         <f t="shared" si="0"/>
         <v>76210852</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="48">
         <f t="shared" si="0"/>
         <v>92160979</v>
       </c>
-      <c r="W10" s="50">
+      <c r="W10" s="48">
         <f t="shared" si="0"/>
         <v>93906607</v>
       </c>
-      <c r="X10" s="50">
+      <c r="X10" s="48">
         <f t="shared" si="0"/>
         <v>93656344</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="48">
         <f t="shared" si="0"/>
         <v>97928023</v>
       </c>
-      <c r="Z10" s="50">
+      <c r="Z10" s="48">
         <f t="shared" si="0"/>
         <v>81377208</v>
       </c>
-      <c r="AA10" s="50">
-        <f t="shared" si="0"/>
-        <v>51485000</v>
-      </c>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE10" s="70">
-        <f>AE7-(AE8-AE9)</f>
-        <v>19260494</v>
-      </c>
-      <c r="AF10" s="6"/>
+      <c r="AA10" s="93">
+        <f t="shared" si="0"/>
+        <v>49102120</v>
+      </c>
+      <c r="AB10" s="48">
+        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
+        <v>88283999</v>
+      </c>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="67">
+        <f>AF7-(AF8-AF9)</f>
+        <v>28362020</v>
+      </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -7553,40 +7819,44 @@
         <v>-6107237</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AA11" si="1">-U12</f>
+        <f t="shared" ref="V11:AB11" si="2">-U12</f>
         <v>-8037123</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8540668.1299999952</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10739414.219999999</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-13555525.109999999</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14939609.230000004</v>
       </c>
-      <c r="AA11" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA11" s="92">
+        <f t="shared" si="2"/>
         <v>-10828473.719999999</v>
       </c>
-      <c r="AC11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="AB11" s="24">
+        <f t="shared" si="2"/>
+        <v>-14938182.659999996</v>
+      </c>
+      <c r="AD11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -7649,119 +7919,123 @@
         <v>8037123</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="2">V13-V10-V11</f>
+        <f t="shared" ref="V12:AA12" si="3">V13-V10-V11</f>
         <v>8540668.1299999952</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10739414.219999999</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13555525.109999999</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14939609.230000004</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10828473.719999999</v>
       </c>
-      <c r="AA12" s="24">
-        <f t="shared" si="2"/>
-        <v>10828473.719999999</v>
-      </c>
-      <c r="AC12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="AA12" s="92">
+        <f t="shared" si="3"/>
+        <v>14938182.659999996</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12" si="4">AB13-AB10-AB11</f>
+        <v>14938183.659999996</v>
+      </c>
+      <c r="AD12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-    </row>
-    <row r="13" spans="1:37" ht="21" customHeight="1">
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="1:38" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
         <v>27339736.890000001</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28176978.640000001</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29595512.280000001</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31365354.210000001</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33072186.690000001</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38540646.960000001</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37937878.149999999</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38742517.320000008</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42454753.259999998</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45033697.789999999</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47772637.45000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49655836.310000002</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54764182.780000009</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69455224.679999992</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69177243.340000004</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70072893.450000003</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69458475.660000011</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71790713.570000008</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73723787.060000002</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78140738</v>
       </c>
       <c r="V13" s="15">
@@ -7779,169 +8053,187 @@
       <c r="Z13" s="15">
         <v>77266072.489999995</v>
       </c>
-      <c r="AA13" s="56">
-        <v>51485000</v>
-      </c>
-      <c r="AC13" s="102" t="s">
+      <c r="AA13" s="89">
+        <v>53211828.939999998</v>
+      </c>
+      <c r="AB13" s="53">
+        <f>AF7</f>
+        <v>88284000</v>
+      </c>
+      <c r="AD13" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="AD14" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="17" spans="24:28" ht="21" customHeight="1">
+      <c r="X17" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="90"/>
+    </row>
+    <row r="18" spans="24:28">
+      <c r="X18" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="90"/>
+    </row>
+    <row r="19" spans="24:28">
+      <c r="X19" s="97"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="90"/>
+    </row>
+    <row r="20" spans="24:28">
+      <c r="X20" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="90"/>
+    </row>
+    <row r="21" spans="24:28">
+      <c r="X21" s="100"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="90"/>
+    </row>
+    <row r="22" spans="24:28">
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="90"/>
+    </row>
+    <row r="23" spans="24:28">
+      <c r="X23" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="90"/>
+    </row>
+    <row r="24" spans="24:28">
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="90"/>
+    </row>
+    <row r="25" spans="24:28">
+      <c r="X25" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="91"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="AC14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE14" s="6"/>
-    </row>
-    <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="97"/>
-    </row>
-    <row r="18" spans="24:27">
-      <c r="X18" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
-    </row>
-    <row r="19" spans="24:27">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-    </row>
-    <row r="20" spans="24:27">
-      <c r="X20" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-    </row>
-    <row r="21" spans="24:27">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
-    </row>
-    <row r="22" spans="24:27">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-    </row>
-    <row r="23" spans="24:27">
-      <c r="X23" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
-    </row>
-    <row r="24" spans="24:27">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-    </row>
-    <row r="25" spans="24:27">
-      <c r="X25" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
-    </row>
-    <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
-    </row>
-    <row r="27" spans="24:27">
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="92"/>
-    </row>
-    <row r="28" spans="24:27">
-      <c r="X28" s="87"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="90"/>
+    </row>
+    <row r="26" spans="24:28">
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="90"/>
+    </row>
+    <row r="27" spans="24:28">
+      <c r="X27" s="100"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="90"/>
+    </row>
+    <row r="28" spans="24:28">
+      <c r="X28" s="97"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X23:AA24"/>
     <mergeCell ref="X25:AA28"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="X17:AA17"/>
     <mergeCell ref="X18:AA19"/>
     <mergeCell ref="X20:AA22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AE5" r:id="rId1" display="https://www.phila.gov/media/20210602095752/City-revenue-collections-report-2021-April.pdf.pdf" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="AF5" r:id="rId1" xr:uid="{51DDA6D8-6EEA-9D43-9C77-3D809C8FA60C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:AB13"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="80" customWidth="1"/>
-    <col min="2" max="5" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" style="80" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="80" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="80" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="80" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="80" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" style="80" customWidth="1"/>
-    <col min="32" max="32" width="16.1640625" style="80" customWidth="1"/>
-    <col min="33" max="41" width="8.83203125" style="80" customWidth="1"/>
-    <col min="42" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="19.5" style="78" customWidth="1"/>
+    <col min="2" max="5" width="11" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="78" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="78" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="82" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" style="78" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="78" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" style="78" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="78" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" style="78" customWidth="1"/>
+    <col min="34" max="43" width="8.83203125" style="78" customWidth="1"/>
+    <col min="44" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="24" customHeight="1">
-      <c r="A2" s="62" t="s">
+    <row r="1" spans="1:38" ht="29" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="24" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1">
+    <row r="4" spans="1:38" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="AD4" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="6"/>
+      <c r="AE4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
       <c r="AH4" s="6"/>
-    </row>
-    <row r="5" spans="1:37" s="19" customFormat="1">
+      <c r="AI4" s="6"/>
+    </row>
+    <row r="5" spans="1:38" s="19" customFormat="1">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -8021,17 +8313,20 @@
       <c r="AA5" s="11">
         <v>2021</v>
       </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="52" t="s">
+      <c r="AB5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AF5" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AG5" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -8113,7 +8408,9 @@
       <c r="AA6" s="24">
         <v>44995</v>
       </c>
-      <c r="AD6" s="6"/>
+      <c r="AB6" s="24">
+        <v>8635538</v>
+      </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
@@ -8121,8 +8418,9 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -8204,21 +8502,23 @@
       <c r="AA7" s="24">
         <v>376484</v>
       </c>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF7" s="70">
-        <f>AA13</f>
-        <v>2269000</v>
-      </c>
-      <c r="AG7" s="6"/>
+      <c r="AB7" s="24">
+        <v>4844807</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="67">
+        <v>21828000</v>
+      </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -8300,20 +8600,23 @@
       <c r="AA8" s="24">
         <v>118193</v>
       </c>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="70">
-        <v>1417330</v>
-      </c>
-      <c r="AG8" s="6"/>
+      <c r="AB8" s="24">
+        <v>4741586</v>
+      </c>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="67">
+        <v>20180294</v>
+      </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -8392,26 +8695,29 @@
       <c r="Z9" s="10">
         <v>443007</v>
       </c>
-      <c r="AA9" s="18">
-        <f>AF10</f>
-        <v>1729329</v>
-      </c>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF9" s="70">
-        <v>877659</v>
-      </c>
-      <c r="AG9" s="6"/>
+      <c r="AA9" s="83">
+        <v>1412740</v>
+      </c>
+      <c r="AB9" s="18">
+        <f>AG10</f>
+        <v>3606069</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="67">
+        <v>1958363</v>
+      </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
@@ -8513,27 +8819,31 @@
         <f t="shared" si="0"/>
         <v>19922471</v>
       </c>
-      <c r="AA10" s="25">
-        <f t="shared" si="0"/>
-        <v>2269001</v>
-      </c>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF10" s="70">
-        <f>AF7-(AF8-AF9)</f>
-        <v>1729329</v>
-      </c>
-      <c r="AG10" s="6"/>
+      <c r="AA10" s="91">
+        <f t="shared" si="0"/>
+        <v>1952412</v>
+      </c>
+      <c r="AB10" s="25">
+        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
+        <v>21828000</v>
+      </c>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="67">
+        <f>AG7-(AG8-AG9)</f>
+        <v>3606069</v>
+      </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -8596,39 +8906,43 @@
         <v>-1242463</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AA11" si="1">-U12</f>
+        <f t="shared" ref="V11:AB11" si="2">-U12</f>
         <v>-1501598</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1758613.4699999988</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1893205.8200000003</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2533986.1999999993</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1492459.0099999979</v>
       </c>
-      <c r="AA11" s="24">
-        <f t="shared" si="1"/>
+      <c r="AA11" s="92">
+        <f t="shared" si="2"/>
         <v>-15857.569999996573</v>
       </c>
-      <c r="AD11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="AB11" s="24">
+        <f t="shared" si="2"/>
+        <v>-981624.2099999967</v>
+      </c>
+      <c r="AE11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -8691,112 +9005,116 @@
         <v>1501598</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="2">V13-V11-V10</f>
+        <f t="shared" ref="V12:AA12" si="3">V13-V11-V10</f>
         <v>1758613.4699999988</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1893205.8200000003</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2533986.1999999993</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1492459.0099999979</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15857.569999996573</v>
       </c>
-      <c r="AA12" s="24">
-        <f t="shared" si="2"/>
-        <v>15856.569999996573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="21" customHeight="1">
-      <c r="A13" s="45" t="s">
-        <v>15</v>
+      <c r="AA12" s="92">
+        <f t="shared" si="3"/>
+        <v>981624.2099999967</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12" si="4">AB13-AB11-AB10</f>
+        <v>981624.20999999717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="21" customHeight="1">
+      <c r="A13" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
         <v>7602894.8000000007</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9107467.7599999998</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9401778.8599999994</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9793295.3300000001</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11541685.470000001</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12940755.559999999</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13835783.09</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14140070.699999999</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18312259.359999999</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13562317.52</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16970013.780000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16454075.83</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17983684.140000001</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21379281.960000001</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21850376.440000001</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20766693.289999999</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21910780.73</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19080907.77</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19973564.309999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19004731</v>
       </c>
       <c r="V13" s="15">
@@ -8814,168 +9132,186 @@
       <c r="Z13" s="15">
         <v>18445869.559999999</v>
       </c>
-      <c r="AA13" s="56">
-        <v>2269000</v>
-      </c>
-      <c r="AD13" s="102" t="s">
+      <c r="AA13" s="89">
+        <v>2918178.64</v>
+      </c>
+      <c r="AB13" s="53">
+        <f>AG7</f>
+        <v>21828000</v>
+      </c>
+      <c r="AE13" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="19"/>
+      <c r="AE14" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG14" s="6"/>
+    </row>
+    <row r="17" spans="24:28" ht="21" customHeight="1">
+      <c r="X17" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="90"/>
+    </row>
+    <row r="18" spans="24:28">
+      <c r="X18" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="90"/>
+    </row>
+    <row r="19" spans="24:28">
+      <c r="X19" s="97"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="90"/>
+    </row>
+    <row r="20" spans="24:28">
+      <c r="X20" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="90"/>
+    </row>
+    <row r="21" spans="24:28">
+      <c r="X21" s="100"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="90"/>
+    </row>
+    <row r="22" spans="24:28">
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="90"/>
+    </row>
+    <row r="23" spans="24:28">
+      <c r="X23" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="90"/>
+    </row>
+    <row r="24" spans="24:28">
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="90"/>
+    </row>
+    <row r="25" spans="24:28">
+      <c r="X25" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="19"/>
-      <c r="AD14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF14" s="6"/>
-    </row>
-    <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="97"/>
-    </row>
-    <row r="18" spans="24:27">
-      <c r="X18" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="86"/>
-    </row>
-    <row r="19" spans="24:27">
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-    </row>
-    <row r="20" spans="24:27">
-      <c r="X20" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-    </row>
-    <row r="21" spans="24:27">
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="92"/>
-    </row>
-    <row r="22" spans="24:27">
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-    </row>
-    <row r="23" spans="24:27">
-      <c r="X23" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
-    </row>
-    <row r="24" spans="24:27">
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-    </row>
-    <row r="25" spans="24:27">
-      <c r="X25" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
-    </row>
-    <row r="26" spans="24:27">
-      <c r="X26" s="90"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
-    </row>
-    <row r="27" spans="24:27">
-      <c r="X27" s="90"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="92"/>
-    </row>
-    <row r="28" spans="24:27">
-      <c r="X28" s="87"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="89"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="90"/>
+    </row>
+    <row r="26" spans="24:28">
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="90"/>
+    </row>
+    <row r="27" spans="24:28">
+      <c r="X27" s="100"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="90"/>
+    </row>
+    <row r="28" spans="24:28">
+      <c r="X28" s="97"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X23:AA24"/>
     <mergeCell ref="X25:AA28"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AE13:AG13"/>
     <mergeCell ref="X17:AA17"/>
     <mergeCell ref="X18:AA19"/>
     <mergeCell ref="X20:AA22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AF5" r:id="rId1" display="https://www.phila.gov/media/20210602095752/City-revenue-collections-report-2021-April.pdf.pdf" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="AG5" r:id="rId1" xr:uid="{8B33185B-59AC-4745-AC94-61C9D739767C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FD537D-4156-0D46-AC5E-60818D84EF4D}">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="80" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="80" customWidth="1"/>
-    <col min="3" max="5" width="14.6640625" style="80" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="80" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="80" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="80" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="80" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" style="80" customWidth="1"/>
-    <col min="12" max="20" width="8.83203125" style="80" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="80"/>
+    <col min="1" max="1" width="19.5" style="78" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="78" customWidth="1"/>
+    <col min="3" max="5" width="14.6640625" style="78" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="78" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="78" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="78" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="78" customWidth="1"/>
+    <col min="13" max="22" width="8.83203125" style="78" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="A2" s="62" t="s">
+    <row r="1" spans="1:17" ht="29" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="24" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1">
+    <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="I4" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
       <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" s="19" customFormat="1">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" s="19" customFormat="1">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>2017</v>
@@ -8992,17 +9328,20 @@
       <c r="F5" s="11">
         <v>2021</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="52" t="s">
+      <c r="G5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="L5" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -9021,7 +9360,9 @@
       <c r="F6" s="24">
         <v>17501595</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="G6" s="24">
+        <v>20462788</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -9029,8 +9370,9 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -9049,21 +9391,23 @@
       <c r="F7" s="24">
         <v>17100395</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="70">
-        <f>F13</f>
-        <v>63013000</v>
-      </c>
-      <c r="L7" s="6"/>
+      <c r="G7" s="24">
+        <v>20047592</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="67">
+        <v>76932000</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -9082,20 +9426,23 @@
       <c r="F8" s="24">
         <v>15075750</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="70">
-        <v>61159657</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="G8" s="24">
+        <v>17534012</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="67">
+        <v>63877538</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -9111,29 +9458,32 @@
       <c r="E9" s="10">
         <v>13763548</v>
       </c>
-      <c r="F9" s="18">
-        <f>K11</f>
-        <v>13823121</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="70">
-        <v>5835769</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="F9" s="83">
+        <v>18247280</v>
+      </c>
+      <c r="G9" s="18">
+        <f>L11</f>
+        <v>18887609</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="67">
+        <v>5833147</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:F10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:G10" si="0">SUM(B6:B9)</f>
         <v>32549118</v>
       </c>
       <c r="C10" s="25">
@@ -9148,89 +9498,101 @@
         <f t="shared" si="0"/>
         <v>71176006</v>
       </c>
-      <c r="F10" s="25">
-        <f t="shared" si="0"/>
-        <v>63500861</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="70">
-        <v>6134009</v>
-      </c>
-      <c r="L10" s="6"/>
+      <c r="F10" s="91">
+        <f t="shared" si="0"/>
+        <v>67925020</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>76932001</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="67">
+        <v>0</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
       </c>
       <c r="C11" s="24">
-        <f t="shared" ref="C11:F11" si="1">-B12</f>
+        <f>-B12</f>
         <v>-6976264.6300000027</v>
       </c>
       <c r="D11" s="24">
-        <f t="shared" si="1"/>
+        <f>-C12</f>
         <v>-7107250.3400000036</v>
       </c>
       <c r="E11" s="24">
-        <f t="shared" si="1"/>
+        <f>-D12</f>
         <v>-7050335.7600000054</v>
       </c>
-      <c r="F11" s="24">
-        <f t="shared" si="1"/>
+      <c r="F11" s="92">
+        <f>-E12</f>
         <v>-5795135.6400000006</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="70">
-        <f>K7-(K8-K10-K9)</f>
-        <v>13823121</v>
-      </c>
-      <c r="L11" s="6"/>
+      <c r="G11" s="24">
+        <f>-F12</f>
+        <v>-8024750.1099999994</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="67">
+        <f>L7-(L8-L10-L9)</f>
+        <v>18887609</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="24">
+        <f t="shared" ref="B12:G12" si="1">B13-B11-B10</f>
+        <v>6976264.6300000027</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" si="1"/>
+        <v>7107250.3400000036</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="1"/>
+        <v>7050335.7600000054</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="1"/>
+        <v>5795135.6400000006</v>
+      </c>
+      <c r="F12" s="92">
+        <f t="shared" si="1"/>
+        <v>8024750.1099999994</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" si="1"/>
+        <v>8024749.1099999994</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1">
+      <c r="A13" s="43" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="24">
-        <f t="shared" ref="B12:F12" si="2">B13-B11-B10</f>
-        <v>6976264.6300000027</v>
-      </c>
-      <c r="C12" s="24">
-        <f t="shared" si="2"/>
-        <v>7107250.3400000036</v>
-      </c>
-      <c r="D12" s="24">
-        <f t="shared" si="2"/>
-        <v>7050335.7600000054</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="2"/>
-        <v>5795135.6400000006</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="2"/>
-        <v>5307274.6400000006</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="21" customHeight="1">
-      <c r="A13" s="45" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="15">
         <v>39525382.630000003</v>
@@ -9244,1203 +9606,1321 @@
       <c r="E13" s="15">
         <v>69920805.879999995</v>
       </c>
-      <c r="F13" s="56">
-        <v>63013000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="21">
+      <c r="F13" s="89">
+        <v>70154634.469999999</v>
+      </c>
+      <c r="G13" s="53">
+        <f>L7</f>
+        <v>76932000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="I14" s="102" t="s">
+      <c r="J14" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="21" customHeight="1">
+      <c r="C17" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="90"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="90"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="90"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="90"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="90"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="90"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="90"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="90"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="I15" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="17" spans="3:6" ht="21" customHeight="1">
-      <c r="C17" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="92"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="90"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="90"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="90"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C25:F28"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F19"/>
     <mergeCell ref="C20:F22"/>
     <mergeCell ref="C23:F24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" xr:uid="{384F67BB-0847-AC46-8F04-F2506C832FAE}"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{0B2F3250-13A6-174B-9551-D45C0DFCD163}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:I53"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="80" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="17" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="10.83203125" style="80" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="80"/>
+    <col min="1" max="1" width="16" style="78" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="17" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="78" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" style="78" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="71">
-        <v>44317</v>
+      <c r="B4" s="68" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="68"/>
-      <c r="B7" s="82">
+      <c r="A7" s="65"/>
+      <c r="B7" s="80">
         <v>2014</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="80">
         <v>2015</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>2016</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="80">
         <v>2017</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="80">
         <v>2018</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="80">
         <v>2019</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="80">
         <v>2020</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="80">
         <v>2021</v>
+      </c>
+      <c r="J7" s="80">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="66">
         <v>292818579</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="66">
         <v>310365906</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="66">
         <v>329599785</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="66">
         <v>347384190</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="66">
         <v>361596630</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="66">
         <v>380923127</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="66">
         <v>399037463</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="66">
         <v>371916116</v>
+      </c>
+      <c r="J8" s="77">
+        <v>377432121</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="66">
         <v>306369291</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="66">
         <v>321592586</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="66">
         <v>322278760</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="66">
         <v>332926440</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="66">
         <v>361445929</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="66">
         <v>376648658</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="66">
         <v>399428034</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="66">
         <v>351127009</v>
+      </c>
+      <c r="J9" s="77">
+        <v>401064287</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="66">
         <v>334922566</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="66">
         <v>345907588</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="66">
         <v>381159067</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="66">
         <v>391138842</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="66">
         <v>405184419</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="66">
         <v>424814638</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="66">
         <v>451952369</v>
       </c>
-      <c r="I10" s="69">
-        <v>399740760</v>
+      <c r="I10" s="66">
+        <v>399736334</v>
+      </c>
+      <c r="J10" s="77">
+        <v>459371517</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="66">
         <v>324158179</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="66">
         <v>338481448</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="66">
         <v>339777070</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="66">
         <v>359443505</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="66">
         <v>378099665</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="66">
         <v>391824144</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="66">
         <v>358510205</v>
       </c>
-      <c r="I11" s="69"/>
+      <c r="I11" s="66">
+        <v>363820283</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
-      <c r="B14" s="82">
+      <c r="B14" s="80">
         <v>2014</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="80">
         <v>2015</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>2016</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="80">
         <v>2017</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="80">
         <v>2018</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="80">
         <v>2019</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="80">
         <v>2020</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="80">
         <v>2021</v>
+      </c>
+      <c r="J14" s="80">
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="12">
         <v>1</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="66">
         <v>29399779</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="66">
         <v>23644149</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="66">
         <v>27346387</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="66">
         <v>19450806</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="66">
         <v>30265595</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="66">
         <v>23619107</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="66">
         <v>38692954</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="66">
         <v>312731337</v>
+      </c>
+      <c r="J15" s="77">
+        <v>49577722</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="66">
         <v>20931436</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="66">
         <v>11647595</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="66">
         <v>36911704</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="66">
         <v>34801055</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="66">
         <v>22000650</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="66">
         <v>30870183</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="66">
         <v>56247378</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="66">
         <v>59085234</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="77">
+        <v>104863787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="12">
         <v>3</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="66">
         <v>65192424</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="66">
         <v>92193479</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="66">
         <v>77221686</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="66">
         <v>68678648</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="66">
         <v>67520815</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="66">
         <v>79953747</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="66">
         <v>69319275</v>
       </c>
-      <c r="I17" s="69">
-        <v>74852512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="66">
+        <v>74832055</v>
+      </c>
+      <c r="J17" s="77">
+        <v>87624474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="13">
         <v>4</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="66">
         <v>353419956</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="66">
         <v>307115194</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="66">
         <v>335555600</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="66">
         <v>290642770</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="66">
         <v>330162244</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="66">
         <v>398303591</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="66">
         <v>100775057</v>
       </c>
-      <c r="I18" s="69"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I18" s="66">
+        <v>376646393</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="11"/>
-      <c r="B21" s="82">
+      <c r="B21" s="80">
         <v>2014</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="80">
         <v>2015</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>2016</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="80">
         <v>2017</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="80">
         <v>2018</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="80">
         <v>2019</v>
       </c>
-      <c r="H21" s="82">
+      <c r="H21" s="80">
         <v>2020</v>
       </c>
-      <c r="I21" s="82">
+      <c r="I21" s="80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="12">
         <v>1</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="66">
         <v>40859458</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="66">
         <v>52702114</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="66">
         <v>66851434</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="66">
         <v>62355933</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="66">
         <v>88178042</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="66">
         <v>88668115</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="66">
         <v>82388338</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="66">
         <v>83697338</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="77">
+        <v>62633488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B23" s="69">
+      <c r="B23" s="66">
         <v>36006597</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="66">
         <v>50300786</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="66">
         <v>54562323</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="66">
         <v>59567077</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="66">
         <v>77989083</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="66">
         <v>78015241</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="66">
         <v>96447651</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="66">
         <v>87380433</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="77">
+        <v>110242544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="66">
         <v>40065537</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="66">
         <v>36770195</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="66">
         <v>58799839</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="66">
         <v>54656344</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F24" s="66">
         <v>80957536</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="66">
         <v>62783760</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="66">
         <v>90034730</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="66">
         <v>66318437</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="77">
+        <v>195109212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="13">
         <v>4</v>
       </c>
-      <c r="B25" s="69">
+      <c r="B25" s="66">
         <v>50893461</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="66">
         <v>63368491</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="66">
         <v>56061612</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="66">
         <v>66228638</v>
       </c>
-      <c r="F25" s="69">
+      <c r="F25" s="66">
         <v>86067644</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="66">
         <v>101015016</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="66">
         <v>42466055</v>
       </c>
-      <c r="I25" s="69"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I25" s="66">
+        <v>78367255</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="11"/>
-      <c r="B28" s="82">
+      <c r="B28" s="80">
         <v>2014</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="80">
         <v>2015</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>2016</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="80">
         <v>2017</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="80">
         <v>2018</v>
       </c>
-      <c r="G28" s="82">
+      <c r="G28" s="80">
         <v>2019</v>
       </c>
-      <c r="H28" s="82">
+      <c r="H28" s="80">
         <v>2020</v>
       </c>
-      <c r="I28" s="82">
+      <c r="I28" s="80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="66">
         <v>1252576</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="66">
         <v>-1409593</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="66">
         <v>-455543</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="66">
         <v>306537</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="66">
         <v>527084</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="66">
         <v>417260</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="66">
         <v>891963</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="66">
         <v>17599174</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="77">
+        <v>788951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="12">
         <v>2</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="66">
         <v>730423</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="66">
         <v>909233</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="66">
         <v>1869137</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="66">
         <v>345790</v>
       </c>
-      <c r="F30" s="69">
+      <c r="F30" s="66">
         <v>1255570</v>
       </c>
-      <c r="G30" s="69">
+      <c r="G30" s="66">
         <v>1001900</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="66">
         <v>691962</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="66">
         <v>3687111</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="77">
+        <v>170475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="B31" s="69">
+      <c r="B31" s="66">
         <v>424700</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="66">
         <v>1911765</v>
       </c>
-      <c r="D31" s="69">
+      <c r="D31" s="66">
         <v>1762835</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="66">
         <v>3405436</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="66">
         <v>4423742</v>
       </c>
-      <c r="G31" s="69">
+      <c r="G31" s="66">
         <v>2966777</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="66">
         <v>718483</v>
       </c>
-      <c r="I31" s="69">
-        <v>2659168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="66">
+        <v>2658347</v>
+      </c>
+      <c r="J31" s="77">
+        <v>2403664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="13">
         <v>4</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="66">
         <v>12289429</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="66">
         <v>11999255</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="66">
         <v>19735941</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="66">
         <v>21524674</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="66">
         <v>20899243</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32" s="66">
         <v>24601552</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="66">
         <v>9499991</v>
       </c>
-      <c r="I32" s="69"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
-      <c r="B35" s="82">
+      <c r="I32" s="66">
+        <v>26483762</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="62"/>
+      <c r="B35" s="80">
         <v>2014</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="80">
         <v>2015</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="80">
         <v>2016</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="80">
         <v>2017</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="80">
         <v>2018</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="80">
         <v>2019</v>
       </c>
-      <c r="H35" s="82">
+      <c r="H35" s="80">
         <v>2020</v>
       </c>
-      <c r="I35" s="82">
+      <c r="I35" s="80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="66">
+      <c r="J35" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="63">
         <v>1</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B36" s="66">
         <v>18084579</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="66">
         <v>18814385</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="66">
         <v>22439366</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="66">
         <v>23219178</v>
       </c>
-      <c r="F36" s="69">
+      <c r="F36" s="66">
         <v>23138887</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="66">
         <v>23545435</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="66">
         <v>24131096</v>
       </c>
-      <c r="I36" s="69">
+      <c r="I36" s="66">
         <v>8749567</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="66">
+      <c r="J36" s="77">
+        <v>20006439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="63">
         <v>2</v>
       </c>
-      <c r="B37" s="69">
+      <c r="B37" s="66">
         <v>18704433</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="66">
         <v>19031943</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="66">
         <v>22148397</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="66">
         <v>24217561</v>
       </c>
-      <c r="F37" s="69">
+      <c r="F37" s="66">
         <v>23812280</v>
       </c>
-      <c r="G37" s="69">
+      <c r="G37" s="66">
         <v>24484251</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="66">
         <v>25390592</v>
       </c>
-      <c r="I37" s="69">
+      <c r="I37" s="66">
         <v>12136451</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="66">
+      <c r="J37" s="77">
+        <v>20920423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="63">
         <v>3</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B38" s="66">
         <v>17559404</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="66">
         <v>18130481</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="66">
         <v>21996434</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="66">
         <v>22572844</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="66">
         <v>22807521</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="66">
         <v>22837006</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="66">
         <v>24212985</v>
       </c>
-      <c r="I38" s="69">
+      <c r="I38" s="66">
         <v>11338488</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="67">
+      <c r="J38" s="77">
+        <v>18995117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="64">
         <v>4</v>
       </c>
-      <c r="B39" s="69">
+      <c r="B39" s="66">
         <v>19233799</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="66">
         <v>20234046</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="66">
         <v>25576782</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="66">
         <v>23897024</v>
       </c>
-      <c r="F39" s="69">
+      <c r="F39" s="66">
         <v>23897656</v>
       </c>
-      <c r="G39" s="69">
+      <c r="G39" s="66">
         <v>27061331</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="66">
         <v>7642535</v>
       </c>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
-      <c r="B42" s="82">
+      <c r="I39" s="66">
+        <v>16877614</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="62"/>
+      <c r="B42" s="80">
         <v>2014</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="80">
         <v>2015</v>
       </c>
-      <c r="D42" s="82">
+      <c r="D42" s="80">
         <v>2016</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="80">
         <v>2017</v>
       </c>
-      <c r="F42" s="82">
+      <c r="F42" s="80">
         <v>2018</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="80">
         <v>2019</v>
       </c>
-      <c r="H42" s="82">
+      <c r="H42" s="80">
         <v>2020</v>
       </c>
-      <c r="I42" s="82">
+      <c r="I42" s="80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="66">
+      <c r="J42" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="63">
         <v>1</v>
       </c>
-      <c r="B43" s="69">
+      <c r="B43" s="66">
         <v>6584997</v>
       </c>
-      <c r="C43" s="69">
+      <c r="C43" s="66">
         <v>6873698</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="66">
         <v>7026518</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="66">
         <v>7436443</v>
       </c>
-      <c r="F43" s="69">
+      <c r="F43" s="66">
         <v>7513446</v>
       </c>
-      <c r="G43" s="69">
+      <c r="G43" s="66">
         <v>10207270</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="66">
         <v>8744644</v>
       </c>
-      <c r="I43" s="69">
+      <c r="I43" s="66">
         <v>44995</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="66">
+      <c r="J43" s="77">
+        <v>8635538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="63">
         <v>2</v>
       </c>
-      <c r="B44" s="69">
+      <c r="B44" s="66">
         <v>3304237</v>
       </c>
-      <c r="C44" s="69">
+      <c r="C44" s="66">
         <v>3032889</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="66">
         <v>3062447</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="66">
         <v>4047843</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="66">
         <v>4224345</v>
       </c>
-      <c r="G44" s="69">
+      <c r="G44" s="66">
         <v>4985748</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="66">
         <v>5016406</v>
       </c>
-      <c r="I44" s="69">
+      <c r="I44" s="66">
         <v>376484</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="66">
+      <c r="J44" s="77">
+        <v>4844807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="63">
         <v>3</v>
       </c>
-      <c r="B45" s="69">
+      <c r="B45" s="66">
         <v>3387511</v>
       </c>
-      <c r="C45" s="69">
+      <c r="C45" s="66">
         <v>3437893</v>
       </c>
-      <c r="D45" s="69">
+      <c r="D45" s="66">
         <v>3672299</v>
       </c>
-      <c r="E45" s="69">
+      <c r="E45" s="66">
         <v>3929755</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="66">
         <v>5216968</v>
       </c>
-      <c r="G45" s="69">
+      <c r="G45" s="66">
         <v>5325325</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="66">
         <v>5718414</v>
       </c>
-      <c r="I45" s="69">
+      <c r="I45" s="66">
         <v>118193</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="67">
+      <c r="J45" s="77">
+        <v>4741586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="64">
         <v>4</v>
       </c>
-      <c r="B46" s="69">
+      <c r="B46" s="66">
         <v>6719845</v>
       </c>
-      <c r="C46" s="69">
+      <c r="C46" s="66">
         <v>5401115</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="66">
         <v>5378822</v>
       </c>
-      <c r="E46" s="69">
+      <c r="E46" s="66">
         <v>5028663</v>
       </c>
-      <c r="F46" s="69">
+      <c r="F46" s="66">
         <v>5374409</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="66">
         <v>6929024</v>
       </c>
-      <c r="H46" s="69">
+      <c r="H46" s="66">
         <v>443007</v>
       </c>
-      <c r="I46" s="69"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="65"/>
-      <c r="B49" s="79">
+      <c r="I46" s="66">
+        <v>1412740</v>
+      </c>
+      <c r="J46"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="62"/>
+      <c r="B49" s="76">
         <v>2014</v>
       </c>
-      <c r="C49" s="79">
+      <c r="C49" s="76">
         <v>2015</v>
       </c>
-      <c r="D49" s="82">
+      <c r="D49" s="80">
         <v>2016</v>
       </c>
-      <c r="E49" s="82">
+      <c r="E49" s="80">
         <v>2017</v>
       </c>
-      <c r="F49" s="82">
+      <c r="F49" s="80">
         <v>2018</v>
       </c>
-      <c r="G49" s="82">
+      <c r="G49" s="80">
         <v>2019</v>
       </c>
-      <c r="H49" s="82">
+      <c r="H49" s="80">
         <v>2020</v>
       </c>
-      <c r="I49" s="82">
+      <c r="I49" s="80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="66">
+      <c r="J49" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="63">
         <v>1</v>
       </c>
-      <c r="B50" s="83">
+      <c r="B50" s="81">
         <v>0</v>
       </c>
-      <c r="C50" s="83">
+      <c r="C50" s="81">
         <v>0</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="77"/>
+      <c r="E50" s="77">
         <v>0</v>
       </c>
-      <c r="E50" s="81">
+      <c r="F50" s="77">
+        <v>20158107</v>
+      </c>
+      <c r="G50" s="77">
+        <v>20102904</v>
+      </c>
+      <c r="H50" s="77">
+        <v>20280845</v>
+      </c>
+      <c r="I50" s="77">
+        <v>17501595</v>
+      </c>
+      <c r="J50" s="77">
+        <v>20462788</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="63">
+        <v>2</v>
+      </c>
+      <c r="B51" s="81">
         <v>0</v>
       </c>
-      <c r="F50" s="81">
-        <v>20158107</v>
-      </c>
-      <c r="G50" s="81">
-        <v>20102904</v>
-      </c>
-      <c r="H50" s="81">
-        <v>20280845</v>
-      </c>
-      <c r="I50" s="81">
-        <v>17501595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="66">
-        <v>2</v>
-      </c>
-      <c r="B51" s="83">
+      <c r="C51" s="81">
         <v>0</v>
       </c>
-      <c r="C51" s="83">
+      <c r="D51" s="77"/>
+      <c r="E51" s="77">
         <v>0</v>
       </c>
-      <c r="D51" s="81">
+      <c r="F51" s="77">
+        <v>19607446</v>
+      </c>
+      <c r="G51" s="77">
+        <v>19254238</v>
+      </c>
+      <c r="H51" s="77">
+        <v>19800740</v>
+      </c>
+      <c r="I51" s="77">
+        <v>17100396</v>
+      </c>
+      <c r="J51" s="77">
+        <v>20047592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="63">
+        <v>3</v>
+      </c>
+      <c r="B52" s="81">
         <v>0</v>
       </c>
-      <c r="E51" s="81">
+      <c r="C52" s="81">
         <v>0</v>
       </c>
-      <c r="F51" s="81">
-        <v>19607446</v>
-      </c>
-      <c r="G51" s="81">
-        <v>19254238</v>
-      </c>
-      <c r="H51" s="81">
-        <v>19800740</v>
-      </c>
-      <c r="I51" s="81">
-        <v>17100395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="66">
-        <v>3</v>
-      </c>
-      <c r="B52" s="83">
+      <c r="D52" s="77">
         <v>0</v>
       </c>
-      <c r="C52" s="83">
+      <c r="E52" s="77">
+        <v>12112108</v>
+      </c>
+      <c r="F52" s="77">
+        <v>17826143</v>
+      </c>
+      <c r="G52" s="77">
+        <v>17871411</v>
+      </c>
+      <c r="H52" s="77">
+        <v>17330873</v>
+      </c>
+      <c r="I52" s="77">
+        <v>15075750</v>
+      </c>
+      <c r="J52" s="77">
+        <v>17534012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="64">
+        <v>4</v>
+      </c>
+      <c r="B53" s="81">
         <v>0</v>
       </c>
-      <c r="D52" s="81">
+      <c r="C53" s="81">
         <v>0</v>
       </c>
-      <c r="E52" s="81">
-        <v>12112108</v>
-      </c>
-      <c r="F52" s="81">
-        <v>17826143</v>
-      </c>
-      <c r="G52" s="81">
-        <v>17871411</v>
-      </c>
-      <c r="H52" s="81">
-        <v>17330873</v>
-      </c>
-      <c r="I52" s="81">
-        <v>15075750</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="67">
-        <v>4</v>
-      </c>
-      <c r="B53" s="83">
+      <c r="D53" s="77">
         <v>0</v>
       </c>
-      <c r="C53" s="83">
-        <v>0</v>
-      </c>
-      <c r="D53" s="81">
-        <v>0</v>
-      </c>
-      <c r="E53" s="81">
+      <c r="E53" s="77">
         <v>20437010</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="77">
         <v>19698743</v>
       </c>
-      <c r="G53" s="81">
+      <c r="G53" s="77">
         <v>19683380</v>
       </c>
-      <c r="H53" s="81">
+      <c r="H53" s="77">
         <v>13763548</v>
       </c>
-      <c r="I53" s="81"/>
+      <c r="I53" s="77">
+        <v>18247280</v>
+      </c>
+      <c r="J53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10448,5 +10928,6 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/01_raw/historical/revenues/Quarterly.xlsx
+++ b/data/01_raw/historical/revenues/Quarterly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/Analysis/five-year-plan-analysis/data/01_raw/historical/revenues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8082866-316B-B348-B4DB-FDB7E7D7172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94213FBD-CC72-C340-8EEB-6EEF984FD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,9 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
-    <t>Wage + Earnings History</t>
+    <t>City Wage + Earnings History</t>
   </si>
   <si>
     <t>Current Year Only</t>
@@ -51,22 +52,37 @@
     <t>Collections by Quarter</t>
   </si>
   <si>
-    <t>FY21 Q4 Projection Calculation</t>
+    <t>If Q3 actual collections are NOT available</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>If Q3 actual collections are available</t>
+  </si>
+  <si>
+    <t>FY23 Q3/Q4 Projection Calculation</t>
+  </si>
+  <si>
+    <t>FY23 Q4 Projection Calculation</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>City Wage Current</t>
+    <t>Q1+Q2 Actual, this FY</t>
+  </si>
+  <si>
+    <t>City Wage + Earnings Current</t>
+  </si>
+  <si>
+    <t>Latest Projection, this FY</t>
   </si>
   <si>
     <t>Latest FY Projection</t>
   </si>
   <si>
-    <t>FYTD Through April</t>
+    <t>Q3+Q4 Projection, this FY</t>
+  </si>
+  <si>
+    <t>FYTD</t>
   </si>
   <si>
     <t>Subtotal</t>
@@ -78,16 +94,25 @@
     <t>PY Accrual</t>
   </si>
   <si>
+    <t>Q3/(Q3+Q4) for last FY</t>
+  </si>
+  <si>
     <t>Implied Q4 Total</t>
   </si>
   <si>
     <t>CY Accrual</t>
   </si>
   <si>
+    <t>Q4/(Q3+Q4) for last FY</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>City Earnings Current</t>
+    <t>Projected Q3, this FY</t>
+  </si>
+  <si>
+    <t>Projected Q4, this FY</t>
   </si>
   <si>
     <t>Update Instructions</t>
@@ -96,16 +121,19 @@
     <t>1. Add current fiscal year and update past values with actual collections using "Latest Collections Data" sheet.</t>
   </si>
   <si>
-    <t>Implied Wage+Earnings Total</t>
+    <t>2. "Total" line for last fiscal year should be updated using the audited actual Wage+Earnings (Current Year) line in "Supplemental" report.</t>
   </si>
   <si>
-    <t>2. "Total" line for last fiscal year should be updated using the audited actual Wage+Earnings (Current Year) line in "Supplemental" report.</t>
+    <t>FY23 Projected Total</t>
   </si>
   <si>
     <t>3. Total line for current fiscal year should be filled with projected value as listed in the current Plan.</t>
   </si>
   <si>
-    <t>4. The Q4 total for the current fiscal year can be inferred from the latest available collections report from the Revenue Department (April or May collections). See calculation to the right.</t>
+    <t>FY24-FY28 Five Year Plan Documents</t>
+  </si>
+  <si>
+    <t>4. If the April collections report is available, the Q4 total for the current fiscal year can be inferred from the latest available collections report from the Revenue Department (April or May collections). See calculation to the right.</t>
   </si>
   <si>
     <t>Sales Tax History</t>
@@ -142,6 +170,12 @@
   </si>
   <si>
     <t>FY2022</t>
+  </si>
+  <si>
+    <t>FY2023</t>
+  </si>
+  <si>
+    <t>FY2024</t>
   </si>
   <si>
     <t>Actual values</t>
@@ -207,22 +241,28 @@
     <t>BIRT Current+Prior</t>
   </si>
   <si>
-    <t>Shifted Date Accrual (FY20 only)</t>
+    <t>FYTD Through April</t>
   </si>
   <si>
     <t>2. "Total" line for last fiscal year should be updated using the audited actual BIRT (Current+Prior Year) line in "Supplemental" report.</t>
   </si>
   <si>
+    <t>4. The Q4 total for the current fiscal year can be inferred from the latest available collections report from the Revenue Department (April or May collections). See calculation to the right.</t>
+  </si>
+  <si>
     <t>Realty Transfer Tax History</t>
+  </si>
+  <si>
+    <t>QCMR</t>
+  </si>
+  <si>
+    <t>FYTD Through Q3</t>
   </si>
   <si>
     <t>2. "Total" line for last fiscal year should be updated using the audited actual RTT line in "Supplemental" report.</t>
   </si>
   <si>
     <t>Net Profits Tax History</t>
-  </si>
-  <si>
-    <t>NPT Current</t>
   </si>
   <si>
     <t>2. "Total" line for last fiscal year should be updated using the audited actual NPT (Current Year) line in "Supplemental" report.</t>
@@ -243,9 +283,6 @@
     <t>Soda Tax History</t>
   </si>
   <si>
-    <t>May Monthly Total</t>
-  </si>
-  <si>
     <t>2. "Total" line for last fiscal year should be updated using the audited actual Beverage Tax line in "Supplemental" report.</t>
   </si>
   <si>
@@ -258,7 +295,7 @@
     <t>Sourced from Revenue Department monthly collections reports</t>
   </si>
   <si>
-    <t>Run: "fyp-analysis update-quarterly-collections"</t>
+    <t>Run: "fyp-analysis-update"</t>
   </si>
   <si>
     <t>This command will automatically fill this sheet with the latest date</t>
@@ -267,7 +304,7 @@
     <t>Latest Month</t>
   </si>
   <si>
-    <t>2022-03-01</t>
+    <t>2023-03-01</t>
   </si>
   <si>
     <t>Wage and Earnings (Current)</t>
@@ -289,21 +326,6 @@
   </si>
   <si>
     <t>Soda</t>
-  </si>
-  <si>
-    <t>FY22 Q4 Projection Calculation</t>
-  </si>
-  <si>
-    <t>April 2022 Revenue Collections Report</t>
-  </si>
-  <si>
-    <t>FY23-FY27 Five Year Plan Documents</t>
-  </si>
-  <si>
-    <t>FY22 Projected Total</t>
-  </si>
-  <si>
-    <t>FY2023</t>
   </si>
 </sst>
 </file>
@@ -474,7 +496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,20 +517,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEFA2"/>
+        <fgColor rgb="FFFFFD78"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8B7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8E4BC"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -683,12 +693,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -748,7 +759,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -781,9 +791,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -793,7 +800,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -816,14 +822,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -841,37 +840,33 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +874,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -888,14 +893,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -904,10 +913,11 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,30 +1253,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="78" customWidth="1"/>
-    <col min="2" max="6" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="15" style="78" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="78" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" style="78" customWidth="1"/>
-    <col min="29" max="29" width="15" style="78" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" style="78" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="78" customWidth="1"/>
-    <col min="32" max="41" width="8.83203125" style="78" customWidth="1"/>
-    <col min="42" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="30.33203125" style="72" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="15" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="72" customWidth="1"/>
+    <col min="28" max="29" width="16.6640625" style="72" customWidth="1"/>
+    <col min="30" max="30" width="15" style="72" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1640625" style="72" customWidth="1"/>
+    <col min="32" max="32" width="22" style="72" customWidth="1"/>
+    <col min="33" max="33" width="15" style="72" customWidth="1"/>
+    <col min="34" max="34" width="22.5" style="72" customWidth="1"/>
+    <col min="35" max="35" width="21.83203125" style="72" customWidth="1"/>
+    <col min="36" max="49" width="8.83203125" style="72" customWidth="1"/>
+    <col min="50" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:35" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1290,8 +1303,8 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:35" ht="24" customHeight="1">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
@@ -1315,8 +1328,8 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:31" ht="24" customHeight="1">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:35" ht="24" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
@@ -1338,17 +1351,27 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" ht="21" customHeight="1">
-      <c r="AD4" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="101"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="11" t="s">
+      <c r="AE3" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="89"/>
+      <c r="AH3" s="90" t="s">
         <v>4</v>
       </c>
+      <c r="AI3" s="89"/>
+    </row>
+    <row r="4" spans="1:35" ht="21" customHeight="1">
+      <c r="AE4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="89"/>
+      <c r="AH4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="89"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="11"/>
       <c r="B5" s="11">
         <v>1996</v>
       </c>
@@ -1430,14 +1453,17 @@
       <c r="AB5" s="11">
         <v>2022</v>
       </c>
-      <c r="AD5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AC5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="73"/>
+      <c r="AH5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="73"/>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -1519,12 +1545,16 @@
       <c r="AA6" s="24">
         <v>371916116</v>
       </c>
-      <c r="AB6" s="77">
+      <c r="AB6" s="71">
         <v>377432121</v>
       </c>
-      <c r="AC6" s="24"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AC6" s="71">
+        <v>400781184</v>
+      </c>
+      <c r="AD6" s="24"/>
+      <c r="AG6" s="24"/>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -1606,14 +1636,24 @@
       <c r="AA7" s="24">
         <v>351127009</v>
       </c>
-      <c r="AB7" s="77">
+      <c r="AB7" s="71">
         <v>401064287</v>
       </c>
-      <c r="AD7" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AC7" s="71">
+        <v>460503343</v>
+      </c>
+      <c r="AE7" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="63">
+        <f>AC6+AC7</f>
+        <v>861284527</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -1695,17 +1735,28 @@
       <c r="AA8" s="24">
         <v>399740760</v>
       </c>
-      <c r="AB8" s="77">
+      <c r="AB8" s="71">
         <v>459371517</v>
       </c>
-      <c r="AD8" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE8" s="66">
-        <v>1520313000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AC8" s="71">
+        <v>461480189</v>
+      </c>
+      <c r="AE8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="63">
+        <f>AC13</f>
+        <v>1703381000</v>
+      </c>
+      <c r="AH8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI8" s="63">
+        <f>AF8</f>
+        <v>1703381000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="13">
         <v>4</v>
       </c>
@@ -1784,27 +1835,37 @@
       <c r="Z9" s="10">
         <v>358510205</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="10">
         <v>363820283</v>
       </c>
-      <c r="AB9" s="85">
-        <f>AE19</f>
-        <v>295445073</v>
-      </c>
-      <c r="AD9" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="66">
-        <f>1363430755</f>
-        <v>1363430755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AB9" s="76">
+        <v>406373444</v>
+      </c>
+      <c r="AC9" s="77">
+        <f>AI11</f>
+        <v>380616284</v>
+      </c>
+      <c r="AE9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="63">
+        <f>AF8-AF7</f>
+        <v>842096473</v>
+      </c>
+      <c r="AH9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="63">
+        <f>AC6+AC7+AC8</f>
+        <v>1322764716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:Z10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>851273286.7299999</v>
       </c>
       <c r="C10" s="25">
@@ -1904,24 +1965,27 @@
         <v>1608928071</v>
       </c>
       <c r="AA10" s="25">
-        <f>SUM(AA6:AA9)</f>
+        <f t="shared" si="0"/>
         <v>1486604168</v>
       </c>
       <c r="AB10" s="25">
-        <f>SUM(AB6:AB9)</f>
-        <v>1533312998</v>
-      </c>
-      <c r="AD10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="66">
-        <f>128728180</f>
-        <v>128728180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <f t="shared" si="0"/>
+        <v>1644241369</v>
+      </c>
+      <c r="AC10" s="25">
+        <f t="shared" si="0"/>
+        <v>1703381000</v>
+      </c>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="63"/>
+      <c r="AH10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI10" s="63"/>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -1984,7 +2048,7 @@
         <v>-66285164</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:Z11" si="1">-U12</f>
+        <f t="shared" ref="V11:AC11" si="1">-U12</f>
         <v>-68689413</v>
       </c>
       <c r="W11" s="24">
@@ -2004,24 +2068,35 @@
         <v>-103638176.36999989</v>
       </c>
       <c r="AA11" s="24">
-        <f>-Z12</f>
+        <f t="shared" si="1"/>
         <v>-86594348.109999895</v>
       </c>
       <c r="AB11" s="24">
-        <f>-AA12</f>
+        <f t="shared" si="1"/>
         <v>-47998457.669999838</v>
       </c>
-      <c r="AD11" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="66">
-        <f>AE8-(AE9-AE10)</f>
-        <v>285610425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AC11" s="24">
+        <f t="shared" si="1"/>
+        <v>-51884648.249999762</v>
+      </c>
+      <c r="AE11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="78">
+        <f>AB8/(AB8+AB9)</f>
+        <v>0.53060836354091123</v>
+      </c>
+      <c r="AH11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI11" s="63">
+        <f>AI8-AI9</f>
+        <v>380616284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -2084,7 +2159,7 @@
         <v>68689413</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:Z12" si="2">V13-V10-V11</f>
+        <f t="shared" ref="V12:AC12" si="2">V13-V10-V11</f>
         <v>60046571.230000019</v>
       </c>
       <c r="W12" s="24">
@@ -2104,17 +2179,28 @@
         <v>86594348.109999895</v>
       </c>
       <c r="AA12" s="24">
-        <f>AA13-AA10-AA11</f>
+        <f t="shared" si="2"/>
         <v>47998457.669999838</v>
       </c>
       <c r="AB12" s="24">
-        <f>AB13-AB10-AB11</f>
-        <v>47998459.669999838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <f t="shared" si="2"/>
+        <v>51884648.249999762</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="2"/>
+        <v>51884648.249999762</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="78">
+        <f>AB9/(AB8+AB9)</f>
+        <v>0.46939163645908877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15">
         <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
@@ -2211,157 +2297,166 @@
       <c r="Z13" s="17">
         <v>1591884242.74</v>
       </c>
-      <c r="AA13" s="84">
+      <c r="AA13" s="17">
         <v>1448008277.5599999</v>
       </c>
-      <c r="AB13" s="20">
-        <v>1533313000</v>
-      </c>
-      <c r="AD13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="66"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="AD14" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE14" s="66">
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="AD15" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE15" s="66">
-        <v>4145110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="AB16" s="66"/>
-      <c r="AD16" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE16" s="66">
-        <v>979758</v>
-      </c>
-    </row>
-    <row r="17" spans="24:32" ht="21" customHeight="1">
-      <c r="X17" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="107"/>
-      <c r="AD17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE17" s="66">
-        <f>AE14-(AE15-AE16)</f>
-        <v>9834648</v>
-      </c>
-    </row>
-    <row r="18" spans="24:32" ht="19" customHeight="1">
+      <c r="AB13" s="17">
+        <v>1648127559.5799999</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>1703381000</v>
+      </c>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="78"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="63"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="AE14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="63">
+        <f>AF9*AF11</f>
+        <v>446823431.48210317</v>
+      </c>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="63"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="AE15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="63">
+        <f>AF9*AF12</f>
+        <v>395273041.51789683</v>
+      </c>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="63"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="63"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="63"/>
+    </row>
+    <row r="17" spans="24:35" ht="21" customHeight="1">
+      <c r="X17" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="93"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="63"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="63"/>
+    </row>
+    <row r="18" spans="24:35" ht="19" customHeight="1">
       <c r="X18" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y18" s="95"/>
       <c r="Z18" s="95"/>
       <c r="AA18" s="96"/>
-      <c r="AD18" s="58"/>
-    </row>
-    <row r="19" spans="24:32">
-      <c r="X19" s="97"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="99"/>
-      <c r="AD19" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE19" s="66">
-        <f>AE17+AE11</f>
-        <v>295445073</v>
-      </c>
-    </row>
-    <row r="20" spans="24:32" ht="19" customHeight="1">
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="63"/>
+      <c r="AH18" s="55"/>
+    </row>
+    <row r="19" spans="24:35">
+      <c r="X19" s="99"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="63"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="63"/>
+    </row>
+    <row r="20" spans="24:35" ht="19" customHeight="1">
       <c r="X20" s="94" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y20" s="95"/>
       <c r="Z20" s="95"/>
       <c r="AA20" s="96"/>
-    </row>
-    <row r="21" spans="24:32">
-      <c r="X21" s="100"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="102"/>
-    </row>
-    <row r="22" spans="24:32" ht="21" customHeight="1">
-      <c r="X22" s="97"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AD22" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-    </row>
-    <row r="23" spans="24:32">
+      <c r="AE20" s="55"/>
+    </row>
+    <row r="21" spans="24:35">
+      <c r="X21" s="97"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="98"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="63"/>
+    </row>
+    <row r="22" spans="24:35" ht="21" customHeight="1">
+      <c r="X22" s="99"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
+      <c r="AH22" s="75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="24:35">
       <c r="X23" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="95"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="96"/>
-      <c r="AD23" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="24:32">
-      <c r="X24" s="97"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-    </row>
-    <row r="25" spans="24:32" ht="19" customHeight="1">
+      <c r="AH23" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI23" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="24:35">
+      <c r="X24" s="99"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="101"/>
+    </row>
+    <row r="25" spans="24:35" ht="19" customHeight="1">
       <c r="X25" s="94" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y25" s="95"/>
       <c r="Z25" s="95"/>
       <c r="AA25" s="96"/>
     </row>
-    <row r="26" spans="24:32">
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="102"/>
-    </row>
-    <row r="27" spans="24:32">
-      <c r="X27" s="97"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
+    <row r="26" spans="24:35">
+      <c r="X26" s="97"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="98"/>
+    </row>
+    <row r="27" spans="24:35" ht="47" customHeight="1">
+      <c r="X27" s="99"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="X23:AA24"/>
     <mergeCell ref="X25:AA27"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="X20:AA22"/>
     <mergeCell ref="X18:AA19"/>
-    <mergeCell ref="X20:AA22"/>
-    <mergeCell ref="X17:AA17"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AE5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AI10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"February,March,April,May"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2369,43 +2464,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="78" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="78" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="78" customWidth="1"/>
-    <col min="29" max="29" width="13" style="78" customWidth="1"/>
-    <col min="30" max="38" width="8.83203125" style="78" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="20.5" style="72" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="72" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="72" customWidth="1"/>
+    <col min="29" max="29" width="13" style="72" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" style="72" customWidth="1"/>
+    <col min="31" max="42" width="8.83203125" style="72" customWidth="1"/>
+    <col min="43" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="22" customFormat="1" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="23" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="23" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    <row r="1" spans="1:29" s="22" customFormat="1" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -2488,8 +2584,11 @@
       <c r="AB5" s="11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -2576,8 +2675,12 @@
         <f>SUM(AB18:AB20)</f>
         <v>98926065</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="24">
+        <f>SUM(AC18:AC20)</f>
+        <v>100674205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -2662,10 +2765,14 @@
       </c>
       <c r="AB7" s="24">
         <f>SUM(AB21:AB23)</f>
-        <v>97352200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>97362200</v>
+      </c>
+      <c r="AC7" s="24">
+        <f>SUM(AC21:AC23)</f>
+        <v>100468834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -2745,16 +2852,20 @@
         <f>SUM(Z24:Z26)</f>
         <v>87016559</v>
       </c>
-      <c r="AA8" s="87">
+      <c r="AA8" s="24">
         <f>SUM(AA24:AA26)</f>
         <v>87062648</v>
       </c>
-      <c r="AB8" s="34">
+      <c r="AB8" s="24">
         <f>SUM(AB24:AB26)</f>
-        <v>92859812.086199999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>98727001.469999984</v>
+      </c>
+      <c r="AC8" s="33">
+        <f>SUM(AC24:AC26)</f>
+        <v>100529321.44674897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -2834,21 +2945,25 @@
         <f>SUM(Z27:Z29)</f>
         <v>67395222</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="10">
         <f>SUM(AA27:AA29)</f>
         <v>89654494</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB9" s="10">
         <f>SUM(AB27:AB29)</f>
-        <v>95562725.154599994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>98793822.140000001</v>
+      </c>
+      <c r="AC9" s="18">
+        <f>SUM(AC27:AC29)</f>
+        <v>99455740.748337984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>82135054</v>
       </c>
       <c r="C10" s="25">
@@ -2947,18 +3062,22 @@
         <f t="shared" si="0"/>
         <v>333805182</v>
       </c>
-      <c r="AA10" s="88">
+      <c r="AA10" s="25">
         <f t="shared" si="0"/>
         <v>339145272.98000002</v>
       </c>
-      <c r="AB10" s="36">
-        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
-        <v>384700802.24080002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AB10" s="25">
+        <f t="shared" si="0"/>
+        <v>393809088.60999995</v>
+      </c>
+      <c r="AC10" s="35">
+        <f t="shared" si="0"/>
+        <v>401128101.19508696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -3024,33 +3143,37 @@
         <v>-49450168.590000004</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" ref="W11:AB11" si="2">-V12</f>
+        <f t="shared" ref="W11:AC11" si="1">-V12</f>
         <v>-52563997.539999999</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-57638641</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-53868208</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-62800912</v>
       </c>
-      <c r="AA11" s="87">
-        <f t="shared" si="2"/>
+      <c r="AA11" s="24">
+        <f t="shared" si="1"/>
         <v>-54023005.980000004</v>
       </c>
-      <c r="AB11" s="34">
-        <f t="shared" si="2"/>
+      <c r="AB11" s="24">
+        <f t="shared" si="1"/>
         <v>-65941947</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="33">
+        <f t="shared" si="1"/>
+        <v>-70826909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -3113,196 +3236,207 @@
         <v>49450168.590000004</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AB12" si="3">W18+W19</f>
+        <f t="shared" ref="V12:AC12" si="2">W18+W19</f>
         <v>52563997.539999999</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57638641</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53868208</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62800912</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54023005.980000004</v>
       </c>
-      <c r="AA12" s="87">
-        <f t="shared" si="3"/>
+      <c r="AA12" s="24">
+        <f t="shared" si="2"/>
         <v>65941947</v>
       </c>
-      <c r="AB12" s="34">
-        <f t="shared" si="3"/>
-        <v>70287521.307300001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AB12" s="24">
+        <f t="shared" si="2"/>
+        <v>70826909</v>
+      </c>
+      <c r="AC12" s="33">
+        <f t="shared" si="2"/>
+        <v>71301449.290299997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:AA13" si="4">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:AC13" si="3">SUM(B10:B12)</f>
         <v>82135054</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>86492400</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>97095318</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>99206774</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>122464603</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>111304174</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108093938</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>107971161</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>107969289</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>119879314</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>127817072</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>132572246</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>137275153</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>128231890</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>207113967</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>244584730</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>253523161</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>257549830</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>263049442</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>274450831.82000005</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>291045035.30000001</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>309017296.84000003</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>318819876</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>345944690</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>325027275.98000002</v>
       </c>
-      <c r="AA13" s="89">
-        <f t="shared" si="4"/>
+      <c r="AA13" s="15">
+        <f t="shared" si="3"/>
         <v>351064214</v>
       </c>
-      <c r="AB13" s="35">
-        <f t="shared" ref="AB13" si="5">SUM(AB10:AB12)</f>
-        <v>389046376.54809999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="21" customHeight="1">
-      <c r="U16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-    </row>
-    <row r="17" spans="16:29">
-      <c r="R17" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" s="101"/>
+      <c r="AB13" s="15">
+        <f t="shared" si="3"/>
+        <v>398694050.60999995</v>
+      </c>
+      <c r="AC13" s="34">
+        <f t="shared" si="3"/>
+        <v>401602641.48538697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="21" customHeight="1">
+      <c r="U16" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+    </row>
+    <row r="17" spans="16:30">
+      <c r="R17" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="89"/>
       <c r="V17" s="27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="W17" s="28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="X17" s="28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Y17" s="28" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AB17" s="28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AC17" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="16:29">
-      <c r="R18" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="S18" s="54"/>
+        <v>43</v>
+      </c>
+      <c r="AD17" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="16:30">
+      <c r="R18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="52"/>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="V18" s="30">
         <v>22409376.989999998</v>
@@ -3322,20 +3456,24 @@
       <c r="AA18" s="30">
         <v>24369709.52</v>
       </c>
-      <c r="AB18" s="86">
+      <c r="AB18" s="30">
         <v>31455553</v>
       </c>
-      <c r="AC18" s="33">
-        <v>33528473.942700002</v>
-      </c>
-    </row>
-    <row r="19" spans="16:29">
-      <c r="R19" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="56"/>
+      <c r="AC18" s="79">
+        <v>35857694</v>
+      </c>
+      <c r="AD18" s="80">
+        <f>+AC18*1.0067</f>
+        <v>36097940.549800001</v>
+      </c>
+    </row>
+    <row r="19" spans="16:30">
+      <c r="R19" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="82"/>
       <c r="U19" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V19" s="30">
         <v>27040791.600000001</v>
@@ -3355,20 +3493,24 @@
       <c r="AA19" s="30">
         <v>29653296.460000001</v>
       </c>
-      <c r="AB19" s="86">
+      <c r="AB19" s="30">
         <v>34486394</v>
       </c>
-      <c r="AC19" s="33">
-        <v>36759047.364600003</v>
-      </c>
-    </row>
-    <row r="20" spans="16:29">
-      <c r="R20" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="55"/>
+      <c r="AC19" s="79">
+        <v>34969215</v>
+      </c>
+      <c r="AD19" s="80">
+        <f>+AC19*1.0067</f>
+        <v>35203508.740499996</v>
+      </c>
+    </row>
+    <row r="20" spans="16:30">
+      <c r="R20" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" s="53"/>
       <c r="U20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="V20" s="30">
         <v>23405191.57</v>
@@ -3391,10 +3533,14 @@
       <c r="AB20" s="30">
         <v>32984118</v>
       </c>
-    </row>
-    <row r="21" spans="16:29">
+      <c r="AC20" s="81">
+        <f>14923648*2</f>
+        <v>29847296</v>
+      </c>
+    </row>
+    <row r="21" spans="16:30">
       <c r="U21" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="V21" s="30">
         <v>22444295.52</v>
@@ -3415,12 +3561,16 @@
         <v>27091458</v>
       </c>
       <c r="AB21" s="30">
-        <v>30776384</v>
-      </c>
-    </row>
-    <row r="22" spans="16:29">
+        <v>30786384</v>
+      </c>
+      <c r="AC21" s="81">
+        <f>16360012*2</f>
+        <v>32720024</v>
+      </c>
+    </row>
+    <row r="22" spans="16:30">
       <c r="U22" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="V22" s="30">
         <v>26261561.43</v>
@@ -3443,16 +3593,20 @@
       <c r="AB22" s="30">
         <v>34645304</v>
       </c>
-    </row>
-    <row r="23" spans="16:29" ht="21" customHeight="1">
-      <c r="P23" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="107"/>
+      <c r="AC22" s="81">
+        <f>17505583*2</f>
+        <v>35011166</v>
+      </c>
+    </row>
+    <row r="23" spans="16:30" ht="21" customHeight="1">
+      <c r="P23" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="93"/>
       <c r="U23" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="V23" s="30">
         <v>20060555.510000002</v>
@@ -3475,16 +3629,20 @@
       <c r="AB23" s="30">
         <v>31930512</v>
       </c>
-    </row>
-    <row r="24" spans="16:29" ht="19" customHeight="1">
+      <c r="AC23" s="81">
+        <f>16368822*2</f>
+        <v>32737644</v>
+      </c>
+    </row>
+    <row r="24" spans="16:30" ht="19" customHeight="1">
       <c r="P24" s="94" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="95"/>
       <c r="R24" s="95"/>
       <c r="S24" s="96"/>
       <c r="U24" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="V24" s="30">
         <v>25510953.219999999</v>
@@ -3507,14 +3665,18 @@
       <c r="AB24" s="30">
         <v>30759393</v>
       </c>
-    </row>
-    <row r="25" spans="16:29">
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="102"/>
+      <c r="AC24" s="81">
+        <f>16053165*2</f>
+        <v>32106330</v>
+      </c>
+    </row>
+    <row r="25" spans="16:30">
+      <c r="P25" s="97"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="98"/>
       <c r="U25" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="V25" s="30">
         <v>27916550.870000001</v>
@@ -3531,20 +3693,24 @@
       <c r="Z25" s="30">
         <v>26671332</v>
       </c>
-      <c r="AA25" s="86">
+      <c r="AA25" s="30">
         <v>30690000</v>
       </c>
-      <c r="AB25" s="33">
-        <v>32712471.000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="16:29">
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="102"/>
+      <c r="AB25" s="30">
+        <v>37155210.229999997</v>
+      </c>
+      <c r="AC25" s="80">
+        <f>+AB25*1.0067</f>
+        <v>37404150.138540991</v>
+      </c>
+    </row>
+    <row r="26" spans="16:30">
+      <c r="P26" s="97"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="98"/>
       <c r="U26" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="V26" s="30">
         <v>20349103.050000001</v>
@@ -3561,20 +3727,24 @@
       <c r="Z26" s="30">
         <v>35330542</v>
       </c>
-      <c r="AA26" s="86">
+      <c r="AA26" s="30">
         <v>27571018</v>
       </c>
-      <c r="AB26" s="33">
-        <v>29387948.086200003</v>
-      </c>
-    </row>
-    <row r="27" spans="16:29">
-      <c r="P27" s="97"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="99"/>
+      <c r="AB26" s="30">
+        <v>30812398.239999998</v>
+      </c>
+      <c r="AC26" s="80">
+        <f>+AB26*1.0067</f>
+        <v>31018841.308207996</v>
+      </c>
+    </row>
+    <row r="27" spans="16:30">
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="101"/>
       <c r="U27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="V27" s="30">
         <v>22534330.210000001</v>
@@ -3591,22 +3761,26 @@
       <c r="Z27" s="30">
         <v>27140383</v>
       </c>
-      <c r="AA27" s="86">
+      <c r="AA27" s="30">
         <v>25919200</v>
       </c>
-      <c r="AB27" s="33">
-        <v>27627275.280000001</v>
-      </c>
-    </row>
-    <row r="28" spans="16:29" ht="19" customHeight="1">
-      <c r="P28" s="108" t="s">
-        <v>48</v>
+      <c r="AB27" s="30">
+        <v>31367561.079999998</v>
+      </c>
+      <c r="AC27" s="80">
+        <f>+AB27*1.0067</f>
+        <v>31577723.739235997</v>
+      </c>
+    </row>
+    <row r="28" spans="16:30" ht="19" customHeight="1">
+      <c r="P28" s="102" t="s">
+        <v>59</v>
       </c>
       <c r="Q28" s="95"/>
       <c r="R28" s="95"/>
       <c r="S28" s="96"/>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="V28" s="30">
         <v>26048730.48</v>
@@ -3623,20 +3797,24 @@
       <c r="Z28" s="30">
         <v>21742640</v>
       </c>
-      <c r="AA28" s="86">
+      <c r="AA28" s="30">
         <v>33374448</v>
       </c>
-      <c r="AB28" s="33">
-        <v>35573824.123199999</v>
-      </c>
-    </row>
-    <row r="29" spans="16:29">
-      <c r="P29" s="97"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="99"/>
+      <c r="AB28" s="30">
+        <v>34542262.130000003</v>
+      </c>
+      <c r="AC28" s="80">
+        <f>+AB28*1.0067</f>
+        <v>34773695.286270998</v>
+      </c>
+    </row>
+    <row r="29" spans="16:30">
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="101"/>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="V29" s="30">
         <v>23949765.899999999</v>
@@ -3653,22 +3831,26 @@
       <c r="Z29" s="30">
         <v>18512199</v>
       </c>
-      <c r="AA29" s="86">
+      <c r="AA29" s="30">
         <v>30360846</v>
       </c>
-      <c r="AB29" s="33">
-        <v>32361625.751400001</v>
-      </c>
-    </row>
-    <row r="30" spans="16:29" ht="19" customHeight="1">
-      <c r="P30" s="108" t="s">
-        <v>51</v>
+      <c r="AB29" s="30">
+        <v>32883998.93</v>
+      </c>
+      <c r="AC29" s="80">
+        <f>+AB29*1.0067</f>
+        <v>33104321.722830996</v>
+      </c>
+    </row>
+    <row r="30" spans="16:30" ht="19" customHeight="1">
+      <c r="P30" s="102" t="s">
+        <v>62</v>
       </c>
       <c r="Q30" s="95"/>
       <c r="R30" s="95"/>
       <c r="S30" s="96"/>
       <c r="U30" s="31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V30" s="29">
         <v>287931206.35000002</v>
@@ -3689,16 +3871,19 @@
         <v>339085272.98000002</v>
       </c>
       <c r="AB30" s="29">
-        <v>384700802.24079996</v>
-      </c>
-    </row>
-    <row r="31" spans="16:29" ht="19" customHeight="1">
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="102"/>
+        <v>393809088.61000001</v>
+      </c>
+      <c r="AC30" s="29">
+        <v>401128101.19508702</v>
+      </c>
+    </row>
+    <row r="31" spans="16:30" ht="19" customHeight="1">
+      <c r="P31" s="97"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="98"/>
       <c r="U31" s="32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="V31" s="30">
         <v>-49450168.590000004</v>
@@ -3716,19 +3901,22 @@
         <v>-62800912</v>
       </c>
       <c r="AA31" s="30">
-        <v>-54023005.980000004</v>
+        <v>-54023005.979999997</v>
       </c>
       <c r="AB31" s="30">
         <v>-65941947</v>
       </c>
-    </row>
-    <row r="32" spans="16:29">
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="102"/>
+      <c r="AC31" s="30">
+        <v>-70826909</v>
+      </c>
+    </row>
+    <row r="32" spans="16:30">
+      <c r="P32" s="97"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="98"/>
       <c r="U32" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V32" s="30">
         <v>52563997.539999999</v>
@@ -3749,14 +3937,17 @@
         <v>65941947</v>
       </c>
       <c r="AB32" s="30">
-        <v>70287521.307300001</v>
-      </c>
-    </row>
-    <row r="33" spans="16:28">
-      <c r="P33" s="97"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="99"/>
+        <v>70826909</v>
+      </c>
+      <c r="AC32" s="30">
+        <v>71301449.290299997</v>
+      </c>
+    </row>
+    <row r="33" spans="16:29">
+      <c r="P33" s="99"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="101"/>
       <c r="V33" s="29">
         <v>291045035.30000001</v>
       </c>
@@ -3776,47 +3967,50 @@
         <v>351004214</v>
       </c>
       <c r="AB33" s="29">
-        <v>389046376.54809999</v>
-      </c>
-    </row>
-    <row r="34" spans="16:28">
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-    </row>
-    <row r="35" spans="16:28">
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-    </row>
-    <row r="36" spans="16:28">
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-    </row>
-    <row r="37" spans="16:28">
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-    </row>
-    <row r="38" spans="16:28">
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
+        <v>398694050.61000001</v>
+      </c>
+      <c r="AC33" s="29">
+        <v>401602641.48538703</v>
+      </c>
+    </row>
+    <row r="34" spans="16:29">
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+    </row>
+    <row r="35" spans="16:29">
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+    </row>
+    <row r="36" spans="16:29">
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+    </row>
+    <row r="37" spans="16:29">
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+    </row>
+    <row r="38" spans="16:29">
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="P24:S27"/>
     <mergeCell ref="P28:S29"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="U16:AB16"/>
     <mergeCell ref="P30:S33"/>
-    <mergeCell ref="U16:AB16"/>
     <mergeCell ref="R17:S17"/>
-    <mergeCell ref="P23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3825,53 +4019,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="37" customWidth="1"/>
-    <col min="2" max="24" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.83203125" style="78" customWidth="1"/>
-    <col min="28" max="28" width="14.83203125" style="82" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" style="78" customWidth="1"/>
-    <col min="30" max="31" width="8.83203125" style="78" customWidth="1"/>
-    <col min="32" max="32" width="13.5" style="78" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" style="78" customWidth="1"/>
-    <col min="34" max="43" width="8.83203125" style="78" customWidth="1"/>
-    <col min="44" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="19.1640625" style="36" customWidth="1"/>
+    <col min="2" max="24" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.83203125" style="72" customWidth="1"/>
+    <col min="29" max="29" width="16.1640625" style="72" customWidth="1"/>
+    <col min="30" max="30" width="12" style="72" customWidth="1"/>
+    <col min="31" max="31" width="29.33203125" style="72" customWidth="1"/>
+    <col min="32" max="32" width="19" style="72" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="72" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" style="72" customWidth="1"/>
+    <col min="35" max="35" width="10.5" style="72" customWidth="1"/>
+    <col min="36" max="36" width="16.83203125" style="72" customWidth="1"/>
+    <col min="37" max="45" width="8.83203125" style="72" customWidth="1"/>
+    <col min="46" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="24" customHeight="1">
-      <c r="A3" s="59" t="s">
+    <row r="1" spans="1:36" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="24" customHeight="1">
+      <c r="A2" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="24" customHeight="1">
+      <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="21" customHeight="1">
+      <c r="AE3" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="89"/>
+      <c r="AH3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+    </row>
+    <row r="4" spans="1:36" ht="21" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="AE4" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="39"/>
+      <c r="AE4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="89"/>
+      <c r="AH4" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="38"/>
       <c r="B5" s="11">
         <v>1996</v>
       </c>
@@ -3947,21 +4157,24 @@
       <c r="Z5" s="11">
         <v>2020</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="39">
         <v>2021</v>
       </c>
-      <c r="AB5" s="40">
+      <c r="AB5" s="39">
         <v>2022</v>
       </c>
-      <c r="AF5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="38">
+      <c r="AC5" s="39">
+        <v>2023</v>
+      </c>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="73"/>
+      <c r="AI5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="73"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="37">
         <v>1</v>
       </c>
       <c r="B6" s="24">
@@ -4039,16 +4252,18 @@
       <c r="Z6" s="24">
         <v>38692954</v>
       </c>
-      <c r="AA6" s="44">
+      <c r="AA6" s="43">
         <v>312731337</v>
       </c>
-      <c r="AB6" s="77">
+      <c r="AB6" s="43">
         <v>49577722</v>
       </c>
-      <c r="AC6" s="69"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="38">
+      <c r="AC6" s="43">
+        <v>58198096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
       <c r="B7" s="24">
@@ -4126,19 +4341,28 @@
       <c r="Z7" s="24">
         <v>56247377</v>
       </c>
-      <c r="AA7" s="44">
+      <c r="AA7" s="43">
         <v>59085234</v>
       </c>
-      <c r="AB7" s="77">
-        <v>104863787</v>
-      </c>
-      <c r="AC7" s="44"/>
-      <c r="AF7" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="38">
+      <c r="AB7" s="43">
+        <v>104863788</v>
+      </c>
+      <c r="AC7" s="43">
+        <v>90144757</v>
+      </c>
+      <c r="AE7" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="63">
+        <f>AC6+AC7</f>
+        <v>148342853</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="37">
         <v>3</v>
       </c>
       <c r="B8" s="24">
@@ -4216,22 +4440,32 @@
       <c r="Z8" s="24">
         <v>69319275</v>
       </c>
-      <c r="AA8" s="44">
+      <c r="AA8" s="43">
         <v>74852512</v>
       </c>
-      <c r="AB8" s="77">
+      <c r="AB8" s="43">
         <v>87624474</v>
       </c>
-      <c r="AC8" s="44"/>
-      <c r="AF8" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG8" s="66">
-        <v>634257000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="39">
+      <c r="AC8" s="86">
+        <v>78948928</v>
+      </c>
+      <c r="AE8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="63">
+        <f>AC13</f>
+        <v>729455000</v>
+      </c>
+      <c r="AI8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="63">
+        <f>AC13</f>
+        <v>729455000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="38">
         <v>4</v>
       </c>
       <c r="B9" s="10">
@@ -4309,28 +4543,34 @@
       <c r="Z9" s="10">
         <v>100775057</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="10">
         <v>376646393</v>
       </c>
-      <c r="AB9" s="18">
-        <f>AG12</f>
-        <v>392191017</v>
-      </c>
-      <c r="AC9" s="44"/>
-      <c r="AF9" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG9" s="66">
-        <f>619248727</f>
-        <v>619248727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="38" t="s">
-        <v>9</v>
+      <c r="AB9" s="10">
+        <v>504229532</v>
+      </c>
+      <c r="AC9" s="18">
+        <f>AF15</f>
+        <v>495078014.08938205</v>
+      </c>
+      <c r="AE9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="63">
+        <f>AF8-AF7</f>
+        <v>581112147</v>
+      </c>
+      <c r="AI9" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ9" s="63"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:AB10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>226796136.59</v>
       </c>
       <c r="C10" s="25">
@@ -4435,19 +4675,22 @@
       </c>
       <c r="AB10" s="25">
         <f t="shared" si="0"/>
-        <v>634257000</v>
-      </c>
-      <c r="AC10" s="24"/>
-      <c r="AF10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="66">
-        <v>377182744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="38" t="s">
-        <v>11</v>
+        <v>746295516</v>
+      </c>
+      <c r="AC10" s="25">
+        <f t="shared" si="0"/>
+        <v>722369795.08938205</v>
+      </c>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="63"/>
+      <c r="AI10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ10" s="63"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -4510,7 +4753,7 @@
         <v>-5556218</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AB11" si="1">-U12</f>
+        <f t="shared" ref="V11:AC11" si="1">-U12</f>
         <v>-9190680</v>
       </c>
       <c r="W11" s="24">
@@ -4537,17 +4780,28 @@
         <f t="shared" si="1"/>
         <v>-2016138.3300000429</v>
       </c>
-      <c r="AC11" s="25"/>
-      <c r="AF11" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG11" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="38" t="s">
-        <v>13</v>
+      <c r="AC11" s="24">
+        <f t="shared" si="1"/>
+        <v>-5585761.5900000334</v>
+      </c>
+      <c r="AE11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="78">
+        <f>AB8/(AB8+AB9)</f>
+        <v>0.14805082522327306</v>
+      </c>
+      <c r="AI11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ11" s="63">
+        <f>AJ8-(AJ9-AJ10)</f>
+        <v>729455000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -4610,7 +4864,7 @@
         <v>9190680</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="2">V13-V11-V10</f>
+        <f t="shared" ref="V12:AC12" si="2">V13-V11-V10</f>
         <v>6326785.5400000215</v>
       </c>
       <c r="W12" s="24">
@@ -4634,100 +4888,103 @@
         <v>2016138.3300000429</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" ref="AB12" si="3">AB13-AB11-AB10</f>
-        <v>2016138.3300000429</v>
-      </c>
-      <c r="AC12" s="24"/>
-      <c r="AF12" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG12" s="66">
-        <f>AG8-(AG9-AG10-AG11)</f>
-        <v>392191017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="41" t="s">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>5585761.5900000334</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="2"/>
+        <v>12670966.500617981</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="78">
+        <f>AB9/(AB8+AB9)</f>
+        <v>0.85194917477672694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="4">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
         <v>226796136.59</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>228904795.84999999</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>222323655.22999999</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>233507926.22</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>265419287.09000003</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>300216233.86000001</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>266071531.06999999</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>280247244.90000004</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>311336551.39999998</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>380012198.73000008</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>415896781.49000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>437058931.06</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>398830440.60000002</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>385974583.88999999</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>364703122.05000013</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>376944129.52999997</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>389386146.93000001</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>450911164.25</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>461655141.75999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>438234878</v>
       </c>
       <c r="V13" s="15">
@@ -4742,149 +4999,156 @@
       <c r="Y13" s="15">
         <v>540873629.96000004</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="41">
         <v>534239464.38</v>
       </c>
-      <c r="AA13" s="84">
+      <c r="AA13" s="17">
         <v>541598760.49000001</v>
       </c>
-      <c r="AB13" s="20">
-        <v>634257000</v>
-      </c>
-      <c r="AC13" s="24"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="AC14" s="45"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="66"/>
-    </row>
-    <row r="15" spans="1:33" ht="21" customHeight="1">
-      <c r="AE15" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-    </row>
-    <row r="16" spans="1:33" ht="21" customHeight="1">
-      <c r="X16" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="90"/>
-      <c r="AE16" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="78" t="s">
-        <v>85</v>
-      </c>
+      <c r="AB13" s="17">
+        <v>749865139.25999999</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>729455000</v>
+      </c>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="78"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="63"/>
+    </row>
+    <row r="14" spans="1:36" ht="21" customHeight="1">
+      <c r="AC14" s="44"/>
+      <c r="AE14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="63">
+        <f>AF9*AF11</f>
+        <v>86034132.910617962</v>
+      </c>
+      <c r="AH14" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+    </row>
+    <row r="15" spans="1:36" ht="21" customHeight="1">
+      <c r="AE15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="63">
+        <f>AF9*AF12</f>
+        <v>495078014.08938205</v>
+      </c>
+      <c r="AH15" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI15" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="21" customHeight="1">
+      <c r="X16" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="93"/>
     </row>
     <row r="17" spans="24:33">
       <c r="X17" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y17" s="95"/>
       <c r="Z17" s="95"/>
       <c r="AA17" s="96"/>
-      <c r="AB17" s="90"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="66"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
     </row>
     <row r="18" spans="24:33" ht="19" customHeight="1">
-      <c r="X18" s="97"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="90"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="66"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="101"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="63"/>
     </row>
     <row r="19" spans="24:33">
       <c r="X19" s="94" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Y19" s="95"/>
       <c r="Z19" s="95"/>
       <c r="AA19" s="96"/>
-      <c r="AB19" s="90"/>
-      <c r="AF19" s="58"/>
+      <c r="AF19" s="55"/>
     </row>
     <row r="20" spans="24:33" ht="19" customHeight="1">
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="90"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="66"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="98"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="63"/>
     </row>
     <row r="21" spans="24:33">
-      <c r="X21" s="97"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="90"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="101"/>
     </row>
     <row r="22" spans="24:33">
       <c r="X22" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y22" s="95"/>
       <c r="Z22" s="95"/>
       <c r="AA22" s="96"/>
-      <c r="AB22" s="90"/>
     </row>
     <row r="23" spans="24:33" ht="19" customHeight="1">
-      <c r="X23" s="97"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="90"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="101"/>
     </row>
     <row r="24" spans="24:33">
       <c r="X24" s="94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Y24" s="95"/>
       <c r="Z24" s="95"/>
       <c r="AA24" s="96"/>
-      <c r="AB24" s="90"/>
     </row>
     <row r="25" spans="24:33" ht="19" customHeight="1">
-      <c r="X25" s="100"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="90"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="98"/>
     </row>
     <row r="26" spans="24:33">
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="90"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="98"/>
     </row>
     <row r="27" spans="24:33">
-      <c r="X27" s="97"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="90"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="X24:AA27"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="X19:AA21"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X16:AA16"/>
     <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="X24:AA27"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="X16:AA16"/>
     <mergeCell ref="X17:AA18"/>
-    <mergeCell ref="X19:AA21"/>
+    <mergeCell ref="AH3:AJ3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AG5" r:id="rId1" xr:uid="{E7698540-F3DB-C642-B02A-B2E66B230E29}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4892,46 +5156,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="78" customWidth="1"/>
-    <col min="2" max="8" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="13.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="78" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" style="82" customWidth="1"/>
-    <col min="29" max="30" width="8.83203125" style="78" customWidth="1"/>
-    <col min="31" max="31" width="5.83203125" style="78" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" style="78" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" style="78" customWidth="1"/>
-    <col min="34" max="34" width="17.83203125" style="78" customWidth="1"/>
-    <col min="35" max="44" width="8.83203125" style="78" customWidth="1"/>
-    <col min="45" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="16" style="72" customWidth="1"/>
+    <col min="2" max="8" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="13.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.1640625" style="72" customWidth="1"/>
+    <col min="29" max="29" width="16.1640625" style="72" customWidth="1"/>
+    <col min="30" max="30" width="8.83203125" style="72" customWidth="1"/>
+    <col min="31" max="31" width="27.83203125" style="72" customWidth="1"/>
+    <col min="32" max="32" width="18.1640625" style="72" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="72" customWidth="1"/>
+    <col min="34" max="34" width="5.83203125" style="72" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" style="72" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" style="72" customWidth="1"/>
+    <col min="37" max="37" width="17.83203125" style="72" customWidth="1"/>
+    <col min="38" max="51" width="8.83203125" style="72" customWidth="1"/>
+    <col min="52" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="24" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="1" spans="1:37" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="24" customHeight="1">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="21" customHeight="1">
-      <c r="AF4" s="111" t="s">
+    <row r="3" spans="1:37">
+      <c r="AE3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AF3" s="89"/>
+      <c r="AI3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+    </row>
+    <row r="4" spans="1:37" ht="21" customHeight="1">
+      <c r="AE4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="89"/>
+      <c r="AI4" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -5014,14 +5296,19 @@
       <c r="AB5" s="11">
         <v>2022</v>
       </c>
-      <c r="AG5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AC5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="73"/>
+      <c r="AJ5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -5106,8 +5393,11 @@
       <c r="AB6" s="24">
         <v>62633488</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AC6" s="24">
+        <v>153353969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -5192,14 +5482,19 @@
       <c r="AB7" s="24">
         <v>110242544</v>
       </c>
-      <c r="AG7" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="66">
-        <v>537670000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AC7" s="24">
+        <v>92923071</v>
+      </c>
+      <c r="AE7" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="63">
+        <f>AC6+AC7</f>
+        <v>246277040</v>
+      </c>
+      <c r="AJ7" s="19"/>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -5284,14 +5579,24 @@
       <c r="AB8" s="24">
         <v>195109212</v>
       </c>
-      <c r="AG8" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH8" s="66">
-        <v>439369640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AC8" s="24">
+        <v>63309767</v>
+      </c>
+      <c r="AE8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="63">
+        <f>AC13</f>
+        <v>398824000</v>
+      </c>
+      <c r="AJ8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK8" s="63">
+        <v>398824000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -5370,26 +5675,37 @@
       <c r="Z9" s="10">
         <v>42466055</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="10">
         <v>78367255</v>
       </c>
-      <c r="AB9" s="18">
-        <f>AH10</f>
-        <v>169684758</v>
-      </c>
-      <c r="AG9" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH9" s="66">
-        <v>71384398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AB9" s="10">
+        <v>162803380</v>
+      </c>
+      <c r="AC9" s="18">
+        <f>AK10</f>
+        <v>89237193</v>
+      </c>
+      <c r="AE9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="63">
+        <f>AF8-AF7</f>
+        <v>152546960</v>
+      </c>
+      <c r="AJ9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK9" s="63">
+        <f>SUM(AC6:AC8)</f>
+        <v>309586807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>41631718.219999999</v>
       </c>
       <c r="C10" s="25">
@@ -5488,25 +5804,31 @@
         <f t="shared" si="0"/>
         <v>311336774</v>
       </c>
-      <c r="AA10" s="91">
+      <c r="AA10" s="25">
         <f t="shared" si="0"/>
         <v>315763463</v>
       </c>
       <c r="AB10" s="25">
-        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
-        <v>537670002</v>
-      </c>
-      <c r="AG10" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH10" s="66">
-        <f>AH7-(AH8-AH9)</f>
-        <v>169684758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+        <f t="shared" si="0"/>
+        <v>530788624</v>
+      </c>
+      <c r="AC10" s="25">
+        <f t="shared" si="0"/>
+        <v>398824000</v>
+      </c>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="63"/>
+      <c r="AJ10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="63">
+        <f>AK8-AK9</f>
+        <v>89237193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -5569,37 +5891,48 @@
         <v>-3925277</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AB11" si="2">-U12</f>
+        <f t="shared" ref="V11:AC11" si="1">-U12</f>
         <v>-4154024</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5225534.849999994</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9707790.099999994</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8032329.1699999869</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5996282.9699999988</v>
       </c>
-      <c r="AA11" s="92">
-        <f t="shared" si="2"/>
+      <c r="AA11" s="24">
+        <f t="shared" si="1"/>
         <v>-14453661.729999989</v>
       </c>
       <c r="AB11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2679263.4799999893</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AC11" s="24">
+        <f t="shared" si="1"/>
+        <v>-8784601.7499999702</v>
+      </c>
+      <c r="AE11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="78">
+        <f>AB8/(AB8+AB9)</f>
+        <v>0.54513089609320031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -5662,116 +5995,129 @@
         <v>4154024</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="3">V13-V10-V11</f>
+        <f t="shared" ref="V12:AC12" si="2">V13-V10-V11</f>
         <v>5225534.849999994</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9707790.099999994</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8032329.1699999869</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5996282.9699999988</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14453661.729999989</v>
       </c>
-      <c r="AA12" s="92">
-        <f t="shared" si="3"/>
+      <c r="AA12" s="24">
+        <f t="shared" si="2"/>
         <v>2679263.4799999893</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" ref="AB12" si="4">AB13-AB10-AB11</f>
-        <v>2679261.4799999893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="21" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>8784601.7499999702</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="2"/>
+        <v>8784601.7499999702</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="78">
+        <f>AB9/(AB8+AB9)</f>
+        <v>0.45486910390679969</v>
+      </c>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="63"/>
+    </row>
+    <row r="13" spans="1:37" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
         <v>41631718.219999999</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>54003695.520000003</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80440020.669999987</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>72774929.480000004</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80248213.200000003</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>77025289.75</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>96732783.960000008</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>102317052.61</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>141345440.91999999</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>192266194.46000001</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>236429848.50999999</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>217329184.05000001</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>184048097.40000001</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>115132990.42</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>119235530.42</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>116643503.25000001</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>119364495.87</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>147967711.59999999</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>168067573.06999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>203370332</v>
       </c>
       <c r="V13" s="17">
@@ -5789,134 +6135,143 @@
       <c r="Z13" s="17">
         <v>319794152.75999999</v>
       </c>
-      <c r="AA13" s="84">
+      <c r="AA13" s="17">
         <v>303989064.75</v>
       </c>
-      <c r="AB13" s="20">
-        <f>AH7</f>
-        <v>537670000</v>
-      </c>
-      <c r="AF13" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="AF14" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="21" customHeight="1">
-      <c r="X16" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="90"/>
-    </row>
-    <row r="17" spans="24:28">
+      <c r="AB13" s="17">
+        <v>536893962.26999998</v>
+      </c>
+      <c r="AC13" s="20">
+        <f>AK8</f>
+        <v>398824000</v>
+      </c>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="78"/>
+      <c r="AI13" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+    </row>
+    <row r="14" spans="1:37" ht="21" customHeight="1">
+      <c r="AE14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="63">
+        <f>AF9*AF11</f>
+        <v>83158061.001093581</v>
+      </c>
+      <c r="AI14" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ14" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="AE15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="63">
+        <f>AF9*AF12</f>
+        <v>69388898.998906419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="21" customHeight="1">
+      <c r="X16" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="93"/>
+    </row>
+    <row r="17" spans="24:27">
       <c r="X17" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y17" s="95"/>
       <c r="Z17" s="95"/>
       <c r="AA17" s="96"/>
-      <c r="AB17" s="90"/>
-    </row>
-    <row r="18" spans="24:28">
-      <c r="X18" s="97"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="90"/>
-    </row>
-    <row r="19" spans="24:28">
+    </row>
+    <row r="18" spans="24:27">
+      <c r="X18" s="99"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="101"/>
+    </row>
+    <row r="19" spans="24:27">
       <c r="X19" s="94" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Y19" s="95"/>
       <c r="Z19" s="95"/>
       <c r="AA19" s="96"/>
-      <c r="AB19" s="90"/>
-    </row>
-    <row r="20" spans="24:28">
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="90"/>
-    </row>
-    <row r="21" spans="24:28">
-      <c r="X21" s="97"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="90"/>
-    </row>
-    <row r="22" spans="24:28">
+    </row>
+    <row r="20" spans="24:27">
+      <c r="X20" s="97"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="98"/>
+    </row>
+    <row r="21" spans="24:27">
+      <c r="X21" s="99"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="101"/>
+    </row>
+    <row r="22" spans="24:27">
       <c r="X22" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y22" s="95"/>
       <c r="Z22" s="95"/>
       <c r="AA22" s="96"/>
-      <c r="AB22" s="90"/>
-    </row>
-    <row r="23" spans="24:28">
-      <c r="X23" s="97"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="90"/>
-    </row>
-    <row r="24" spans="24:28">
+    </row>
+    <row r="23" spans="24:27">
+      <c r="X23" s="99"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="101"/>
+    </row>
+    <row r="24" spans="24:27">
       <c r="X24" s="94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Y24" s="95"/>
       <c r="Z24" s="95"/>
       <c r="AA24" s="96"/>
-      <c r="AB24" s="90"/>
-    </row>
-    <row r="25" spans="24:28">
-      <c r="X25" s="100"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="90"/>
-    </row>
-    <row r="26" spans="24:28">
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="90"/>
-    </row>
-    <row r="27" spans="24:28">
-      <c r="X27" s="97"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="90"/>
+    </row>
+    <row r="25" spans="24:27">
+      <c r="X25" s="97"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="98"/>
+    </row>
+    <row r="26" spans="24:27">
+      <c r="X26" s="97"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="98"/>
+    </row>
+    <row r="27" spans="24:27">
+      <c r="X27" s="99"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="X24:AA27"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="X19:AA21"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="X22:AA23"/>
-    <mergeCell ref="X24:AA27"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="X16:AA16"/>
     <mergeCell ref="X17:AA18"/>
-    <mergeCell ref="X19:AA21"/>
+    <mergeCell ref="AI4:AK4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AH5" r:id="rId1" xr:uid="{D062268A-91F9-BC42-BE03-1E026DCC532F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5924,45 +6279,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="78" customWidth="1"/>
-    <col min="2" max="5" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="78" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="78" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" style="78" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" style="82" customWidth="1"/>
-    <col min="29" max="31" width="8.83203125" style="78" customWidth="1"/>
-    <col min="32" max="32" width="11.1640625" style="78" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" style="78" customWidth="1"/>
-    <col min="34" max="34" width="15" style="78" customWidth="1"/>
-    <col min="35" max="44" width="8.83203125" style="78" customWidth="1"/>
-    <col min="45" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="19.6640625" style="72" customWidth="1"/>
+    <col min="2" max="5" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="72" customWidth="1"/>
+    <col min="27" max="28" width="12.83203125" style="72" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" style="72" customWidth="1"/>
+    <col min="30" max="30" width="15.5" style="72" customWidth="1"/>
+    <col min="31" max="31" width="25.33203125" style="72" customWidth="1"/>
+    <col min="32" max="32" width="22" style="72" customWidth="1"/>
+    <col min="33" max="34" width="8.83203125" style="72" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" style="72" customWidth="1"/>
+    <col min="36" max="36" width="17" style="72" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" style="72" customWidth="1"/>
+    <col min="38" max="38" width="15" style="72" customWidth="1"/>
+    <col min="39" max="52" width="8.83203125" style="72" customWidth="1"/>
+    <col min="53" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>59</v>
+    <row r="1" spans="1:37" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:42" ht="24" customHeight="1">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:37" ht="24" customHeight="1">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
@@ -5970,41 +6329,27 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:42" ht="24" customHeight="1">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:37" ht="24" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-    </row>
-    <row r="4" spans="1:42" ht="21" customHeight="1">
-      <c r="AE4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-    </row>
-    <row r="5" spans="1:42">
+    </row>
+    <row r="4" spans="1:37" ht="21" customHeight="1">
+      <c r="AE4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="89"/>
+      <c r="AI4" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+    </row>
+    <row r="5" spans="1:37" ht="21" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -6087,21 +6432,20 @@
       <c r="AB5" s="11">
         <v>2022</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="58" t="s">
+      <c r="AC5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="AE5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AH5" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AF5" s="89"/>
+      <c r="AI5" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -6186,20 +6530,17 @@
       <c r="AB6" s="24">
         <v>788951</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-    </row>
-    <row r="7" spans="1:42">
+      <c r="AC6" s="24">
+        <v>5862346</v>
+      </c>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="73"/>
+      <c r="AJ6" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="73"/>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -6284,22 +6625,11 @@
       <c r="AB7" s="24">
         <v>170475</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="AC7" s="24">
+        <v>3972464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -6379,29 +6709,24 @@
         <v>718483</v>
       </c>
       <c r="AA8" s="24">
-        <v>2659168</v>
+        <v>2658347</v>
       </c>
       <c r="AB8" s="24">
         <v>2403664</v>
       </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH8" s="67">
-        <v>25658000</v>
-      </c>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AC8" s="24">
+        <v>5184277</v>
+      </c>
+      <c r="AE8" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="63">
+        <f>AC6+AC7</f>
+        <v>9834810</v>
+      </c>
+      <c r="AJ8" s="19"/>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -6480,162 +6805,162 @@
       <c r="Z9" s="24">
         <v>9499991</v>
       </c>
-      <c r="AA9" s="34">
-        <v>26483762</v>
-      </c>
-      <c r="AB9" s="34">
-        <f>AI12</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH9" s="67">
-        <v>22282237</v>
-      </c>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="48">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
+      <c r="AA9" s="24">
+        <v>29667972</v>
+      </c>
+      <c r="AB9" s="24">
+        <v>16653175</v>
+      </c>
+      <c r="AC9" s="33">
+        <f>AF16</f>
+        <v>17530845.89622917</v>
+      </c>
+      <c r="AE9" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="63">
+        <f>AC13</f>
+        <v>29896000</v>
+      </c>
+      <c r="AJ9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="63">
+        <f>AC13</f>
+        <v>29896000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="47">
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>10430789.969999999</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <f t="shared" si="0"/>
         <v>10436208.359999998</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <f t="shared" si="0"/>
         <v>10193941.550000001</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <f t="shared" si="0"/>
         <v>13091108.649999999</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f t="shared" si="0"/>
         <v>9914416.1999999993</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <f t="shared" si="0"/>
         <v>9879124.1300000027</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>11744747.25</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <f t="shared" si="0"/>
         <v>10059810.460000001</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="47">
         <f t="shared" si="0"/>
         <v>11139543.269999998</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <f t="shared" si="0"/>
         <v>11848913.470000001</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="47">
         <f t="shared" si="0"/>
         <v>11719611.079999998</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="47">
         <f t="shared" si="0"/>
         <v>10536487.529999997</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="47">
         <f t="shared" si="0"/>
         <v>9615434.0600000005</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <f t="shared" si="0"/>
         <v>9776148.0500000007</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="47">
         <f t="shared" si="0"/>
         <v>10913306.59</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="47">
         <f t="shared" si="0"/>
         <v>6726370.0799999991</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="47">
         <f t="shared" si="0"/>
         <v>12270656.98</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="47">
         <f t="shared" si="0"/>
         <v>17092347.949999999</v>
       </c>
-      <c r="T10" s="48">
+      <c r="T10" s="47">
         <f t="shared" si="0"/>
         <v>14697126.799999999</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="47">
         <f t="shared" si="0"/>
         <v>13410660</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="47">
         <f t="shared" si="0"/>
         <v>22912370</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="47">
         <f t="shared" si="0"/>
         <v>25582437</v>
       </c>
-      <c r="X10" s="48">
+      <c r="X10" s="47">
         <f t="shared" si="0"/>
         <v>27105639</v>
       </c>
-      <c r="Y10" s="48">
+      <c r="Y10" s="47">
         <f t="shared" si="0"/>
         <v>28987489</v>
       </c>
-      <c r="Z10" s="48">
+      <c r="Z10" s="47">
         <f t="shared" si="0"/>
         <v>11802389</v>
       </c>
-      <c r="AA10" s="48">
-        <f t="shared" si="0"/>
-        <v>50429215</v>
-      </c>
-      <c r="AB10" s="48">
-        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
-        <v>3363090</v>
-      </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="67">
-        <v>18919148</v>
-      </c>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="AA10" s="47">
+        <f t="shared" si="0"/>
+        <v>53612604</v>
+      </c>
+      <c r="AB10" s="47">
+        <f t="shared" si="0"/>
+        <v>20016265</v>
+      </c>
+      <c r="AC10" s="47">
+        <f t="shared" si="0"/>
+        <v>32549932.89622917</v>
+      </c>
+      <c r="AE10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="63">
+        <f>AF9-AF8</f>
+        <v>20061190</v>
+      </c>
+      <c r="AJ10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" s="63"/>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -6698,53 +7023,47 @@
         <v>959077</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AB11" si="2">-U12</f>
+        <f t="shared" ref="V11:AC11" si="1">-U12</f>
         <v>-322397</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-743027</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-490590</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-992951</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1460462</v>
       </c>
       <c r="AA11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-12197073</v>
       </c>
       <c r="AB11" s="24">
-        <f t="shared" si="2"/>
-        <v>-4281500.8400000036</v>
-      </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH11" s="67">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-    </row>
-    <row r="12" spans="1:42">
+        <f t="shared" si="1"/>
+        <v>-1098111.8400000036</v>
+      </c>
+      <c r="AC11" s="24">
+        <f t="shared" si="1"/>
+        <v>-3045031.7100000046</v>
+      </c>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="63"/>
+      <c r="AJ11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK11" s="63"/>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -6807,133 +7126,134 @@
         <v>322397</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="3">V13-V11-V10</f>
+        <f t="shared" ref="V12:AC12" si="2">V13-V11-V10</f>
         <v>743027</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>490590</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>992951</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1460462</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12197073</v>
       </c>
       <c r="AA12" s="24">
-        <f t="shared" si="3"/>
-        <v>4281500.8400000036</v>
+        <f t="shared" si="2"/>
+        <v>1098111.8400000036</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" ref="AB12" si="4">AB13-AB11-AB10</f>
-        <v>26576410.840000004</v>
-      </c>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH12" s="67">
-        <f>AH8-(AH9-AH10-AH11)</f>
-        <v>22294911</v>
-      </c>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="43" t="s">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>3045031.7100000046</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="2"/>
+        <v>391098.81377083436</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="78">
+        <f>AB8/(AB8+AB9)</f>
+        <v>0.12613130645643802</v>
+      </c>
+      <c r="AJ12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK12" s="63">
+        <f>AK9-(AK10-AK11)</f>
+        <v>29896000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
         <v>10430789.969999999</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10436208.359999998</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10193941.550000001</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13091108.649999999</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9914416.1999999993</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10581816.130000003</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11357883.25</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10124345.460000001</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11287029.269999998</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11971029.470000001</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11821897.079999998</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10936182.529999997</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9109067.0600000005</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9471672.0500000007</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12057793.59</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5740359.0799999991</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12192064.98</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17230166.949999999</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13179243.799999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14692134</v>
       </c>
       <c r="V13" s="15">
@@ -6951,137 +7271,153 @@
       <c r="Z13" s="15">
         <v>22539000</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="15">
         <v>42513642.840000004</v>
       </c>
-      <c r="AB13" s="53">
-        <f>AH8</f>
-        <v>25658000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="21" customHeight="1">
-      <c r="AF14" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="AF15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH15" s="6"/>
-    </row>
-    <row r="17" spans="24:28" ht="21" customHeight="1">
-      <c r="X17" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="90"/>
-    </row>
-    <row r="18" spans="24:28">
+      <c r="AB13" s="15">
+        <v>21963184.870000001</v>
+      </c>
+      <c r="AC13" s="51">
+        <v>29896000</v>
+      </c>
+      <c r="AE13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="78">
+        <f>AB9/(AB8+AB9)</f>
+        <v>0.873868693543562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="21" customHeight="1">
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="78"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="63"/>
+    </row>
+    <row r="15" spans="1:37" ht="21" customHeight="1">
+      <c r="AE15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" s="63">
+        <f>AF10*AF12</f>
+        <v>2530344.1037708297</v>
+      </c>
+      <c r="AI15" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="AE16" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="63">
+        <f>AF10*AF13</f>
+        <v>17530845.89622917</v>
+      </c>
+      <c r="AI16" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ16" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="24:27" ht="21" customHeight="1">
+      <c r="X17" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="93"/>
+    </row>
+    <row r="18" spans="24:27">
       <c r="X18" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y18" s="95"/>
       <c r="Z18" s="95"/>
       <c r="AA18" s="96"/>
-      <c r="AB18" s="90"/>
-    </row>
-    <row r="19" spans="24:28">
-      <c r="X19" s="97"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="90"/>
-    </row>
-    <row r="20" spans="24:28">
+    </row>
+    <row r="19" spans="24:27">
+      <c r="X19" s="99"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
+    </row>
+    <row r="20" spans="24:27">
       <c r="X20" s="94" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="Y20" s="95"/>
       <c r="Z20" s="95"/>
       <c r="AA20" s="96"/>
-      <c r="AB20" s="90"/>
-    </row>
-    <row r="21" spans="24:28">
-      <c r="X21" s="100"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="90"/>
-    </row>
-    <row r="22" spans="24:28">
-      <c r="X22" s="97"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="90"/>
-    </row>
-    <row r="23" spans="24:28">
+    </row>
+    <row r="21" spans="24:27">
+      <c r="X21" s="97"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="98"/>
+    </row>
+    <row r="22" spans="24:27">
+      <c r="X22" s="99"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
+    </row>
+    <row r="23" spans="24:27">
       <c r="X23" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="95"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="96"/>
-      <c r="AB23" s="90"/>
-    </row>
-    <row r="24" spans="24:28">
-      <c r="X24" s="97"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="90"/>
-    </row>
-    <row r="25" spans="24:28">
+    </row>
+    <row r="24" spans="24:27">
+      <c r="X24" s="99"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="101"/>
+    </row>
+    <row r="25" spans="24:27">
       <c r="X25" s="94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Y25" s="95"/>
       <c r="Z25" s="95"/>
       <c r="AA25" s="96"/>
-      <c r="AB25" s="90"/>
-    </row>
-    <row r="26" spans="24:28">
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="90"/>
-    </row>
-    <row r="27" spans="24:28">
-      <c r="X27" s="100"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="90"/>
-    </row>
-    <row r="28" spans="24:28">
-      <c r="X28" s="97"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="90"/>
+    </row>
+    <row r="26" spans="24:27">
+      <c r="X26" s="97"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="98"/>
+    </row>
+    <row r="27" spans="24:27">
+      <c r="X27" s="97"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="98"/>
+    </row>
+    <row r="28" spans="24:27">
+      <c r="X28" s="99"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="X23:AA24"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X25:AA28"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AI15:AK15"/>
     <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="X20:AA22"/>
+    <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="X18:AA19"/>
-    <mergeCell ref="X20:AA22"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AH5" r:id="rId1" xr:uid="{C6B804AC-62A5-B64B-BE46-1E9AC93DE07F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7089,58 +7425,73 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="78" customWidth="1"/>
-    <col min="2" max="23" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.83203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="78" customWidth="1"/>
-    <col min="28" max="28" width="14.1640625" style="82" customWidth="1"/>
-    <col min="29" max="31" width="12.5" style="78" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" style="78" customWidth="1"/>
-    <col min="33" max="42" width="8.83203125" style="78" customWidth="1"/>
-    <col min="43" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="28.83203125" style="72" customWidth="1"/>
+    <col min="2" max="23" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.83203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.1640625" style="72" customWidth="1"/>
+    <col min="29" max="29" width="14.5" style="72" customWidth="1"/>
+    <col min="30" max="30" width="12.5" style="72" customWidth="1"/>
+    <col min="31" max="31" width="29.1640625" style="72" customWidth="1"/>
+    <col min="32" max="32" width="24.1640625" style="72" customWidth="1"/>
+    <col min="33" max="33" width="9.1640625" style="72" customWidth="1"/>
+    <col min="34" max="34" width="8.83203125" style="72" customWidth="1"/>
+    <col min="35" max="36" width="12.5" style="72" customWidth="1"/>
+    <col min="37" max="37" width="19.6640625" style="72" customWidth="1"/>
+    <col min="38" max="51" width="8.83203125" style="72" customWidth="1"/>
+    <col min="52" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="24" customHeight="1">
-      <c r="A2" s="47" t="s">
+    <row r="1" spans="1:43" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="24" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
+    <row r="3" spans="1:43" ht="18" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="AE3" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="89"/>
+      <c r="AI3" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
       <c r="AL3" s="6"/>
-    </row>
-    <row r="4" spans="1:38" ht="21" customHeight="1">
-      <c r="AD4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+    </row>
+    <row r="4" spans="1:43" ht="21" customHeight="1">
+      <c r="AE4" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="89"/>
+      <c r="AI4" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
       <c r="AL4" s="6"/>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AM4" s="6"/>
+      <c r="AQ4" s="6"/>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -7223,18 +7574,21 @@
       <c r="AB5" s="11">
         <v>2022</v>
       </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AL5" s="6"/>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AC5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="73"/>
+      <c r="AJ5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AQ5" s="6"/>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -7319,17 +7673,18 @@
       <c r="AB6" s="24">
         <v>20006439</v>
       </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
+      <c r="AC6" s="24">
+        <v>23729406</v>
+      </c>
+      <c r="AD6" s="24"/>
       <c r="AL6" s="6"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -7414,21 +7769,26 @@
       <c r="AB7" s="24">
         <v>20920423</v>
       </c>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="67">
-        <v>88284000</v>
-      </c>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
+      <c r="AC7" s="24">
+        <v>23976240</v>
+      </c>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="63">
+        <f>AC6+AC7</f>
+        <v>47705646</v>
+      </c>
+      <c r="AJ7" s="19"/>
       <c r="AL7" s="6"/>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -7513,21 +7873,32 @@
       <c r="AB8" s="24">
         <v>18995117</v>
       </c>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF8" s="67">
-        <v>67358772</v>
-      </c>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
+      <c r="AC8" s="24">
+        <v>26300535</v>
+      </c>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="63">
+        <f>AC13</f>
+        <v>97163000</v>
+      </c>
+      <c r="AJ8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK8" s="63">
+        <f>AC13</f>
+        <v>97163000</v>
+      </c>
       <c r="AL8" s="6"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -7606,157 +7977,168 @@
       <c r="Z9" s="24">
         <v>7642535</v>
       </c>
-      <c r="AA9" s="92">
+      <c r="AA9" s="24">
         <v>16877614</v>
       </c>
-      <c r="AB9" s="34">
-        <f>AF10</f>
-        <v>28362020</v>
-      </c>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF9" s="67">
-        <v>7436792</v>
-      </c>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
+      <c r="AB9" s="24">
+        <v>22905854</v>
+      </c>
+      <c r="AC9" s="33">
+        <f>AF15</f>
+        <v>27036674.876826026</v>
+      </c>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="63">
+        <f>AF8-AF7</f>
+        <v>49457354</v>
+      </c>
+      <c r="AJ9" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" s="63"/>
       <c r="AL9" s="6"/>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="48">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="47">
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>27339736.890000001</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <f t="shared" si="0"/>
         <v>28176978.640000001</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <f t="shared" si="0"/>
         <v>29595512.280000001</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <f t="shared" si="0"/>
         <v>31365354.210000001</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f t="shared" si="0"/>
         <v>33072186.690000001</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <f t="shared" si="0"/>
         <v>35145041.960000001</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>38009912.149999999</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <f t="shared" si="0"/>
         <v>38808601.320000008</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="47">
         <f t="shared" si="0"/>
         <v>41748097.259999998</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <f t="shared" si="0"/>
         <v>44977611.789999999</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="47">
         <f t="shared" si="0"/>
         <v>47193152.45000001</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="47">
         <f t="shared" si="0"/>
         <v>49869999.310000002</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="47">
         <f t="shared" si="0"/>
         <v>54819050.780000009</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <f t="shared" si="0"/>
         <v>66924688.679999992</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="47">
         <f t="shared" si="0"/>
         <v>69403906.340000004</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="47">
         <f t="shared" si="0"/>
         <v>69690078.450000003</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="47">
         <f t="shared" si="0"/>
         <v>70366179.660000011</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="47">
         <f t="shared" si="0"/>
         <v>71934714.570000008</v>
       </c>
-      <c r="T10" s="48">
+      <c r="T10" s="47">
         <f t="shared" si="0"/>
         <v>73582216.060000002</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="47">
         <f t="shared" si="0"/>
         <v>76210852</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="47">
         <f t="shared" si="0"/>
         <v>92160979</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="47">
         <f t="shared" si="0"/>
         <v>93906607</v>
       </c>
-      <c r="X10" s="48">
+      <c r="X10" s="47">
         <f t="shared" si="0"/>
         <v>93656344</v>
       </c>
-      <c r="Y10" s="48">
+      <c r="Y10" s="47">
         <f t="shared" si="0"/>
         <v>97928023</v>
       </c>
-      <c r="Z10" s="48">
+      <c r="Z10" s="47">
         <f t="shared" si="0"/>
         <v>81377208</v>
       </c>
-      <c r="AA10" s="93">
+      <c r="AA10" s="47">
         <f t="shared" si="0"/>
         <v>49102120</v>
       </c>
-      <c r="AB10" s="48">
-        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
-        <v>88283999</v>
-      </c>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF10" s="67">
-        <f>AF7-(AF8-AF9)</f>
-        <v>28362020</v>
-      </c>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
+      <c r="AB10" s="47">
+        <f t="shared" si="0"/>
+        <v>82827833</v>
+      </c>
+      <c r="AC10" s="47">
+        <f t="shared" si="0"/>
+        <v>101042855.87682602</v>
+      </c>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="63"/>
+      <c r="AJ10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK10" s="63"/>
       <c r="AL10" s="6"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -7819,44 +8201,62 @@
         <v>-6107237</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AB11" si="2">-U12</f>
+        <f t="shared" ref="V11:AC11" si="1">-U12</f>
         <v>-8037123</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8540668.1299999952</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-10739414.219999999</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-13555525.109999999</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-14939609.230000004</v>
       </c>
-      <c r="AA11" s="92">
-        <f t="shared" si="2"/>
+      <c r="AA11" s="24">
+        <f t="shared" si="1"/>
         <v>-10828473.719999999</v>
       </c>
       <c r="AB11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-14938182.659999996</v>
       </c>
-      <c r="AD11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
+      <c r="AC11" s="24">
+        <f t="shared" si="1"/>
+        <v>-18731402.950000003</v>
+      </c>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="78">
+        <f>AB8/(AB8+AB9)</f>
+        <v>0.45333357549160375</v>
+      </c>
+      <c r="AJ11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK11" s="63">
+        <f>AK8-(AK9-AK10)</f>
+        <v>97163000</v>
+      </c>
       <c r="AL11" s="6"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -7919,123 +8319,134 @@
         <v>8037123</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="3">V13-V10-V11</f>
+        <f t="shared" ref="V12:AC12" si="2">V13-V10-V11</f>
         <v>8540668.1299999952</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10739414.219999999</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13555525.109999999</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14939609.230000004</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10828473.719999999</v>
       </c>
-      <c r="AA12" s="92">
-        <f t="shared" si="3"/>
+      <c r="AA12" s="24">
+        <f t="shared" si="2"/>
         <v>14938182.659999996</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" ref="AB12" si="4">AB13-AB10-AB11</f>
-        <v>14938183.659999996</v>
-      </c>
-      <c r="AD12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
+        <f t="shared" si="2"/>
+        <v>18731402.950000003</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="2"/>
+        <v>14851547.073173985</v>
+      </c>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="78">
+        <f>AB9/(AB8+AB9)</f>
+        <v>0.5466664245083962</v>
+      </c>
       <c r="AL12" s="6"/>
-    </row>
-    <row r="13" spans="1:38" ht="21" customHeight="1">
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+    </row>
+    <row r="13" spans="1:43" ht="21" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
         <v>27339736.890000001</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28176978.640000001</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29595512.280000001</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>31365354.210000001</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>33072186.690000001</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>38540646.960000001</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>37937878.149999999</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>38742517.320000008</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>42454753.259999998</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>45033697.789999999</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>47772637.45000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>49655836.310000002</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>54764182.780000009</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69455224.679999992</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69177243.340000004</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70072893.450000003</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69458475.660000011</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>71790713.570000008</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>73723787.060000002</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>78140738</v>
       </c>
       <c r="V13" s="15">
@@ -8053,135 +8464,145 @@
       <c r="Z13" s="15">
         <v>77266072.489999995</v>
       </c>
-      <c r="AA13" s="89">
+      <c r="AA13" s="15">
         <v>53211828.939999998</v>
       </c>
-      <c r="AB13" s="53">
-        <f>AF7</f>
-        <v>88284000</v>
-      </c>
-      <c r="AD13" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="AD14" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF14" s="6"/>
-    </row>
-    <row r="17" spans="24:28" ht="21" customHeight="1">
-      <c r="X17" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="90"/>
-    </row>
-    <row r="18" spans="24:28">
+      <c r="AB13" s="15">
+        <v>86621053.290000007</v>
+      </c>
+      <c r="AC13" s="51">
+        <v>97163000</v>
+      </c>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="78"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="63"/>
+    </row>
+    <row r="14" spans="1:43" ht="21" customHeight="1">
+      <c r="AE14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="63">
+        <f>AF9*AF11</f>
+        <v>22420679.123173971</v>
+      </c>
+      <c r="AI14" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="AE15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="63">
+        <f>AF9*AF12</f>
+        <v>27036674.876826026</v>
+      </c>
+      <c r="AI15" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="24:27" ht="21" customHeight="1">
+      <c r="X17" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="93"/>
+    </row>
+    <row r="18" spans="24:27">
       <c r="X18" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y18" s="95"/>
       <c r="Z18" s="95"/>
       <c r="AA18" s="96"/>
-      <c r="AB18" s="90"/>
-    </row>
-    <row r="19" spans="24:28">
-      <c r="X19" s="97"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="90"/>
-    </row>
-    <row r="20" spans="24:28">
+    </row>
+    <row r="19" spans="24:27">
+      <c r="X19" s="99"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
+    </row>
+    <row r="20" spans="24:27">
       <c r="X20" s="94" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="95"/>
       <c r="Z20" s="95"/>
       <c r="AA20" s="96"/>
-      <c r="AB20" s="90"/>
-    </row>
-    <row r="21" spans="24:28">
-      <c r="X21" s="100"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="90"/>
-    </row>
-    <row r="22" spans="24:28">
-      <c r="X22" s="97"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="90"/>
-    </row>
-    <row r="23" spans="24:28">
+    </row>
+    <row r="21" spans="24:27">
+      <c r="X21" s="97"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="98"/>
+    </row>
+    <row r="22" spans="24:27">
+      <c r="X22" s="99"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
+    </row>
+    <row r="23" spans="24:27">
       <c r="X23" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="95"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="96"/>
-      <c r="AB23" s="90"/>
-    </row>
-    <row r="24" spans="24:28">
-      <c r="X24" s="97"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="90"/>
-    </row>
-    <row r="25" spans="24:28">
+    </row>
+    <row r="24" spans="24:27">
+      <c r="X24" s="99"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="101"/>
+    </row>
+    <row r="25" spans="24:27">
       <c r="X25" s="94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Y25" s="95"/>
       <c r="Z25" s="95"/>
       <c r="AA25" s="96"/>
-      <c r="AB25" s="90"/>
-    </row>
-    <row r="26" spans="24:28">
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="90"/>
-    </row>
-    <row r="27" spans="24:28">
-      <c r="X27" s="100"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="90"/>
-    </row>
-    <row r="28" spans="24:28">
-      <c r="X28" s="97"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="90"/>
+    </row>
+    <row r="26" spans="24:27">
+      <c r="X26" s="97"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="98"/>
+    </row>
+    <row r="27" spans="24:27">
+      <c r="X27" s="97"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="98"/>
+    </row>
+    <row r="28" spans="24:27">
+      <c r="X28" s="99"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="X25:AA28"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AI14:AK14"/>
+    <mergeCell ref="X20:AA22"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="X18:AA19"/>
     <mergeCell ref="X23:AA24"/>
-    <mergeCell ref="X25:AA28"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="X18:AA19"/>
-    <mergeCell ref="X20:AA22"/>
+    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AF5" r:id="rId1" xr:uid="{51DDA6D8-6EEA-9D43-9C77-3D809C8FA60C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8189,51 +8610,63 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AR28"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="78" customWidth="1"/>
-    <col min="2" max="5" width="11" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" style="78" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="78" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="82" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" style="78" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" style="78" customWidth="1"/>
-    <col min="31" max="31" width="11.33203125" style="78" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" style="78" customWidth="1"/>
-    <col min="33" max="33" width="16.1640625" style="78" customWidth="1"/>
-    <col min="34" max="43" width="8.83203125" style="78" customWidth="1"/>
-    <col min="44" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="19.5" style="72" customWidth="1"/>
+    <col min="2" max="5" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="72" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.6640625" style="72" customWidth="1"/>
+    <col min="29" max="29" width="14" style="72" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" style="72" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" style="72" customWidth="1"/>
+    <col min="32" max="32" width="19.83203125" style="72" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" style="72" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="72" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" style="72" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" style="72" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" style="72" customWidth="1"/>
+    <col min="38" max="38" width="8.83203125" style="72" customWidth="1"/>
+    <col min="39" max="39" width="16.1640625" style="72" customWidth="1"/>
+    <col min="40" max="53" width="8.83203125" style="72" customWidth="1"/>
+    <col min="54" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="24" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="1" spans="1:44" ht="29" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="24" customHeight="1">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="21" customHeight="1">
+    <row r="4" spans="1:44" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="AE4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-    </row>
-    <row r="5" spans="1:38" s="19" customFormat="1">
+      <c r="AE4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="89"/>
+      <c r="AH4" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="1:44" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>1996</v>
@@ -8316,17 +8749,27 @@
       <c r="AB5" s="11">
         <v>2022</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="58" t="s">
+      <c r="AC5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -8411,16 +8854,27 @@
       <c r="AB6" s="24">
         <v>8635538</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
+      <c r="AC6" s="24">
+        <v>12005742</v>
+      </c>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="24"/>
+      <c r="AI6" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="73"/>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -8505,20 +8959,21 @@
       <c r="AB7" s="24">
         <v>4844807</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG7" s="67">
-        <v>21828000</v>
-      </c>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
+      <c r="AC7" s="24">
+        <v>8665773</v>
+      </c>
+      <c r="AD7" s="24"/>
+      <c r="AG7" s="24"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -8603,20 +9058,29 @@
       <c r="AB8" s="24">
         <v>4741586</v>
       </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="50" t="s">
+      <c r="AC8" s="24">
+        <v>6083792</v>
+      </c>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AG8" s="67">
-        <v>20180294</v>
-      </c>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
+      <c r="AF8" s="63">
+        <f>AC6+AC7</f>
+        <v>20671515</v>
+      </c>
+      <c r="AG8" s="24"/>
+      <c r="AI8" s="19"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -8695,32 +9159,47 @@
       <c r="Z9" s="10">
         <v>443007</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="10">
         <v>1412740</v>
       </c>
-      <c r="AB9" s="18">
-        <f>AG10</f>
-        <v>3606069</v>
-      </c>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="50" t="s">
+      <c r="AB9" s="10">
+        <v>5851213</v>
+      </c>
+      <c r="AC9" s="18">
+        <f>AF16</f>
+        <v>6880669.3081125207</v>
+      </c>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AG9" s="67">
-        <v>1958363</v>
-      </c>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
+      <c r="AF9" s="63">
+        <f>AC13</f>
+        <v>33128000</v>
+      </c>
+      <c r="AG9" s="24"/>
+      <c r="AI9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ9" s="63">
+        <f>AB14</f>
+        <v>0</v>
+      </c>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:AA10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:AC10" si="0">SUM(B6:B9)</f>
         <v>7602894.8000000007</v>
       </c>
       <c r="C10" s="25">
@@ -8819,31 +9298,43 @@
         <f t="shared" si="0"/>
         <v>19922471</v>
       </c>
-      <c r="AA10" s="91">
+      <c r="AA10" s="25">
         <f t="shared" si="0"/>
         <v>1952412</v>
       </c>
       <c r="AB10" s="25">
-        <f t="shared" ref="AB10" si="1">SUM(AB6:AB9)</f>
-        <v>21828000</v>
-      </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="50" t="s">
+        <f t="shared" si="0"/>
+        <v>24073144</v>
+      </c>
+      <c r="AC10" s="25">
+        <f t="shared" si="0"/>
+        <v>33635976.308112517</v>
+      </c>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="67">
-        <f>AG7-(AG8-AG9)</f>
-        <v>3606069</v>
-      </c>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
+      <c r="AF10" s="63">
+        <f>AF9-AF8</f>
+        <v>12456485</v>
+      </c>
+      <c r="AG10" s="25"/>
+      <c r="AI10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="63"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
@@ -8906,43 +9397,55 @@
         <v>-1242463</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" ref="V11:AB11" si="2">-U12</f>
+        <f t="shared" ref="V11:AC11" si="1">-U12</f>
         <v>-1501598</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1758613.4699999988</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1893205.8200000003</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2533986.1999999993</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1492459.0099999979</v>
       </c>
-      <c r="AA11" s="92">
-        <f t="shared" si="2"/>
+      <c r="AA11" s="24">
+        <f t="shared" si="1"/>
         <v>-15857.569999996573</v>
       </c>
       <c r="AB11" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-981624.2099999967</v>
       </c>
-      <c r="AE11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
+      <c r="AC11" s="24">
+        <f t="shared" si="1"/>
+        <v>-2963170.8599999957</v>
+      </c>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="24"/>
+      <c r="AI11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="63"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -9005,116 +9508,136 @@
         <v>1501598</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:AA12" si="3">V13-V11-V10</f>
+        <f t="shared" ref="V12:AC12" si="2">V13-V11-V10</f>
         <v>1758613.4699999988</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1893205.8200000003</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2533986.1999999993</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1492459.0099999979</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15857.569999996573</v>
       </c>
-      <c r="AA12" s="92">
-        <f t="shared" si="3"/>
+      <c r="AA12" s="24">
+        <f t="shared" si="2"/>
         <v>981624.2099999967</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" ref="AB12" si="4">AB13-AB11-AB10</f>
-        <v>981624.20999999717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="21" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>2963170.8599999957</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="2"/>
+        <v>2455194.5518874824</v>
+      </c>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="78">
+        <f>AB8/(AB8+AB9)</f>
+        <v>0.44762352235702763</v>
+      </c>
+      <c r="AG12" s="24"/>
+      <c r="AI12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ12" s="63">
+        <f>AJ9-(AJ10-AJ11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="21" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" ref="B13:U13" si="5">SUM(B10:B12)</f>
+        <f t="shared" ref="B13:U13" si="3">SUM(B10:B12)</f>
         <v>7602894.8000000007</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9107467.7599999998</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9401778.8599999994</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9793295.3300000001</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11541685.470000001</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12940755.559999999</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13835783.09</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14140070.699999999</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18312259.359999999</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13562317.52</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16970013.780000001</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16454075.83</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17983684.140000001</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21379281.960000001</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21850376.440000001</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20766693.289999999</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21910780.73</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19080907.77</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19973564.309999999</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19004731</v>
       </c>
       <c r="V13" s="15">
@@ -9132,136 +9655,164 @@
       <c r="Z13" s="15">
         <v>18445869.559999999</v>
       </c>
-      <c r="AA13" s="89">
+      <c r="AA13" s="15">
         <v>2918178.64</v>
       </c>
-      <c r="AB13" s="53">
-        <f>AG7</f>
-        <v>21828000</v>
-      </c>
-      <c r="AE13" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AB13" s="15">
+        <v>26054690.649999999</v>
+      </c>
+      <c r="AC13" s="51">
+        <v>33128000</v>
+      </c>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="78">
+        <f>AB9/(AB8+AB9)</f>
+        <v>0.55237647764297237</v>
+      </c>
+      <c r="AG13" s="25"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="19"/>
-      <c r="AE14" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG14" s="6"/>
-    </row>
-    <row r="17" spans="24:28" ht="21" customHeight="1">
-      <c r="X17" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="90"/>
-    </row>
-    <row r="18" spans="24:28">
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="78"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15" spans="1:44" ht="21" customHeight="1">
+      <c r="AE15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" s="63">
+        <f>AF10*AF12</f>
+        <v>5575815.6918874793</v>
+      </c>
+      <c r="AH15" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="AE16" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="63">
+        <f>AF10*AF13</f>
+        <v>6880669.3081125207</v>
+      </c>
+      <c r="AH16" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="24:27" ht="21" customHeight="1">
+      <c r="X17" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="93"/>
+    </row>
+    <row r="18" spans="24:27">
       <c r="X18" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y18" s="95"/>
       <c r="Z18" s="95"/>
       <c r="AA18" s="96"/>
-      <c r="AB18" s="90"/>
-    </row>
-    <row r="19" spans="24:28">
-      <c r="X19" s="97"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="90"/>
-    </row>
-    <row r="20" spans="24:28">
+    </row>
+    <row r="19" spans="24:27">
+      <c r="X19" s="99"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
+    </row>
+    <row r="20" spans="24:27">
       <c r="X20" s="94" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="95"/>
       <c r="Z20" s="95"/>
       <c r="AA20" s="96"/>
-      <c r="AB20" s="90"/>
-    </row>
-    <row r="21" spans="24:28">
-      <c r="X21" s="100"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="90"/>
-    </row>
-    <row r="22" spans="24:28">
-      <c r="X22" s="97"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="90"/>
-    </row>
-    <row r="23" spans="24:28">
+    </row>
+    <row r="21" spans="24:27">
+      <c r="X21" s="97"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="98"/>
+    </row>
+    <row r="22" spans="24:27">
+      <c r="X22" s="99"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
+    </row>
+    <row r="23" spans="24:27">
       <c r="X23" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="95"/>
       <c r="Z23" s="95"/>
       <c r="AA23" s="96"/>
-      <c r="AB23" s="90"/>
-    </row>
-    <row r="24" spans="24:28">
-      <c r="X24" s="97"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="90"/>
-    </row>
-    <row r="25" spans="24:28">
+    </row>
+    <row r="24" spans="24:27">
+      <c r="X24" s="99"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="101"/>
+    </row>
+    <row r="25" spans="24:27">
       <c r="X25" s="94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Y25" s="95"/>
       <c r="Z25" s="95"/>
       <c r="AA25" s="96"/>
-      <c r="AB25" s="90"/>
-    </row>
-    <row r="26" spans="24:28">
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="90"/>
-    </row>
-    <row r="27" spans="24:28">
-      <c r="X27" s="100"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="90"/>
-    </row>
-    <row r="28" spans="24:28">
-      <c r="X28" s="97"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="90"/>
+    </row>
+    <row r="26" spans="24:27">
+      <c r="X26" s="97"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="98"/>
+    </row>
+    <row r="27" spans="24:27">
+      <c r="X27" s="97"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="98"/>
+    </row>
+    <row r="28" spans="24:27">
+      <c r="X28" s="99"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="X25:AA28"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="X20:AA22"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X18:AA19"/>
     <mergeCell ref="X23:AA24"/>
-    <mergeCell ref="X25:AA28"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="X18:AA19"/>
-    <mergeCell ref="X20:AA22"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AG5" r:id="rId1" xr:uid="{8B33185B-59AC-4745-AC94-61C9D739767C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9271,47 +9822,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="78" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="78" customWidth="1"/>
-    <col min="3" max="5" width="14.6640625" style="78" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="78" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="82" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="78" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="78" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="78" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="78" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="78" customWidth="1"/>
-    <col min="13" max="22" width="8.83203125" style="78" customWidth="1"/>
-    <col min="23" max="16384" width="8.83203125" style="78"/>
+    <col min="1" max="1" width="19.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="72" customWidth="1"/>
+    <col min="3" max="5" width="14.6640625" style="72" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="72" customWidth="1"/>
+    <col min="10" max="10" width="29" style="72" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="72" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="72" customWidth="1"/>
+    <col min="13" max="13" width="12" style="72" customWidth="1"/>
+    <col min="14" max="14" width="13" style="72" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="72" customWidth="1"/>
+    <col min="16" max="26" width="8.83203125" style="72" customWidth="1"/>
+    <col min="27" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="29" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>66</v>
+      <c r="A1" s="45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="J4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" s="19" customFormat="1">
+      <c r="J4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="M4" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="11">
         <v>2017</v>
@@ -9331,15 +9886,19 @@
       <c r="G5" s="11">
         <v>2022</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="58" t="s">
+      <c r="H5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="J5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="9">
@@ -9363,12 +9922,16 @@
       <c r="G6" s="24">
         <v>20462788</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="H6" s="24">
+        <v>17352892</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="24"/>
+      <c r="N6" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="73"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
@@ -9394,16 +9957,10 @@
       <c r="G7" s="24">
         <v>20047592</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="67">
-        <v>76932000</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="H7" s="24">
+        <v>18659535</v>
+      </c>
+      <c r="L7" s="24"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
@@ -9427,18 +9984,20 @@
         <v>15075750</v>
       </c>
       <c r="G8" s="24">
-        <v>17534012</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="50" t="s">
+        <v>17534013</v>
+      </c>
+      <c r="H8" s="24">
+        <v>18502406</v>
+      </c>
+      <c r="J8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="67">
-        <v>63877538</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="K8" s="63">
+        <f>H6+H7</f>
+        <v>36012427</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="N8" s="19"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
@@ -9458,32 +10017,40 @@
       <c r="E9" s="10">
         <v>13763548</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="10">
         <v>18247280</v>
       </c>
-      <c r="G9" s="18">
-        <f>L11</f>
-        <v>18887609</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="50" t="s">
+      <c r="G9" s="10">
+        <v>19108572</v>
+      </c>
+      <c r="H9" s="18">
+        <f>K16</f>
+        <v>16726420.571576921</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="67">
-        <v>5833147</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="K9" s="63">
+        <f>H13</f>
+        <v>68087000</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="N9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="63">
+        <f>G14</f>
+        <v>0</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" ref="B10:G10" si="0">SUM(B6:B9)</f>
+        <f t="shared" ref="B10:H10" si="0">SUM(B6:B9)</f>
         <v>32549118</v>
       </c>
       <c r="C10" s="25">
@@ -9498,101 +10065,125 @@
         <f t="shared" si="0"/>
         <v>71176006</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>67925020</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
-        <v>76932001</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="67">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+        <v>77152965</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>71241253.571576923</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="63">
+        <f>K9-K8</f>
+        <v>32074573</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="N10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="63"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
       </c>
       <c r="C11" s="24">
-        <f>-B12</f>
+        <f t="shared" ref="C11:H11" si="1">-B12</f>
         <v>-6976264.6300000027</v>
       </c>
       <c r="D11" s="24">
-        <f>-C12</f>
+        <f t="shared" si="1"/>
         <v>-7107250.3400000036</v>
       </c>
       <c r="E11" s="24">
-        <f>-D12</f>
+        <f t="shared" si="1"/>
         <v>-7050335.7600000054</v>
       </c>
-      <c r="F11" s="92">
-        <f>-E12</f>
+      <c r="F11" s="24">
+        <f t="shared" si="1"/>
         <v>-5795135.6400000006</v>
       </c>
       <c r="G11" s="24">
-        <f>-F12</f>
+        <f t="shared" si="1"/>
         <v>-8024750.1099999994</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="67">
-        <f>L7-(L8-L10-L9)</f>
-        <v>18887609</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="H11" s="24">
+        <f t="shared" si="1"/>
+        <v>-6238596.0799999982</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="24"/>
+      <c r="N11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="63"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24">
-        <f t="shared" ref="B12:G12" si="1">B13-B11-B10</f>
+        <f t="shared" ref="B12:H12" si="2">B13-B11-B10</f>
         <v>6976264.6300000027</v>
       </c>
       <c r="C12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7107250.3400000036</v>
       </c>
       <c r="D12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7050335.7600000054</v>
       </c>
       <c r="E12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5795135.6400000006</v>
       </c>
-      <c r="F12" s="92">
-        <f t="shared" si="1"/>
+      <c r="F12" s="24">
+        <f t="shared" si="2"/>
         <v>8024750.1099999994</v>
       </c>
       <c r="G12" s="24">
-        <f t="shared" si="1"/>
-        <v>8024749.1099999994</v>
-      </c>
-      <c r="J12" s="6"/>
+        <f t="shared" si="2"/>
+        <v>6238596.0799999982</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="2"/>
+        <v>3084342.5084230751</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="78">
+        <f>G8/(G8+G9)</f>
+        <v>0.47851462990397647</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="N12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="63">
+        <f>O9-(O10-O11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>14</v>
+      <c r="A13" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="15">
         <v>39525382.630000003</v>
@@ -9606,138 +10197,155 @@
       <c r="E13" s="15">
         <v>69920805.879999995</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="15">
         <v>70154634.469999999</v>
       </c>
-      <c r="G13" s="53">
-        <f>L7</f>
-        <v>76932000</v>
-      </c>
+      <c r="G13" s="15">
+        <v>75366810.969999999</v>
+      </c>
+      <c r="H13" s="51">
+        <v>68087000</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="78">
+        <f>G9/(G8+G9)</f>
+        <v>0.52148537009602347</v>
+      </c>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="J14" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="17" spans="3:7" ht="21" customHeight="1">
-      <c r="C17" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="J14" s="55"/>
+      <c r="K14" s="78"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="63"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" customHeight="1">
+      <c r="J15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="63">
+        <f>K10*K12</f>
+        <v>15348152.428423077</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="63">
+        <f>K10*K13</f>
+        <v>16726420.571576921</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="21" customHeight="1">
+      <c r="C17" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D18" s="95"/>
       <c r="E18" s="95"/>
       <c r="F18" s="96"/>
-      <c r="G18" s="90"/>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="90"/>
-    </row>
-    <row r="20" spans="3:7">
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="94" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D20" s="95"/>
       <c r="E20" s="95"/>
       <c r="F20" s="96"/>
-      <c r="G20" s="90"/>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="90"/>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="90"/>
-    </row>
-    <row r="23" spans="3:7">
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="97"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="98"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="94" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D23" s="95"/>
       <c r="E23" s="95"/>
       <c r="F23" s="96"/>
-      <c r="G23" s="90"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="3:7">
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D25" s="95"/>
       <c r="E25" s="95"/>
       <c r="F25" s="96"/>
-      <c r="G25" s="90"/>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="90"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="90"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="97"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="98"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="97"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="98"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="C25:F28"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="C23:F24"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" xr:uid="{0B2F3250-13A6-174B-9551-D45C0DFCD163}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9747,1180 +10355,1287 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50:J52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K50" sqref="K50:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="16" style="78" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="17" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.1640625" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="78" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" style="78" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="78"/>
+    <col min="1" max="1" width="16" style="72" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="17" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="16" style="72" customWidth="1"/>
+    <col min="12" max="22" width="10.83203125" style="72" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="A1" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="74"/>
+      <c r="A2" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="G3" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="G3" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="65"/>
-      <c r="B7" s="80">
+      <c r="A7" s="62"/>
+      <c r="B7" s="87">
         <v>2014</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="87">
         <v>2015</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="87">
         <v>2016</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="87">
         <v>2017</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="87">
         <v>2018</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="87">
         <v>2019</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="87">
         <v>2020</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="87">
         <v>2021</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="87">
         <v>2022</v>
+      </c>
+      <c r="K7" s="87">
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="63">
         <v>292818579</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="63">
         <v>310365906</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="63">
         <v>329599785</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="63">
         <v>347384190</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="63">
         <v>361596630</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="63">
         <v>380923127</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="63">
         <v>399037463</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="63">
         <v>371916116</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="71">
         <v>377432121</v>
+      </c>
+      <c r="K8" s="71">
+        <v>400781184</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="63">
         <v>306369291</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="63">
         <v>321592586</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="63">
         <v>322278760</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="63">
         <v>332926440</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="63">
         <v>361445929</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="63">
         <v>376648658</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="63">
         <v>399428034</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="63">
         <v>351127009</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="71">
         <v>401064287</v>
+      </c>
+      <c r="K9" s="71">
+        <v>460503343</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="63">
         <v>334922566</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="63">
         <v>345907588</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="63">
         <v>381159067</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="63">
         <v>391138842</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="63">
         <v>405184419</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="63">
         <v>424814638</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="63">
         <v>451952369</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="63">
         <v>399736334</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="71">
         <v>459371517</v>
+      </c>
+      <c r="K10" s="71">
+        <v>461480189</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="63">
         <v>324158179</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="63">
         <v>338481448</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="63">
         <v>339777070</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="63">
         <v>359443505</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="63">
         <v>378099665</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="63">
         <v>391824144</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="63">
         <v>358510205</v>
       </c>
-      <c r="I11" s="66">
-        <v>363820283</v>
-      </c>
+      <c r="I11" s="63">
+        <v>356666504</v>
+      </c>
+      <c r="J11" s="71">
+        <v>406373444</v>
+      </c>
+      <c r="K11" s="71"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="19" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
-      <c r="B14" s="80">
+      <c r="B14" s="87">
         <v>2014</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="87">
         <v>2015</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="87">
         <v>2016</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="87">
         <v>2017</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="87">
         <v>2018</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="87">
         <v>2019</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="87">
         <v>2020</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="87">
         <v>2021</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="87">
         <v>2022</v>
+      </c>
+      <c r="K14" s="87">
+        <v>2023</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="12">
         <v>1</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="63">
         <v>29399779</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="63">
         <v>23644149</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="63">
         <v>27346387</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="63">
         <v>19450806</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="63">
         <v>30265595</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="63">
         <v>23619107</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="63">
         <v>38692954</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="63">
         <v>312731337</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="71">
         <v>49577722</v>
+      </c>
+      <c r="K15" s="71">
+        <v>58198096</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="63">
         <v>20931436</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="63">
         <v>11647595</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="63">
         <v>36911704</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="63">
         <v>34801055</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="63">
         <v>22000650</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="63">
         <v>30870183</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="63">
         <v>56247378</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="63">
         <v>59085234</v>
       </c>
-      <c r="J16" s="77">
-        <v>104863787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="71">
+        <v>104863788</v>
+      </c>
+      <c r="K16" s="71">
+        <v>90144757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="12">
         <v>3</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="63">
         <v>65192424</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="63">
         <v>92193479</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="63">
         <v>77221686</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="63">
         <v>68678648</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="63">
         <v>67520815</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="63">
         <v>79953747</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="63">
         <v>69319275</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="63">
         <v>74832055</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="71">
         <v>87624474</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="71">
+        <v>78948928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="13">
         <v>4</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="63">
         <v>353419956</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="63">
         <v>307115194</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="63">
         <v>335555600</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="63">
         <v>290642770</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="63">
         <v>330162244</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="63">
         <v>398303591</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="63">
         <v>100775057</v>
       </c>
-      <c r="I18" s="66">
-        <v>376646393</v>
-      </c>
-      <c r="J18"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I18" s="63">
+        <v>365071447</v>
+      </c>
+      <c r="J18" s="71">
+        <v>504229532</v>
+      </c>
+      <c r="K18" s="71"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="11"/>
-      <c r="B21" s="80">
+      <c r="B21" s="87">
         <v>2014</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="87">
         <v>2015</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="87">
         <v>2016</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="87">
         <v>2017</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="87">
         <v>2018</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="87">
         <v>2019</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="87">
         <v>2020</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="87">
         <v>2021</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="87">
         <v>2022</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="12">
         <v>1</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="63">
         <v>40859458</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="63">
         <v>52702114</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="63">
         <v>66851434</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="63">
         <v>62355933</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="63">
         <v>88178042</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="63">
         <v>88668115</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="63">
         <v>82388338</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="63">
         <v>83697338</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="71">
         <v>62633488</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="71">
+        <v>153353969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="63">
         <v>36006597</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="63">
         <v>50300786</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="63">
         <v>54562323</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="63">
         <v>59567077</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="63">
         <v>77989083</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="63">
         <v>78015241</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="63">
         <v>96447651</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="63">
         <v>87380433</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="71">
         <v>110242544</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="71">
+        <v>92923071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="63">
         <v>40065537</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="63">
         <v>36770195</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="63">
         <v>58799839</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="63">
         <v>54656344</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="63">
         <v>80957536</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="63">
         <v>62783760</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="63">
         <v>90034730</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="63">
         <v>66318437</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="71">
         <v>195109212</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="71">
+        <v>63309767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="13">
         <v>4</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="63">
         <v>50893461</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="63">
         <v>63368491</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="63">
         <v>56061612</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="63">
         <v>66228638</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="63">
         <v>86067644</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="63">
         <v>101015016</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="63">
         <v>42466055</v>
       </c>
-      <c r="I25" s="66">
-        <v>78367255</v>
-      </c>
-      <c r="J25"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I25" s="63">
+        <v>78366963</v>
+      </c>
+      <c r="J25" s="71">
+        <v>162803380</v>
+      </c>
+      <c r="K25" s="71"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="11"/>
-      <c r="B28" s="80">
+      <c r="B28" s="87">
         <v>2014</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="87">
         <v>2015</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="87">
         <v>2016</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="87">
         <v>2017</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="87">
         <v>2018</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="87">
         <v>2019</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="87">
         <v>2020</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="87">
         <v>2021</v>
       </c>
-      <c r="J28" s="80">
+      <c r="J28" s="87">
         <v>2022</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="63">
         <v>1252576</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="63">
         <v>-1409593</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="63">
         <v>-455543</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="63">
         <v>306537</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="63">
         <v>527084</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="63">
         <v>417260</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="63">
         <v>891963</v>
       </c>
-      <c r="I29" s="66">
+      <c r="I29" s="63">
         <v>17599174</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="71">
         <v>788951</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="71">
+        <v>5862346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="12">
         <v>2</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="63">
         <v>730423</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="63">
         <v>909233</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="63">
         <v>1869137</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="63">
         <v>345790</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="63">
         <v>1255570</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="63">
         <v>1001900</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="63">
         <v>691962</v>
       </c>
-      <c r="I30" s="66">
+      <c r="I30" s="63">
         <v>3687111</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="71">
         <v>170475</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="71">
+        <v>3972464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="B31" s="66">
+      <c r="B31" s="63">
         <v>424700</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="63">
         <v>1911765</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="63">
         <v>1762835</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="63">
         <v>3405436</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="63">
         <v>4423742</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="63">
         <v>2966777</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="63">
         <v>718483</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="63">
         <v>2658347</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="71">
         <v>2403664</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="71">
+        <v>5184277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="13">
         <v>4</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="63">
         <v>12289429</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="63">
         <v>11999255</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="63">
         <v>19735941</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="63">
         <v>21524674</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="63">
         <v>20899243</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="63">
         <v>24601552</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="63">
         <v>9499991</v>
       </c>
-      <c r="I32" s="66">
-        <v>26483762</v>
-      </c>
-      <c r="J32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="62"/>
-      <c r="B35" s="80">
+      <c r="I32" s="63">
+        <v>29667972</v>
+      </c>
+      <c r="J32" s="71">
+        <v>16653175</v>
+      </c>
+      <c r="K32" s="71"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="59"/>
+      <c r="B35" s="87">
         <v>2014</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="87">
         <v>2015</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="87">
         <v>2016</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35" s="87">
         <v>2017</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="87">
         <v>2018</v>
       </c>
-      <c r="G35" s="80">
+      <c r="G35" s="87">
         <v>2019</v>
       </c>
-      <c r="H35" s="80">
+      <c r="H35" s="87">
         <v>2020</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="87">
         <v>2021</v>
       </c>
-      <c r="J35" s="80">
+      <c r="J35" s="87">
         <v>2022</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="63">
+      <c r="K35" s="87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="60">
         <v>1</v>
       </c>
-      <c r="B36" s="66">
+      <c r="B36" s="63">
         <v>18084579</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="63">
         <v>18814385</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="63">
         <v>22439366</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="63">
         <v>23219178</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="63">
         <v>23138887</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="63">
         <v>23545435</v>
       </c>
-      <c r="H36" s="66">
+      <c r="H36" s="63">
         <v>24131096</v>
       </c>
-      <c r="I36" s="66">
+      <c r="I36" s="63">
         <v>8749567</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="71">
         <v>20006439</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="63">
+      <c r="K36" s="71">
+        <v>23729406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="60">
         <v>2</v>
       </c>
-      <c r="B37" s="66">
+      <c r="B37" s="63">
         <v>18704433</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="63">
         <v>19031943</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="63">
         <v>22148397</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="63">
         <v>24217561</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="63">
         <v>23812280</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="63">
         <v>24484251</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="63">
         <v>25390592</v>
       </c>
-      <c r="I37" s="66">
+      <c r="I37" s="63">
         <v>12136451</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="71">
         <v>20920423</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="63">
+      <c r="K37" s="71">
+        <v>23976240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="60">
         <v>3</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="63">
         <v>17559404</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="63">
         <v>18130481</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="63">
         <v>21996434</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="63">
         <v>22572844</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="63">
         <v>22807521</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="63">
         <v>22837006</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="63">
         <v>24212985</v>
       </c>
-      <c r="I38" s="66">
+      <c r="I38" s="63">
         <v>11338488</v>
       </c>
-      <c r="J38" s="77">
+      <c r="J38" s="71">
         <v>18995117</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="64">
+      <c r="K38" s="71">
+        <v>26300535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="61">
         <v>4</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="63">
         <v>19233799</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="63">
         <v>20234046</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="63">
         <v>25576782</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="63">
         <v>23897024</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="63">
         <v>23897656</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="63">
         <v>27061331</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="63">
         <v>7642535</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="63">
         <v>16877614</v>
       </c>
-      <c r="J39"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="62"/>
-      <c r="B42" s="80">
+      <c r="J39" s="71">
+        <v>22905854</v>
+      </c>
+      <c r="K39" s="71"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="59"/>
+      <c r="B42" s="87">
         <v>2014</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="87">
         <v>2015</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="87">
         <v>2016</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="87">
         <v>2017</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="87">
         <v>2018</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="87">
         <v>2019</v>
       </c>
-      <c r="H42" s="80">
+      <c r="H42" s="87">
         <v>2020</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="87">
         <v>2021</v>
       </c>
-      <c r="J42" s="80">
+      <c r="J42" s="87">
         <v>2022</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="63">
+      <c r="K42" s="87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="60">
         <v>1</v>
       </c>
-      <c r="B43" s="66">
+      <c r="B43" s="63">
         <v>6584997</v>
       </c>
-      <c r="C43" s="66">
+      <c r="C43" s="63">
         <v>6873698</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="63">
         <v>7026518</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="63">
         <v>7436443</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="63">
         <v>7513446</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="63">
         <v>10207270</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="63">
         <v>8744644</v>
       </c>
-      <c r="I43" s="66">
+      <c r="I43" s="63">
         <v>44995</v>
       </c>
-      <c r="J43" s="77">
+      <c r="J43" s="71">
         <v>8635538</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="63">
+      <c r="K43" s="71">
+        <v>12005742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="60">
         <v>2</v>
       </c>
-      <c r="B44" s="66">
+      <c r="B44" s="63">
         <v>3304237</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="63">
         <v>3032889</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="63">
         <v>3062447</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="63">
         <v>4047843</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="63">
         <v>4224345</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="63">
         <v>4985748</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="63">
         <v>5016406</v>
       </c>
-      <c r="I44" s="66">
+      <c r="I44" s="63">
         <v>376484</v>
       </c>
-      <c r="J44" s="77">
+      <c r="J44" s="71">
         <v>4844807</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="63">
+      <c r="K44" s="71">
+        <v>8665773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="60">
         <v>3</v>
       </c>
-      <c r="B45" s="66">
+      <c r="B45" s="63">
         <v>3387511</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="63">
         <v>3437893</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="63">
         <v>3672299</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="63">
         <v>3929755</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="63">
         <v>5216968</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="63">
         <v>5325325</v>
       </c>
-      <c r="H45" s="66">
+      <c r="H45" s="63">
         <v>5718414</v>
       </c>
-      <c r="I45" s="66">
+      <c r="I45" s="63">
         <v>118193</v>
       </c>
-      <c r="J45" s="77">
+      <c r="J45" s="71">
         <v>4741586</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="64">
+      <c r="K45" s="71">
+        <v>6083792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="61">
         <v>4</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="63">
         <v>6719845</v>
       </c>
-      <c r="C46" s="66">
+      <c r="C46" s="63">
         <v>5401115</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="63">
         <v>5378822</v>
       </c>
-      <c r="E46" s="66">
+      <c r="E46" s="63">
         <v>5028663</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="63">
         <v>5374409</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="63">
         <v>6929024</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="63">
         <v>443007</v>
       </c>
-      <c r="I46" s="66">
+      <c r="I46" s="63">
         <v>1412740</v>
       </c>
-      <c r="J46"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="62"/>
-      <c r="B49" s="76">
+      <c r="J46" s="71">
+        <v>5851213</v>
+      </c>
+      <c r="K46" s="71"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="59"/>
+      <c r="B49" s="70">
         <v>2014</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="70">
         <v>2015</v>
       </c>
-      <c r="D49" s="80">
+      <c r="D49" s="87">
         <v>2016</v>
       </c>
-      <c r="E49" s="80">
+      <c r="E49" s="87">
         <v>2017</v>
       </c>
-      <c r="F49" s="80">
+      <c r="F49" s="87">
         <v>2018</v>
       </c>
-      <c r="G49" s="80">
+      <c r="G49" s="87">
         <v>2019</v>
       </c>
-      <c r="H49" s="80">
+      <c r="H49" s="87">
         <v>2020</v>
       </c>
-      <c r="I49" s="80">
+      <c r="I49" s="87">
         <v>2021</v>
       </c>
-      <c r="J49" s="80">
+      <c r="J49" s="87">
         <v>2022</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="63">
+      <c r="K49" s="87">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="60">
         <v>1</v>
       </c>
-      <c r="B50" s="81">
+      <c r="B50" s="74">
         <v>0</v>
       </c>
-      <c r="C50" s="81">
+      <c r="C50" s="74">
         <v>0</v>
       </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77">
+      <c r="D50" s="71"/>
+      <c r="E50" s="71">
         <v>0</v>
       </c>
-      <c r="F50" s="77">
+      <c r="F50" s="71">
         <v>20158107</v>
       </c>
-      <c r="G50" s="77">
+      <c r="G50" s="71">
         <v>20102904</v>
       </c>
-      <c r="H50" s="77">
+      <c r="H50" s="71">
         <v>20280845</v>
       </c>
-      <c r="I50" s="77">
+      <c r="I50" s="71">
         <v>17501595</v>
       </c>
-      <c r="J50" s="77">
+      <c r="J50" s="71">
         <v>20462788</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="63">
+      <c r="K50" s="71">
+        <v>17352892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="60">
         <v>2</v>
       </c>
-      <c r="B51" s="81">
+      <c r="B51" s="74">
         <v>0</v>
       </c>
-      <c r="C51" s="81">
+      <c r="C51" s="74">
         <v>0</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77">
+      <c r="D51" s="71"/>
+      <c r="E51" s="71">
         <v>0</v>
       </c>
-      <c r="F51" s="77">
+      <c r="F51" s="71">
         <v>19607446</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="71">
         <v>19254238</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="71">
         <v>19800740</v>
       </c>
-      <c r="I51" s="77">
+      <c r="I51" s="71">
         <v>17100396</v>
       </c>
-      <c r="J51" s="77">
+      <c r="J51" s="71">
         <v>20047592</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="63">
+      <c r="K51" s="71">
+        <v>18659535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="60">
         <v>3</v>
       </c>
-      <c r="B52" s="81">
+      <c r="B52" s="74">
         <v>0</v>
       </c>
-      <c r="C52" s="81">
+      <c r="C52" s="74">
         <v>0</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D52" s="71">
         <v>0</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E52" s="71">
         <v>12112108</v>
       </c>
-      <c r="F52" s="77">
+      <c r="F52" s="71">
         <v>17826143</v>
       </c>
-      <c r="G52" s="77">
+      <c r="G52" s="71">
         <v>17871411</v>
       </c>
-      <c r="H52" s="77">
+      <c r="H52" s="71">
         <v>17330873</v>
       </c>
-      <c r="I52" s="77">
+      <c r="I52" s="71">
         <v>15075750</v>
       </c>
-      <c r="J52" s="77">
-        <v>17534012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="64">
+      <c r="J52" s="71">
+        <v>17534013</v>
+      </c>
+      <c r="K52" s="71">
+        <v>18502406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="61">
         <v>4</v>
       </c>
-      <c r="B53" s="81">
+      <c r="B53" s="74">
         <v>0</v>
       </c>
-      <c r="C53" s="81">
+      <c r="C53" s="74">
         <v>0</v>
       </c>
-      <c r="D53" s="77">
+      <c r="D53" s="71">
         <v>0</v>
       </c>
-      <c r="E53" s="77">
+      <c r="E53" s="71">
         <v>20437010</v>
       </c>
-      <c r="F53" s="77">
+      <c r="F53" s="71">
         <v>19698743</v>
       </c>
-      <c r="G53" s="77">
+      <c r="G53" s="71">
         <v>19683380</v>
       </c>
-      <c r="H53" s="77">
+      <c r="H53" s="71">
         <v>13763548</v>
       </c>
-      <c r="I53" s="77">
-        <v>18247280</v>
-      </c>
-      <c r="J53"/>
+      <c r="I53" s="71">
+        <v>19311320</v>
+      </c>
+      <c r="J53" s="71">
+        <v>19108572</v>
+      </c>
+      <c r="K53" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data/01_raw/historical/revenues/Quarterly.xlsx
+++ b/data/01_raw/historical/revenues/Quarterly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/Analysis/five-year-plan-analysis/data/01_raw/historical/revenues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94213FBD-CC72-C340-8EEB-6EEF984FD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6CE39-EEB6-D849-BCC5-5EBC384E8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wage &amp; Earnings" sheetId="1" r:id="rId1"/>
@@ -862,10 +862,20 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,16 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -893,11 +893,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView topLeftCell="X1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1351,24 +1351,24 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="AE3" s="90" t="s">
+      <c r="AE3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="89"/>
-      <c r="AH3" s="90" t="s">
+      <c r="AF3" s="95"/>
+      <c r="AH3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="89"/>
+      <c r="AI3" s="95"/>
     </row>
     <row r="4" spans="1:35" ht="21" customHeight="1">
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AH4" s="88" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AH4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AI4" s="89"/>
+      <c r="AI4" s="95"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="11"/>
@@ -1746,14 +1746,14 @@
       </c>
       <c r="AF8" s="63">
         <f>AC13</f>
-        <v>1703381000</v>
+        <v>1719754000</v>
       </c>
       <c r="AH8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="AI8" s="63">
         <f>AF8</f>
-        <v>1703381000</v>
+        <v>1719754000</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1843,14 +1843,14 @@
       </c>
       <c r="AC9" s="77">
         <f>AI11</f>
-        <v>380616284</v>
+        <v>396989284</v>
       </c>
       <c r="AE9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="AF9" s="63">
         <f>AF8-AF7</f>
-        <v>842096473</v>
+        <v>858469473</v>
       </c>
       <c r="AH9" s="55" t="s">
         <v>13</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="AC10" s="25">
         <f t="shared" si="0"/>
-        <v>1703381000</v>
+        <v>1719754000</v>
       </c>
       <c r="AE10" s="55"/>
       <c r="AF10" s="63"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="AI11" s="63">
         <f>AI8-AI9</f>
-        <v>380616284</v>
+        <v>396989284</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2304,7 +2304,7 @@
         <v>1648127559.5799999</v>
       </c>
       <c r="AC13" s="20">
-        <v>1703381000</v>
+        <v>1719754000</v>
       </c>
       <c r="AE13" s="55"/>
       <c r="AF13" s="78"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="AF14" s="63">
         <f>AF9*AF11</f>
-        <v>446823431.48210317</v>
+        <v>455511082.21835846</v>
       </c>
       <c r="AH14" s="55"/>
       <c r="AI14" s="63"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="AF15" s="63">
         <f>AF9*AF12</f>
-        <v>395273041.51789683</v>
+        <v>402958390.78164154</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="63"/>
@@ -2342,71 +2342,71 @@
       <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="24:35" ht="21" customHeight="1">
-      <c r="X17" s="91" t="s">
+      <c r="X17" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="101"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="63"/>
       <c r="AH17" s="55"/>
       <c r="AI17" s="63"/>
     </row>
     <row r="18" spans="24:35" ht="19" customHeight="1">
-      <c r="X18" s="94" t="s">
+      <c r="X18" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="96"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
       <c r="AE18" s="55"/>
       <c r="AF18" s="63"/>
       <c r="AH18" s="55"/>
     </row>
     <row r="19" spans="24:35">
-      <c r="X19" s="99"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="101"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="93"/>
       <c r="AE19" s="55"/>
       <c r="AF19" s="63"/>
       <c r="AH19" s="55"/>
       <c r="AI19" s="63"/>
     </row>
     <row r="20" spans="24:35" ht="19" customHeight="1">
-      <c r="X20" s="94" t="s">
+      <c r="X20" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
       <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="24:35">
-      <c r="X21" s="97"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="98"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="96"/>
       <c r="AE21" s="55"/>
       <c r="AF21" s="63"/>
     </row>
     <row r="22" spans="24:35" ht="21" customHeight="1">
-      <c r="X22" s="99"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
       <c r="AH22" s="75" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="24:35">
-      <c r="X23" s="94" t="s">
+      <c r="X23" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="96"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="90"/>
       <c r="AH23" s="55" t="s">
         <v>7</v>
       </c>
@@ -2415,30 +2415,30 @@
       </c>
     </row>
     <row r="24" spans="24:35">
-      <c r="X24" s="99"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
     </row>
     <row r="25" spans="24:35" ht="19" customHeight="1">
-      <c r="X25" s="94" t="s">
+      <c r="X25" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="96"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
     </row>
     <row r="26" spans="24:35">
-      <c r="X26" s="97"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="98"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="24:35" ht="47" customHeight="1">
-      <c r="X27" s="99"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="101"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2466,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView topLeftCell="N3" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -2860,9 +2860,9 @@
         <f>SUM(AB24:AB26)</f>
         <v>98727001.469999984</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="24">
         <f>SUM(AC24:AC26)</f>
-        <v>100529321.44674897</v>
+        <v>103719670</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="AC9" s="18">
         <f>SUM(AC27:AC29)</f>
-        <v>99455740.748337984</v>
+        <v>105357992</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="AC10" s="35">
         <f t="shared" si="0"/>
-        <v>401128101.19508696</v>
+        <v>410220701</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="AC12" s="33">
         <f t="shared" si="2"/>
-        <v>71301449.290299997</v>
+        <v>72491341.361499995</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -3382,26 +3382,26 @@
       </c>
       <c r="AC13" s="34">
         <f t="shared" si="3"/>
-        <v>401602641.48538697</v>
+        <v>411885133.36150002</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="21" customHeight="1">
       <c r="U16" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
     </row>
     <row r="17" spans="16:30">
       <c r="R17" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="S17" s="89"/>
+      <c r="S17" s="95"/>
       <c r="V17" s="27" t="s">
         <v>36</v>
       </c>
@@ -3463,8 +3463,7 @@
         <v>35857694</v>
       </c>
       <c r="AD18" s="80">
-        <f>+AC18*1.0067</f>
-        <v>36097940.549800001</v>
+        <v>36700349.809</v>
       </c>
     </row>
     <row r="19" spans="16:30">
@@ -3500,8 +3499,7 @@
         <v>34969215</v>
       </c>
       <c r="AD19" s="80">
-        <f>+AC19*1.0067</f>
-        <v>35203508.740499996</v>
+        <v>35790991.552500002</v>
       </c>
     </row>
     <row r="20" spans="16:30">
@@ -3534,7 +3532,6 @@
         <v>32984118</v>
       </c>
       <c r="AC20" s="81">
-        <f>14923648*2</f>
         <v>29847296</v>
       </c>
     </row>
@@ -3564,7 +3561,6 @@
         <v>30786384</v>
       </c>
       <c r="AC21" s="81">
-        <f>16360012*2</f>
         <v>32720024</v>
       </c>
     </row>
@@ -3594,17 +3590,16 @@
         <v>34645304</v>
       </c>
       <c r="AC22" s="81">
-        <f>17505583*2</f>
         <v>35011166</v>
       </c>
     </row>
     <row r="23" spans="16:30" ht="21" customHeight="1">
-      <c r="P23" s="91" t="s">
+      <c r="P23" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="93"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="101"/>
       <c r="U23" t="s">
         <v>53</v>
       </c>
@@ -3630,17 +3625,16 @@
         <v>31930512</v>
       </c>
       <c r="AC23" s="81">
-        <f>16368822*2</f>
         <v>32737644</v>
       </c>
     </row>
     <row r="24" spans="16:30" ht="19" customHeight="1">
-      <c r="P24" s="94" t="s">
+      <c r="P24" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="96"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="90"/>
       <c r="U24" t="s">
         <v>55</v>
       </c>
@@ -3666,15 +3660,14 @@
         <v>30759393</v>
       </c>
       <c r="AC24" s="81">
-        <f>16053165*2</f>
         <v>32106330</v>
       </c>
     </row>
     <row r="25" spans="16:30">
-      <c r="P25" s="97"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="98"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
       <c r="U25" t="s">
         <v>56</v>
       </c>
@@ -3700,15 +3693,14 @@
         <v>37155210.229999997</v>
       </c>
       <c r="AC25" s="80">
-        <f>+AB25*1.0067</f>
-        <v>37404150.138540991</v>
+        <v>39470688</v>
       </c>
     </row>
     <row r="26" spans="16:30">
-      <c r="P26" s="97"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="98"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="96"/>
       <c r="U26" t="s">
         <v>57</v>
       </c>
@@ -3734,15 +3726,14 @@
         <v>30812398.239999998</v>
       </c>
       <c r="AC26" s="80">
-        <f>+AB26*1.0067</f>
-        <v>31018841.308207996</v>
+        <v>32142652</v>
       </c>
     </row>
     <row r="27" spans="16:30">
-      <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="93"/>
       <c r="U27" t="s">
         <v>58</v>
       </c>
@@ -3768,17 +3759,16 @@
         <v>31367561.079999998</v>
       </c>
       <c r="AC27" s="80">
-        <f>+AB27*1.0067</f>
-        <v>31577723.739235997</v>
+        <v>34484274</v>
       </c>
     </row>
     <row r="28" spans="16:30" ht="19" customHeight="1">
       <c r="P28" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="96"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="90"/>
       <c r="U28" t="s">
         <v>60</v>
       </c>
@@ -3804,15 +3794,14 @@
         <v>34542262.130000003</v>
       </c>
       <c r="AC28" s="80">
-        <f>+AB28*1.0067</f>
-        <v>34773695.286270998</v>
+        <v>37210368</v>
       </c>
     </row>
     <row r="29" spans="16:30">
-      <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="93"/>
       <c r="U29" t="s">
         <v>61</v>
       </c>
@@ -3838,17 +3827,16 @@
         <v>32883998.93</v>
       </c>
       <c r="AC29" s="80">
-        <f>+AB29*1.0067</f>
-        <v>33104321.722830996</v>
+        <v>33663350</v>
       </c>
     </row>
     <row r="30" spans="16:30" ht="19" customHeight="1">
       <c r="P30" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="90"/>
       <c r="U30" s="31" t="s">
         <v>14</v>
       </c>
@@ -3874,14 +3862,14 @@
         <v>393809088.61000001</v>
       </c>
       <c r="AC30" s="29">
-        <v>401128101.19508702</v>
+        <v>410220701</v>
       </c>
     </row>
     <row r="31" spans="16:30" ht="19" customHeight="1">
-      <c r="P31" s="97"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="98"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
       <c r="U31" s="32" t="s">
         <v>16</v>
       </c>
@@ -3911,10 +3899,10 @@
       </c>
     </row>
     <row r="32" spans="16:30">
-      <c r="P32" s="97"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="98"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="96"/>
       <c r="U32" s="1" t="s">
         <v>19</v>
       </c>
@@ -3940,14 +3928,14 @@
         <v>70826909</v>
       </c>
       <c r="AC32" s="30">
-        <v>71301449.290299997</v>
+        <v>72491341.361499995</v>
       </c>
     </row>
     <row r="33" spans="16:29">
-      <c r="P33" s="99"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="101"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="93"/>
       <c r="V33" s="29">
         <v>291045035.30000001</v>
       </c>
@@ -3970,7 +3958,7 @@
         <v>398694050.61000001</v>
       </c>
       <c r="AC33" s="29">
-        <v>401602641.48538703</v>
+        <v>411885133.36150002</v>
       </c>
     </row>
     <row r="34" spans="16:29">
@@ -4022,7 +4010,7 @@
   <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -4058,27 +4046,27 @@
       <c r="A3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="90" t="s">
+      <c r="AE3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="89"/>
-      <c r="AH3" s="90" t="s">
+      <c r="AF3" s="95"/>
+      <c r="AH3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AH4" s="106" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AH4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="38"/>
@@ -4454,14 +4442,14 @@
       </c>
       <c r="AF8" s="63">
         <f>AC13</f>
-        <v>729455000</v>
+        <v>690754000</v>
       </c>
       <c r="AI8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="AJ8" s="63">
         <f>AC13</f>
-        <v>729455000</v>
+        <v>690754000</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -4551,14 +4539,14 @@
       </c>
       <c r="AC9" s="18">
         <f>AF15</f>
-        <v>495078014.08938205</v>
+        <v>462106729.07634795</v>
       </c>
       <c r="AE9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="AF9" s="63">
         <f>AF8-AF7</f>
-        <v>581112147</v>
+        <v>542411147</v>
       </c>
       <c r="AI9" s="55" t="s">
         <v>66</v>
@@ -4679,7 +4667,7 @@
       </c>
       <c r="AC10" s="25">
         <f t="shared" si="0"/>
-        <v>722369795.08938205</v>
+        <v>689398510.07634795</v>
       </c>
       <c r="AE10" s="55"/>
       <c r="AF10" s="63"/>
@@ -4796,7 +4784,7 @@
       </c>
       <c r="AJ11" s="63">
         <f>AJ8-(AJ9-AJ10)</f>
-        <v>729455000</v>
+        <v>690754000</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -4893,7 +4881,7 @@
       </c>
       <c r="AC12" s="24">
         <f t="shared" si="2"/>
-        <v>12670966.500617981</v>
+        <v>6941251.5136520863</v>
       </c>
       <c r="AE12" s="55" t="s">
         <v>20</v>
@@ -5009,7 +4997,7 @@
         <v>749865139.25999999</v>
       </c>
       <c r="AC13" s="20">
-        <v>729455000</v>
+        <v>690754000</v>
       </c>
       <c r="AE13" s="55"/>
       <c r="AF13" s="78"/>
@@ -5023,13 +5011,13 @@
       </c>
       <c r="AF14" s="63">
         <f>AF9*AF11</f>
-        <v>86034132.910617962</v>
-      </c>
-      <c r="AH14" s="105" t="s">
+        <v>80304417.923652068</v>
+      </c>
+      <c r="AH14" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
     </row>
     <row r="15" spans="1:36" ht="21" customHeight="1">
       <c r="AE15" s="55" t="s">
@@ -5037,7 +5025,7 @@
       </c>
       <c r="AF15" s="63">
         <f>AF9*AF12</f>
-        <v>495078014.08938205</v>
+        <v>462106729.07634795</v>
       </c>
       <c r="AH15" s="55" t="s">
         <v>7</v>
@@ -5047,94 +5035,94 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="21" customHeight="1">
-      <c r="X16" s="91" t="s">
+      <c r="X16" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="93"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="101"/>
     </row>
     <row r="17" spans="24:33">
-      <c r="X17" s="94" t="s">
+      <c r="X17" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="96"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="90"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="63"/>
       <c r="AG17" s="63"/>
     </row>
     <row r="18" spans="24:33" ht="19" customHeight="1">
-      <c r="X18" s="99"/>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="101"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="93"/>
       <c r="AF18" s="55"/>
       <c r="AG18" s="63"/>
     </row>
     <row r="19" spans="24:33">
-      <c r="X19" s="94" t="s">
+      <c r="X19" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="96"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="90"/>
       <c r="AF19" s="55"/>
     </row>
     <row r="20" spans="24:33" ht="19" customHeight="1">
-      <c r="X20" s="97"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="98"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
       <c r="AF20" s="55"/>
       <c r="AG20" s="63"/>
     </row>
     <row r="21" spans="24:33">
-      <c r="X21" s="99"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="101"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="93"/>
     </row>
     <row r="22" spans="24:33">
-      <c r="X22" s="94" t="s">
+      <c r="X22" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="96"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="90"/>
     </row>
     <row r="23" spans="24:33" ht="19" customHeight="1">
-      <c r="X23" s="99"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="101"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
     </row>
     <row r="24" spans="24:33">
-      <c r="X24" s="94" t="s">
+      <c r="X24" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="96"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="90"/>
     </row>
     <row r="25" spans="24:33" ht="19" customHeight="1">
-      <c r="X25" s="97"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="98"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
     </row>
     <row r="26" spans="24:33">
-      <c r="X26" s="97"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="98"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="24:33">
-      <c r="X27" s="99"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="101"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5159,7 +5147,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -5192,26 +5180,26 @@
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="AE3" s="90" t="s">
+      <c r="AE3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="89"/>
-      <c r="AI3" s="90" t="s">
+      <c r="AF3" s="95"/>
+      <c r="AI3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1">
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AI4" s="106" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AI4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="21"/>
@@ -5587,13 +5575,13 @@
       </c>
       <c r="AF8" s="63">
         <f>AC13</f>
-        <v>398824000</v>
+        <v>381304000</v>
       </c>
       <c r="AJ8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="AK8" s="63">
-        <v>398824000</v>
+        <v>381304000</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -5683,14 +5671,14 @@
       </c>
       <c r="AC9" s="18">
         <f>AK10</f>
-        <v>89237193</v>
+        <v>71717193</v>
       </c>
       <c r="AE9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="AF9" s="63">
         <f>AF8-AF7</f>
-        <v>152546960</v>
+        <v>135026960</v>
       </c>
       <c r="AJ9" s="55" t="s">
         <v>71</v>
@@ -5814,7 +5802,7 @@
       </c>
       <c r="AC10" s="25">
         <f t="shared" si="0"/>
-        <v>398824000</v>
+        <v>381304000</v>
       </c>
       <c r="AE10" s="55"/>
       <c r="AF10" s="63"/>
@@ -5823,7 +5811,7 @@
       </c>
       <c r="AK10" s="63">
         <f>AK8-AK9</f>
-        <v>89237193</v>
+        <v>71717193</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -6143,15 +6131,15 @@
       </c>
       <c r="AC13" s="20">
         <f>AK8</f>
-        <v>398824000</v>
+        <v>381304000</v>
       </c>
       <c r="AE13" s="55"/>
       <c r="AF13" s="78"/>
-      <c r="AI13" s="105" t="s">
+      <c r="AI13" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1">
       <c r="AE14" s="55" t="s">
@@ -6159,7 +6147,7 @@
       </c>
       <c r="AF14" s="63">
         <f>AF9*AF11</f>
-        <v>83158061.001093581</v>
+        <v>73607367.701540709</v>
       </c>
       <c r="AI14" s="55" t="s">
         <v>7</v>
@@ -6174,90 +6162,90 @@
       </c>
       <c r="AF15" s="63">
         <f>AF9*AF12</f>
-        <v>69388898.998906419</v>
+        <v>61419592.298459284</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1">
-      <c r="X16" s="91" t="s">
+      <c r="X16" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="93"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="101"/>
     </row>
     <row r="17" spans="24:27">
-      <c r="X17" s="94" t="s">
+      <c r="X17" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="96"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="90"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="99"/>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="101"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="93"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="94" t="s">
+      <c r="X19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="96"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="90"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="97"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="98"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="99"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="101"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="93"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="94" t="s">
+      <c r="X22" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="96"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="90"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="99"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="101"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="94" t="s">
+      <c r="X24" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="96"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="90"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="97"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="98"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="97"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="98"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="99"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="101"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6282,7 +6270,7 @@
   <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -6339,15 +6327,15 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1">
-      <c r="AE4" s="90" t="s">
+      <c r="AE4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AI4" s="90" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AI4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1">
       <c r="A5" s="21"/>
@@ -6435,15 +6423,15 @@
       <c r="AC5" s="11">
         <v>2023</v>
       </c>
-      <c r="AE5" s="88" t="s">
+      <c r="AE5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AF5" s="89"/>
-      <c r="AI5" s="106" t="s">
+      <c r="AF5" s="95"/>
+      <c r="AI5" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="9">
@@ -6813,21 +6801,21 @@
       </c>
       <c r="AC9" s="33">
         <f>AF16</f>
-        <v>17530845.89622917</v>
+        <v>27154761.818224419</v>
       </c>
       <c r="AE9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="AF9" s="63">
         <f>AC13</f>
-        <v>29896000</v>
+        <v>40909000</v>
       </c>
       <c r="AJ9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="AK9" s="63">
         <f>AC13</f>
-        <v>29896000</v>
+        <v>40909000</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -6944,14 +6932,14 @@
       </c>
       <c r="AC10" s="47">
         <f t="shared" si="0"/>
-        <v>32549932.89622917</v>
+        <v>42173848.818224415</v>
       </c>
       <c r="AE10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="AF10" s="63">
         <f>AF9-AF8</f>
-        <v>20061190</v>
+        <v>31074190</v>
       </c>
       <c r="AJ10" s="55" t="s">
         <v>66</v>
@@ -7155,7 +7143,7 @@
       </c>
       <c r="AC12" s="24">
         <f t="shared" si="2"/>
-        <v>391098.81377083436</v>
+        <v>1780182.8917755932</v>
       </c>
       <c r="AE12" s="55" t="s">
         <v>17</v>
@@ -7169,7 +7157,7 @@
       </c>
       <c r="AK12" s="63">
         <f>AK9-(AK10-AK11)</f>
-        <v>29896000</v>
+        <v>40909000</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -7278,7 +7266,7 @@
         <v>21963184.870000001</v>
       </c>
       <c r="AC13" s="51">
-        <v>29896000</v>
+        <v>40909000</v>
       </c>
       <c r="AE13" s="55" t="s">
         <v>20</v>
@@ -7300,13 +7288,13 @@
       </c>
       <c r="AF15" s="63">
         <f>AF10*AF12</f>
-        <v>2530344.1037708297</v>
-      </c>
-      <c r="AI15" s="105" t="s">
+        <v>3919428.181775582</v>
+      </c>
+      <c r="AI15" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
     </row>
     <row r="16" spans="1:37">
       <c r="AE16" s="55" t="s">
@@ -7314,7 +7302,7 @@
       </c>
       <c r="AF16" s="63">
         <f>AF10*AF13</f>
-        <v>17530845.89622917</v>
+        <v>27154761.818224419</v>
       </c>
       <c r="AI16" s="55" t="s">
         <v>7</v>
@@ -7324,86 +7312,86 @@
       </c>
     </row>
     <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="91" t="s">
+      <c r="X17" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="101"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="94" t="s">
+      <c r="X18" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="96"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="99"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="101"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="93"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="94" t="s">
+      <c r="X20" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="97"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="98"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="96"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="99"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="94" t="s">
+      <c r="X23" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="96"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="90"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="99"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="94" t="s">
+      <c r="X25" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="96"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="97"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="98"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="97"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="98"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="96"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="99"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="101"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7428,7 +7416,7 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -7461,15 +7449,15 @@
     </row>
     <row r="3" spans="1:43" ht="18" customHeight="1">
       <c r="A3" s="46"/>
-      <c r="AE3" s="90" t="s">
+      <c r="AE3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="89"/>
-      <c r="AI3" s="90" t="s">
+      <c r="AF3" s="95"/>
+      <c r="AI3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
@@ -7478,15 +7466,15 @@
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" ht="21" customHeight="1">
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AI4" s="106" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AI4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
       <c r="AQ4" s="6"/>
@@ -7882,14 +7870,14 @@
       </c>
       <c r="AF8" s="63">
         <f>AC13</f>
-        <v>97163000</v>
+        <v>101589000</v>
       </c>
       <c r="AJ8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="AK8" s="63">
         <f>AC13</f>
-        <v>97163000</v>
+        <v>101589000</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
@@ -7985,7 +7973,7 @@
       </c>
       <c r="AC9" s="33">
         <f>AF15</f>
-        <v>27036674.876826026</v>
+        <v>29456220.471700188</v>
       </c>
       <c r="AD9" s="24"/>
       <c r="AE9" s="55" t="s">
@@ -7993,7 +7981,7 @@
       </c>
       <c r="AF9" s="63">
         <f>AF8-AF7</f>
-        <v>49457354</v>
+        <v>53883354</v>
       </c>
       <c r="AJ9" s="55" t="s">
         <v>66</v>
@@ -8120,7 +8108,7 @@
       </c>
       <c r="AC10" s="47">
         <f t="shared" si="0"/>
-        <v>101042855.87682602</v>
+        <v>103462401.47170019</v>
       </c>
       <c r="AD10" s="25"/>
       <c r="AE10" s="55"/>
@@ -8245,7 +8233,7 @@
       </c>
       <c r="AK11" s="63">
         <f>AK8-(AK9-AK10)</f>
-        <v>97163000</v>
+        <v>101589000</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
@@ -8348,7 +8336,7 @@
       </c>
       <c r="AC12" s="24">
         <f t="shared" si="2"/>
-        <v>14851547.073173985</v>
+        <v>16858001.478299811</v>
       </c>
       <c r="AD12" s="24"/>
       <c r="AE12" s="55" t="s">
@@ -8471,7 +8459,7 @@
         <v>86621053.290000007</v>
       </c>
       <c r="AC13" s="51">
-        <v>97163000</v>
+        <v>101589000</v>
       </c>
       <c r="AD13" s="25"/>
       <c r="AE13" s="55"/>
@@ -8485,13 +8473,13 @@
       </c>
       <c r="AF14" s="63">
         <f>AF9*AF11</f>
-        <v>22420679.123173971</v>
-      </c>
-      <c r="AI14" s="105" t="s">
+        <v>24427133.528299809</v>
+      </c>
+      <c r="AI14" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
     </row>
     <row r="15" spans="1:43">
       <c r="AE15" s="55" t="s">
@@ -8499,7 +8487,7 @@
       </c>
       <c r="AF15" s="63">
         <f>AF9*AF12</f>
-        <v>27036674.876826026</v>
+        <v>29456220.471700188</v>
       </c>
       <c r="AI15" s="55" t="s">
         <v>7</v>
@@ -8509,86 +8497,86 @@
       </c>
     </row>
     <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="91" t="s">
+      <c r="X17" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="101"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="94" t="s">
+      <c r="X18" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="96"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="99"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="101"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="93"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="94" t="s">
+      <c r="X20" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="97"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="98"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="96"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="99"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="94" t="s">
+      <c r="X23" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="96"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="90"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="99"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="94" t="s">
+      <c r="X25" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="96"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="97"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="98"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="97"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="98"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="96"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="99"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="101"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8612,7 +8600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR28"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
@@ -8651,18 +8639,18 @@
     </row>
     <row r="4" spans="1:44" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="AE4" s="90" t="s">
+      <c r="AE4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="89"/>
-      <c r="AH4" s="90" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AH4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
       <c r="AK4" s="108"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
     </row>
@@ -8753,12 +8741,12 @@
         <v>2023</v>
       </c>
       <c r="AD5" s="83"/>
-      <c r="AE5" s="88" t="s">
+      <c r="AE5" s="97" t="s">
         <v>5</v>
       </c>
       <c r="AF5" s="107"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="106" t="s">
+      <c r="AH5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="AI5" s="107"/>
@@ -9167,7 +9155,7 @@
       </c>
       <c r="AC9" s="18">
         <f>AF16</f>
-        <v>6880669.3081125207</v>
+        <v>6431587.2317887843</v>
       </c>
       <c r="AD9" s="24"/>
       <c r="AE9" s="55" t="s">
@@ -9175,7 +9163,7 @@
       </c>
       <c r="AF9" s="63">
         <f>AC13</f>
-        <v>33128000</v>
+        <v>32315000</v>
       </c>
       <c r="AG9" s="24"/>
       <c r="AI9" s="55" t="s">
@@ -9308,7 +9296,7 @@
       </c>
       <c r="AC10" s="25">
         <f t="shared" si="0"/>
-        <v>33635976.308112517</v>
+        <v>33186894.231788784</v>
       </c>
       <c r="AD10" s="25"/>
       <c r="AE10" s="55" t="s">
@@ -9316,7 +9304,7 @@
       </c>
       <c r="AF10" s="63">
         <f>AF9-AF8</f>
-        <v>12456485</v>
+        <v>11643485</v>
       </c>
       <c r="AG10" s="25"/>
       <c r="AI10" s="55" t="s">
@@ -9537,7 +9525,7 @@
       </c>
       <c r="AC12" s="24">
         <f t="shared" si="2"/>
-        <v>2455194.5518874824</v>
+        <v>2091276.6282112151</v>
       </c>
       <c r="AD12" s="24"/>
       <c r="AE12" s="55" t="s">
@@ -9662,7 +9650,7 @@
         <v>26054690.649999999</v>
       </c>
       <c r="AC13" s="51">
-        <v>33128000</v>
+        <v>32315000</v>
       </c>
       <c r="AD13" s="25"/>
       <c r="AE13" s="55" t="s">
@@ -9674,8 +9662,8 @@
       </c>
       <c r="AG13" s="25"/>
       <c r="AK13" s="109"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="19"/>
@@ -9693,13 +9681,13 @@
       </c>
       <c r="AF15" s="63">
         <f>AF10*AF12</f>
-        <v>5575815.6918874793</v>
-      </c>
-      <c r="AH15" s="105" t="s">
+        <v>5211897.7682112157</v>
+      </c>
+      <c r="AH15" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
     </row>
     <row r="16" spans="1:44">
       <c r="AE16" s="55" t="s">
@@ -9707,7 +9695,7 @@
       </c>
       <c r="AF16" s="63">
         <f>AF10*AF13</f>
-        <v>6880669.3081125207</v>
+        <v>6431587.2317887843</v>
       </c>
       <c r="AH16" s="55" t="s">
         <v>7</v>
@@ -9717,86 +9705,86 @@
       </c>
     </row>
     <row r="17" spans="24:27" ht="21" customHeight="1">
-      <c r="X17" s="91" t="s">
+      <c r="X17" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="101"/>
     </row>
     <row r="18" spans="24:27">
-      <c r="X18" s="94" t="s">
+      <c r="X18" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="96"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
     </row>
     <row r="19" spans="24:27">
-      <c r="X19" s="99"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="101"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="93"/>
     </row>
     <row r="20" spans="24:27">
-      <c r="X20" s="94" t="s">
+      <c r="X20" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
     </row>
     <row r="21" spans="24:27">
-      <c r="X21" s="97"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="98"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="96"/>
     </row>
     <row r="22" spans="24:27">
-      <c r="X22" s="99"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
     </row>
     <row r="23" spans="24:27">
-      <c r="X23" s="94" t="s">
+      <c r="X23" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="96"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="90"/>
     </row>
     <row r="24" spans="24:27">
-      <c r="X24" s="99"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
     </row>
     <row r="25" spans="24:27">
-      <c r="X25" s="94" t="s">
+      <c r="X25" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="96"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
     </row>
     <row r="26" spans="24:27">
-      <c r="X26" s="97"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="98"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="96"/>
     </row>
     <row r="27" spans="24:27">
-      <c r="X27" s="97"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="98"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="96"/>
     </row>
     <row r="28" spans="24:27">
-      <c r="X28" s="99"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="101"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9822,8 +9810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -9856,15 +9844,15 @@
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="A4" s="19"/>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="M4" s="90" t="s">
+      <c r="K4" s="95"/>
+      <c r="M4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="21"/>
@@ -9889,12 +9877,12 @@
       <c r="H5" s="11">
         <v>2023</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="97" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="107"/>
       <c r="L5" s="83"/>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="107"/>
@@ -10025,14 +10013,14 @@
       </c>
       <c r="H9" s="18">
         <f>K16</f>
-        <v>16726420.571576921</v>
+        <v>19076755.134599701</v>
       </c>
       <c r="J9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="63">
         <f>H13</f>
-        <v>68087000</v>
+        <v>72594000</v>
       </c>
       <c r="L9" s="24"/>
       <c r="N9" s="55" t="s">
@@ -10075,14 +10063,14 @@
       </c>
       <c r="H10" s="25">
         <f t="shared" si="0"/>
-        <v>71241253.571576923</v>
+        <v>73591588.134599701</v>
       </c>
       <c r="J10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="63">
         <f>K9-K8</f>
-        <v>32074573</v>
+        <v>36581573</v>
       </c>
       <c r="L10" s="25"/>
       <c r="N10" s="55" t="s">
@@ -10163,7 +10151,7 @@
       </c>
       <c r="H12" s="24">
         <f t="shared" si="2"/>
-        <v>3084342.5084230751</v>
+        <v>5241007.9454002976</v>
       </c>
       <c r="J12" s="55" t="s">
         <v>17</v>
@@ -10204,7 +10192,7 @@
         <v>75366810.969999999</v>
       </c>
       <c r="H13" s="51">
-        <v>68087000</v>
+        <v>72594000</v>
       </c>
       <c r="J13" s="55" t="s">
         <v>20</v>
@@ -10228,13 +10216,13 @@
       </c>
       <c r="K15" s="63">
         <f>K10*K12</f>
-        <v>15348152.428423077</v>
-      </c>
-      <c r="M15" s="105" t="s">
+        <v>17504817.865400299</v>
+      </c>
+      <c r="M15" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="55" t="s">
@@ -10242,7 +10230,7 @@
       </c>
       <c r="K16" s="63">
         <f>K10*K13</f>
-        <v>16726420.571576921</v>
+        <v>19076755.134599701</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>7</v>
@@ -10252,86 +10240,86 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="21" customHeight="1">
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="97"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="98"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="97"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="98"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="97"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="98"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10378,10 +10366,10 @@
       <c r="G1" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="72" t="s">
@@ -10396,10 +10384,10 @@
       <c r="G3" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19" t="s">
